--- a/scripts/FINAL STRINGS_PT_EN_ES_CHI_FRA 05072016.xlsx
+++ b/scripts/FINAL STRINGS_PT_EN_ES_CHI_FRA 05072016.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26311"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MarianaNacarato/Desktop/Arquivos finais Tradução/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stark\Documents\Epitrack\guardioes_da_saude\web\guardioes-da-saude\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14760"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="25605" windowHeight="14760"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -30,7 +30,7 @@
     <author>marlo libel</author>
   </authors>
   <commentList>
-    <comment ref="D252" authorId="0">
+    <comment ref="D252" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -54,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C702" authorId="1">
+    <comment ref="C702" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6276" uniqueCount="5769">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6304" uniqueCount="5797">
   <si>
     <t>Português</t>
   </si>
@@ -17937,12 +17937,96 @@
     <t>分數表示由所有使用者（根據其各別來源國）所解鎖的每個階段。</t>
     <phoneticPr fontId="0" type="noConversion"/>
   </si>
+  <si>
+    <t>Frequência de envio de relatório em</t>
+  </si>
+  <si>
+    <t>report sending frequency in</t>
+  </si>
+  <si>
+    <t>informe de frecuencia de envío</t>
+  </si>
+  <si>
+    <t>發送報告的頻率</t>
+  </si>
+  <si>
+    <t>تردد إرسال تقرير</t>
+  </si>
+  <si>
+    <t>Отчет отправки частоты</t>
+  </si>
+  <si>
+    <t>rapport fréquence d'envoi</t>
+  </si>
+  <si>
+    <t>da frequência no envio de relatórios</t>
+  </si>
+  <si>
+    <t>the frequency in sending reports</t>
+  </si>
+  <si>
+    <t>la frecuencia de envío de informes</t>
+  </si>
+  <si>
+    <t>在發送報告的頻率</t>
+  </si>
+  <si>
+    <t>تردد في تقارير ترسل</t>
+  </si>
+  <si>
+    <t>частота в отправке отчетов</t>
+  </si>
+  <si>
+    <t>la fréquence dans les rapports d'envoi</t>
+  </si>
+  <si>
+    <t>Add \\n new member</t>
+  </si>
+  <si>
+    <t>Adicionar\\nnovo integrante</t>
+  </si>
+  <si>
+    <t>Añadir \\n nuevo miembro</t>
+  </si>
+  <si>
+    <t>添加新成員</t>
+  </si>
+  <si>
+    <t>إضافة عضو جديد</t>
+  </si>
+  <si>
+    <t>Добавить новый элемент</t>
+  </si>
+  <si>
+    <t>Ajouter \\n un nouveau membre</t>
+  </si>
+  <si>
+    <t>Obrigado pela infomação</t>
+  </si>
+  <si>
+    <t>Thanks for the info</t>
+  </si>
+  <si>
+    <t>Gracias por la información</t>
+  </si>
+  <si>
+    <t>感謝您的信息</t>
+  </si>
+  <si>
+    <t>شكرا للمعلومات</t>
+  </si>
+  <si>
+    <t>Спасибо за информацию</t>
+  </si>
+  <si>
+    <t>Merci pour l'info</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="31">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -18609,23 +18693,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="A606" workbookViewId="0">
+      <selection activeCell="B615" sqref="B615"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="53.6640625" customWidth="1"/>
-    <col min="2" max="2" width="30.6640625" customWidth="1"/>
-    <col min="3" max="3" width="29.6640625" customWidth="1"/>
-    <col min="4" max="4" width="22.6640625" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="21.1640625" customWidth="1"/>
-    <col min="7" max="7" width="72.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="26" width="10.6640625" customWidth="1"/>
+    <col min="1" max="1" width="53.625" customWidth="1"/>
+    <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="3" max="3" width="29.625" customWidth="1"/>
+    <col min="4" max="4" width="22.625" customWidth="1"/>
+    <col min="5" max="5" width="23.625" customWidth="1"/>
+    <col min="6" max="6" width="21.125" customWidth="1"/>
+    <col min="7" max="7" width="72.125" bestFit="1" customWidth="1"/>
+    <col min="8" max="26" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -18667,7 +18751,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -18709,7 +18793,7 @@
       <c r="Y2" s="2"/>
       <c r="Z2" s="2"/>
     </row>
-    <row r="3" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:26" ht="63" customHeight="1">
       <c r="A3" s="2" t="s">
         <v>14</v>
       </c>
@@ -18751,7 +18835,7 @@
       <c r="Y3" s="2"/>
       <c r="Z3" s="2"/>
     </row>
-    <row r="4" spans="1:26" ht="204.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:26" ht="204.75" customHeight="1">
       <c r="A4" s="2" t="s">
         <v>20</v>
       </c>
@@ -18793,7 +18877,7 @@
       <c r="Y4" s="2"/>
       <c r="Z4" s="2"/>
     </row>
-    <row r="5" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" ht="47.25" customHeight="1">
       <c r="A5" s="2" t="s">
         <v>24</v>
       </c>
@@ -18835,7 +18919,7 @@
       <c r="Y5" s="2"/>
       <c r="Z5" s="2"/>
     </row>
-    <row r="6" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" ht="47.25" customHeight="1">
       <c r="A6" s="2" t="s">
         <v>31</v>
       </c>
@@ -18877,7 +18961,7 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="126" customHeight="1">
       <c r="A7" s="47" t="s">
         <v>38</v>
       </c>
@@ -18919,7 +19003,7 @@
       <c r="Y7" s="2"/>
       <c r="Z7" s="2"/>
     </row>
-    <row r="8" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" ht="47.25" customHeight="1">
       <c r="A8" s="2" t="s">
         <v>42</v>
       </c>
@@ -18961,7 +19045,7 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" ht="63" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>48</v>
       </c>
@@ -19003,7 +19087,7 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" ht="15.75" customHeight="1">
       <c r="A10" s="2" t="s">
         <v>54</v>
       </c>
@@ -19045,7 +19129,7 @@
       <c r="Y10" s="2"/>
       <c r="Z10" s="2"/>
     </row>
-    <row r="11" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" ht="15.75" customHeight="1">
       <c r="A11" s="2" t="s">
         <v>60</v>
       </c>
@@ -19087,7 +19171,7 @@
       <c r="Y11" s="2"/>
       <c r="Z11" s="2"/>
     </row>
-    <row r="12" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:26" ht="15.75" customHeight="1">
       <c r="A12" s="2" t="s">
         <v>64</v>
       </c>
@@ -19129,7 +19213,7 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:26" ht="94.5" customHeight="1">
       <c r="A13" s="2" t="s">
         <v>71</v>
       </c>
@@ -19171,7 +19255,7 @@
       <c r="Y13" s="2"/>
       <c r="Z13" s="2"/>
     </row>
-    <row r="14" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:26" ht="63" customHeight="1">
       <c r="A14" s="2" t="s">
         <v>76</v>
       </c>
@@ -19213,7 +19297,7 @@
       <c r="Y14" s="2"/>
       <c r="Z14" s="2"/>
     </row>
-    <row r="15" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" ht="15.75" customHeight="1">
       <c r="A15" s="2" t="s">
         <v>82</v>
       </c>
@@ -19255,7 +19339,7 @@
       <c r="Y15" s="2"/>
       <c r="Z15" s="2"/>
     </row>
-    <row r="16" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:26" ht="15.75" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>88</v>
       </c>
@@ -19297,7 +19381,7 @@
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
     </row>
-    <row r="17" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:26" ht="15.75" customHeight="1">
       <c r="A17" s="2" t="s">
         <v>94</v>
       </c>
@@ -19339,7 +19423,7 @@
       <c r="Y17" s="2"/>
       <c r="Z17" s="2"/>
     </row>
-    <row r="18" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:26" ht="15.75" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>101</v>
       </c>
@@ -19381,7 +19465,7 @@
       <c r="Y18" s="2"/>
       <c r="Z18" s="2"/>
     </row>
-    <row r="19" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:26" ht="15.75" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>107</v>
       </c>
@@ -19423,7 +19507,7 @@
       <c r="Y19" s="2"/>
       <c r="Z19" s="2"/>
     </row>
-    <row r="20" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:26" ht="15.75" customHeight="1">
       <c r="A20" s="2" t="s">
         <v>114</v>
       </c>
@@ -19465,7 +19549,7 @@
       <c r="Y20" s="2"/>
       <c r="Z20" s="2"/>
     </row>
-    <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="2" t="s">
         <v>117</v>
       </c>
@@ -19507,7 +19591,7 @@
       <c r="Y21" s="2"/>
       <c r="Z21" s="2"/>
     </row>
-    <row r="22" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:26" ht="15.75" customHeight="1">
       <c r="A22" s="2" t="s">
         <v>124</v>
       </c>
@@ -19549,7 +19633,7 @@
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
     </row>
-    <row r="23" spans="1:26" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:26" ht="157.5" customHeight="1">
       <c r="A23" s="2" t="s">
         <v>130</v>
       </c>
@@ -19591,7 +19675,7 @@
       <c r="Y23" s="2"/>
       <c r="Z23" s="2"/>
     </row>
-    <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="2" t="s">
         <v>135</v>
       </c>
@@ -19633,7 +19717,7 @@
       <c r="Y24" s="2"/>
       <c r="Z24" s="2"/>
     </row>
-    <row r="25" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:26" ht="63" customHeight="1">
       <c r="A25" s="2" t="s">
         <v>142</v>
       </c>
@@ -19675,7 +19759,7 @@
       <c r="Y25" s="2"/>
       <c r="Z25" s="2"/>
     </row>
-    <row r="26" spans="1:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:26" ht="94.5" customHeight="1">
       <c r="A26" s="2" t="s">
         <v>147</v>
       </c>
@@ -19717,7 +19801,7 @@
       <c r="Y26" s="2"/>
       <c r="Z26" s="2"/>
     </row>
-    <row r="27" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:26" ht="15.75" customHeight="1">
       <c r="A27" s="2" t="s">
         <v>152</v>
       </c>
@@ -19759,7 +19843,7 @@
       <c r="Y27" s="2"/>
       <c r="Z27" s="2"/>
     </row>
-    <row r="28" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:26" ht="15.75" customHeight="1">
       <c r="A28" s="2" t="s">
         <v>159</v>
       </c>
@@ -19801,7 +19885,7 @@
       <c r="Y28" s="2"/>
       <c r="Z28" s="2"/>
     </row>
-    <row r="29" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:26" ht="31.5" customHeight="1">
       <c r="A29" s="2" t="s">
         <v>164</v>
       </c>
@@ -19843,7 +19927,7 @@
       <c r="Y29" s="2"/>
       <c r="Z29" s="2"/>
     </row>
-    <row r="30" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:26" ht="15.75" customHeight="1">
       <c r="A30" s="2" t="s">
         <v>169</v>
       </c>
@@ -19885,7 +19969,7 @@
       <c r="Y30" s="2"/>
       <c r="Z30" s="2"/>
     </row>
-    <row r="31" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:26" ht="15.75" customHeight="1">
       <c r="A31" s="2" t="s">
         <v>173</v>
       </c>
@@ -19927,7 +20011,7 @@
       <c r="Y31" s="2"/>
       <c r="Z31" s="2"/>
     </row>
-    <row r="32" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:26" ht="15.75" customHeight="1">
       <c r="A32" s="2" t="s">
         <v>178</v>
       </c>
@@ -19969,7 +20053,7 @@
       <c r="Y32" s="2"/>
       <c r="Z32" s="2"/>
     </row>
-    <row r="33" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:26" ht="15.75" customHeight="1">
       <c r="A33" s="2" t="s">
         <v>184</v>
       </c>
@@ -20011,7 +20095,7 @@
       <c r="Y33" s="2"/>
       <c r="Z33" s="2"/>
     </row>
-    <row r="34" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:26" ht="63" customHeight="1">
       <c r="A34" s="2" t="s">
         <v>191</v>
       </c>
@@ -20053,7 +20137,7 @@
       <c r="Y34" s="2"/>
       <c r="Z34" s="2"/>
     </row>
-    <row r="35" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:26" ht="15.75" customHeight="1">
       <c r="A35" s="2" t="s">
         <v>197</v>
       </c>
@@ -20095,7 +20179,7 @@
       <c r="Y35" s="2"/>
       <c r="Z35" s="2"/>
     </row>
-    <row r="36" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:26" ht="31.5" customHeight="1">
       <c r="A36" s="2" t="s">
         <v>203</v>
       </c>
@@ -20137,7 +20221,7 @@
       <c r="Y36" s="2"/>
       <c r="Z36" s="2"/>
     </row>
-    <row r="37" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:26" ht="63" customHeight="1">
       <c r="A37" s="2" t="s">
         <v>209</v>
       </c>
@@ -20179,7 +20263,7 @@
       <c r="Y37" s="2"/>
       <c r="Z37" s="2"/>
     </row>
-    <row r="38" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:26" ht="15.75" customHeight="1">
       <c r="A38" s="2" t="s">
         <v>216</v>
       </c>
@@ -20221,7 +20305,7 @@
       <c r="Y38" s="2"/>
       <c r="Z38" s="2"/>
     </row>
-    <row r="39" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:26" ht="15.75" customHeight="1">
       <c r="A39" s="2" t="s">
         <v>219</v>
       </c>
@@ -20263,7 +20347,7 @@
       <c r="Y39" s="2"/>
       <c r="Z39" s="2"/>
     </row>
-    <row r="40" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:26" ht="15.75" customHeight="1">
       <c r="A40" s="2" t="s">
         <v>226</v>
       </c>
@@ -20305,7 +20389,7 @@
       <c r="Y40" s="2"/>
       <c r="Z40" s="2"/>
     </row>
-    <row r="41" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:26" ht="15.75" customHeight="1">
       <c r="A41" s="2" t="s">
         <v>233</v>
       </c>
@@ -20347,7 +20431,7 @@
       <c r="Y41" s="2"/>
       <c r="Z41" s="2"/>
     </row>
-    <row r="42" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:26" ht="15.75" customHeight="1">
       <c r="A42" s="2" t="s">
         <v>238</v>
       </c>
@@ -20389,7 +20473,7 @@
       <c r="Y42" s="2"/>
       <c r="Z42" s="2"/>
     </row>
-    <row r="43" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:26" ht="15.75" customHeight="1">
       <c r="A43" s="2" t="s">
         <v>244</v>
       </c>
@@ -20431,7 +20515,7 @@
       <c r="Y43" s="2"/>
       <c r="Z43" s="2"/>
     </row>
-    <row r="44" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:26" ht="31.5" customHeight="1">
       <c r="A44" s="2" t="s">
         <v>247</v>
       </c>
@@ -20473,7 +20557,7 @@
       <c r="Y44" s="2"/>
       <c r="Z44" s="2"/>
     </row>
-    <row r="45" spans="1:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:26" ht="94.5" customHeight="1">
       <c r="A45" s="2" t="s">
         <v>254</v>
       </c>
@@ -20515,7 +20599,7 @@
       <c r="Y45" s="2"/>
       <c r="Z45" s="2"/>
     </row>
-    <row r="46" spans="1:26" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:26" ht="126" customHeight="1">
       <c r="A46" s="2" t="s">
         <v>261</v>
       </c>
@@ -20557,7 +20641,7 @@
       <c r="Y46" s="2"/>
       <c r="Z46" s="2"/>
     </row>
-    <row r="47" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:26" ht="15.75" customHeight="1">
       <c r="A47" s="2" t="s">
         <v>267</v>
       </c>
@@ -20599,7 +20683,7 @@
       <c r="Y47" s="2"/>
       <c r="Z47" s="2"/>
     </row>
-    <row r="48" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:26" ht="47.25" customHeight="1">
       <c r="A48" s="2" t="s">
         <v>274</v>
       </c>
@@ -20641,7 +20725,7 @@
       <c r="Y48" s="2"/>
       <c r="Z48" s="2"/>
     </row>
-    <row r="49" spans="1:26" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:26" ht="110.25" customHeight="1">
       <c r="A49" s="2" t="s">
         <v>281</v>
       </c>
@@ -20683,7 +20767,7 @@
       <c r="Y49" s="2"/>
       <c r="Z49" s="2"/>
     </row>
-    <row r="50" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:26" ht="47.25" customHeight="1">
       <c r="A50" s="2" t="s">
         <v>286</v>
       </c>
@@ -20725,7 +20809,7 @@
       <c r="Y50" s="2"/>
       <c r="Z50" s="2"/>
     </row>
-    <row r="51" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:26" ht="31.5" customHeight="1">
       <c r="A51" s="2" t="s">
         <v>291</v>
       </c>
@@ -20767,7 +20851,7 @@
       <c r="Y51" s="2"/>
       <c r="Z51" s="2"/>
     </row>
-    <row r="52" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:26" ht="15.75" customHeight="1">
       <c r="A52" s="2" t="s">
         <v>298</v>
       </c>
@@ -20809,7 +20893,7 @@
       <c r="Y52" s="2"/>
       <c r="Z52" s="2"/>
     </row>
-    <row r="53" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:26" ht="15.75" customHeight="1">
       <c r="A53" s="2" t="s">
         <v>303</v>
       </c>
@@ -20851,7 +20935,7 @@
       <c r="Y53" s="2"/>
       <c r="Z53" s="2"/>
     </row>
-    <row r="54" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:26" ht="15.75" customHeight="1">
       <c r="A54" s="2" t="s">
         <v>309</v>
       </c>
@@ -20893,7 +20977,7 @@
       <c r="Y54" s="2"/>
       <c r="Z54" s="2"/>
     </row>
-    <row r="55" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:26" ht="15.75" customHeight="1">
       <c r="A55" s="2" t="s">
         <v>315</v>
       </c>
@@ -20935,7 +21019,7 @@
       <c r="Y55" s="2"/>
       <c r="Z55" s="2"/>
     </row>
-    <row r="56" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:26" ht="15.75" customHeight="1">
       <c r="A56" s="2" t="s">
         <v>322</v>
       </c>
@@ -20977,7 +21061,7 @@
       <c r="Y56" s="2"/>
       <c r="Z56" s="2"/>
     </row>
-    <row r="57" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:26" ht="15.75" customHeight="1">
       <c r="A57" s="2" t="s">
         <v>329</v>
       </c>
@@ -21019,7 +21103,7 @@
       <c r="Y57" s="2"/>
       <c r="Z57" s="2"/>
     </row>
-    <row r="58" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:26" ht="15.75" customHeight="1">
       <c r="A58" s="2" t="s">
         <v>336</v>
       </c>
@@ -21061,7 +21145,7 @@
       <c r="Y58" s="2"/>
       <c r="Z58" s="2"/>
     </row>
-    <row r="59" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:26" ht="15.75" customHeight="1">
       <c r="A59" s="2" t="s">
         <v>341</v>
       </c>
@@ -21103,7 +21187,7 @@
       <c r="Y59" s="2"/>
       <c r="Z59" s="2"/>
     </row>
-    <row r="60" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:26" ht="15.75" customHeight="1">
       <c r="A60" s="2" t="s">
         <v>345</v>
       </c>
@@ -21145,7 +21229,7 @@
       <c r="Y60" s="2"/>
       <c r="Z60" s="2"/>
     </row>
-    <row r="61" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:26" ht="15.75" customHeight="1">
       <c r="A61" s="2" t="s">
         <v>352</v>
       </c>
@@ -21187,7 +21271,7 @@
       <c r="Y61" s="2"/>
       <c r="Z61" s="2"/>
     </row>
-    <row r="62" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:26" ht="15.75" customHeight="1">
       <c r="A62" s="2" t="s">
         <v>356</v>
       </c>
@@ -21229,7 +21313,7 @@
       <c r="Y62" s="2"/>
       <c r="Z62" s="2"/>
     </row>
-    <row r="63" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:26" ht="15.75" customHeight="1">
       <c r="A63" s="2" t="s">
         <v>361</v>
       </c>
@@ -21271,7 +21355,7 @@
       <c r="Y63" s="2"/>
       <c r="Z63" s="2"/>
     </row>
-    <row r="64" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:26" ht="15.75" customHeight="1">
       <c r="A64" s="2" t="s">
         <v>367</v>
       </c>
@@ -21313,7 +21397,7 @@
       <c r="Y64" s="2"/>
       <c r="Z64" s="2"/>
     </row>
-    <row r="65" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:26" ht="15.75" customHeight="1">
       <c r="A65" s="2" t="s">
         <v>373</v>
       </c>
@@ -21355,7 +21439,7 @@
       <c r="Y65" s="2"/>
       <c r="Z65" s="2"/>
     </row>
-    <row r="66" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:26" ht="15.75" customHeight="1">
       <c r="A66" s="2" t="s">
         <v>378</v>
       </c>
@@ -21397,7 +21481,7 @@
       <c r="Y66" s="2"/>
       <c r="Z66" s="2"/>
     </row>
-    <row r="67" spans="1:26" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:26" ht="110.25" customHeight="1">
       <c r="A67" s="2" t="s">
         <v>382</v>
       </c>
@@ -21439,7 +21523,7 @@
       <c r="Y67" s="2"/>
       <c r="Z67" s="2"/>
     </row>
-    <row r="68" spans="1:26" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:26" ht="78.75" customHeight="1">
       <c r="A68" s="2" t="s">
         <v>388</v>
       </c>
@@ -21481,7 +21565,7 @@
       <c r="Y68" s="2"/>
       <c r="Z68" s="2"/>
     </row>
-    <row r="69" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:26" ht="31.5" customHeight="1">
       <c r="A69" s="2" t="s">
         <v>394</v>
       </c>
@@ -21523,7 +21607,7 @@
       <c r="Y69" s="2"/>
       <c r="Z69" s="2"/>
     </row>
-    <row r="70" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:26" ht="15.75" customHeight="1">
       <c r="A70" s="2" t="s">
         <v>401</v>
       </c>
@@ -21565,7 +21649,7 @@
       <c r="Y70" s="2"/>
       <c r="Z70" s="2"/>
     </row>
-    <row r="71" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:26" ht="15.75" customHeight="1">
       <c r="A71" s="2" t="s">
         <v>408</v>
       </c>
@@ -21607,7 +21691,7 @@
       <c r="Y71" s="2"/>
       <c r="Z71" s="2"/>
     </row>
-    <row r="72" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:26" ht="15.75" customHeight="1">
       <c r="A72" s="2" t="s">
         <v>414</v>
       </c>
@@ -21649,7 +21733,7 @@
       <c r="Y72" s="2"/>
       <c r="Z72" s="2"/>
     </row>
-    <row r="73" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:26" ht="15.75" customHeight="1">
       <c r="A73" s="2" t="s">
         <v>420</v>
       </c>
@@ -21691,7 +21775,7 @@
       <c r="Y73" s="2"/>
       <c r="Z73" s="2"/>
     </row>
-    <row r="74" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:26" ht="15.75" customHeight="1">
       <c r="A74" s="2" t="s">
         <v>427</v>
       </c>
@@ -21733,7 +21817,7 @@
       <c r="Y74" s="2"/>
       <c r="Z74" s="2"/>
     </row>
-    <row r="75" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:26" ht="15.75" customHeight="1">
       <c r="A75" s="2" t="s">
         <v>434</v>
       </c>
@@ -21775,7 +21859,7 @@
       <c r="Y75" s="2"/>
       <c r="Z75" s="2"/>
     </row>
-    <row r="76" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:26" ht="15.75" customHeight="1">
       <c r="A76" s="2" t="s">
         <v>441</v>
       </c>
@@ -21817,7 +21901,7 @@
       <c r="Y76" s="2"/>
       <c r="Z76" s="2"/>
     </row>
-    <row r="77" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:26" ht="15.75" customHeight="1">
       <c r="A77" s="2" t="s">
         <v>447</v>
       </c>
@@ -21859,7 +21943,7 @@
       <c r="Y77" s="2"/>
       <c r="Z77" s="2"/>
     </row>
-    <row r="78" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:26" ht="15.75" customHeight="1">
       <c r="A78" s="2" t="s">
         <v>453</v>
       </c>
@@ -21901,7 +21985,7 @@
       <c r="Y78" s="2"/>
       <c r="Z78" s="2"/>
     </row>
-    <row r="79" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:26" ht="15.75" customHeight="1">
       <c r="A79" s="4" t="s">
         <v>459</v>
       </c>
@@ -21943,7 +22027,7 @@
       <c r="Y79" s="2"/>
       <c r="Z79" s="2"/>
     </row>
-    <row r="80" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:26" ht="15.75" customHeight="1">
       <c r="A80" s="2" t="s">
         <v>466</v>
       </c>
@@ -21985,7 +22069,7 @@
       <c r="Y80" s="2"/>
       <c r="Z80" s="2"/>
     </row>
-    <row r="81" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:26" ht="15.75" customHeight="1">
       <c r="A81" s="2" t="s">
         <v>473</v>
       </c>
@@ -22027,7 +22111,7 @@
       <c r="Y81" s="2"/>
       <c r="Z81" s="2"/>
     </row>
-    <row r="82" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:26" ht="15.75" customHeight="1">
       <c r="A82" s="2" t="s">
         <v>478</v>
       </c>
@@ -22069,7 +22153,7 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="2"/>
     </row>
-    <row r="83" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:26" ht="15.75" customHeight="1">
       <c r="A83" s="2" t="s">
         <v>483</v>
       </c>
@@ -22111,7 +22195,7 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="2"/>
     </row>
-    <row r="84" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:26" ht="15.75" customHeight="1">
       <c r="A84" s="2" t="s">
         <v>490</v>
       </c>
@@ -22153,7 +22237,7 @@
       <c r="Y84" s="2"/>
       <c r="Z84" s="2"/>
     </row>
-    <row r="85" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:26" ht="15.75" customHeight="1">
       <c r="A85" s="2" t="s">
         <v>494</v>
       </c>
@@ -22195,7 +22279,7 @@
       <c r="Y85" s="2"/>
       <c r="Z85" s="2"/>
     </row>
-    <row r="86" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:26" ht="15.75" customHeight="1">
       <c r="A86" s="2" t="s">
         <v>500</v>
       </c>
@@ -22237,7 +22321,7 @@
       <c r="Y86" s="2"/>
       <c r="Z86" s="2"/>
     </row>
-    <row r="87" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:26" ht="15.75" customHeight="1">
       <c r="A87" s="2" t="s">
         <v>505</v>
       </c>
@@ -22279,7 +22363,7 @@
       <c r="Y87" s="2"/>
       <c r="Z87" s="2"/>
     </row>
-    <row r="88" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:26" ht="15.75" customHeight="1">
       <c r="A88" s="2" t="s">
         <v>508</v>
       </c>
@@ -22321,7 +22405,7 @@
       <c r="Y88" s="2"/>
       <c r="Z88" s="2"/>
     </row>
-    <row r="89" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:26" ht="15.75" customHeight="1">
       <c r="A89" s="2" t="s">
         <v>515</v>
       </c>
@@ -22363,7 +22447,7 @@
       <c r="Y89" s="2"/>
       <c r="Z89" s="2"/>
     </row>
-    <row r="90" spans="1:26" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:26" ht="78.75" customHeight="1">
       <c r="A90" s="2" t="s">
         <v>521</v>
       </c>
@@ -22405,7 +22489,7 @@
       <c r="Y90" s="2"/>
       <c r="Z90" s="2"/>
     </row>
-    <row r="91" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:26" ht="15.75" customHeight="1">
       <c r="A91" s="2" t="s">
         <v>527</v>
       </c>
@@ -22447,7 +22531,7 @@
       <c r="Y91" s="2"/>
       <c r="Z91" s="2"/>
     </row>
-    <row r="92" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:26" ht="31.5" customHeight="1">
       <c r="A92" s="2" t="s">
         <v>534</v>
       </c>
@@ -22489,7 +22573,7 @@
       <c r="Y92" s="2"/>
       <c r="Z92" s="2"/>
     </row>
-    <row r="93" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:26" ht="31.5" customHeight="1">
       <c r="A93" s="2" t="s">
         <v>541</v>
       </c>
@@ -22531,7 +22615,7 @@
       <c r="Y93" s="2"/>
       <c r="Z93" s="2"/>
     </row>
-    <row r="94" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:26" ht="47.25" customHeight="1">
       <c r="A94" s="2" t="s">
         <v>547</v>
       </c>
@@ -22573,7 +22657,7 @@
       <c r="Y94" s="2"/>
       <c r="Z94" s="2"/>
     </row>
-    <row r="95" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:26" ht="15.75" customHeight="1">
       <c r="A95" s="2" t="s">
         <v>554</v>
       </c>
@@ -22615,7 +22699,7 @@
       <c r="Y95" s="2"/>
       <c r="Z95" s="2"/>
     </row>
-    <row r="96" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:26" ht="15.75" customHeight="1">
       <c r="A96" s="2" t="s">
         <v>561</v>
       </c>
@@ -22657,7 +22741,7 @@
       <c r="Y96" s="2"/>
       <c r="Z96" s="2"/>
     </row>
-    <row r="97" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:26" ht="15.75" customHeight="1">
       <c r="A97" s="2" t="s">
         <v>568</v>
       </c>
@@ -22699,7 +22783,7 @@
       <c r="Y97" s="2"/>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:26" ht="15.75" customHeight="1">
       <c r="A98" s="2" t="s">
         <v>573</v>
       </c>
@@ -22741,7 +22825,7 @@
       <c r="Y98" s="2"/>
       <c r="Z98" s="2"/>
     </row>
-    <row r="99" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:26" ht="15.75" customHeight="1">
       <c r="A99" s="2" t="s">
         <v>579</v>
       </c>
@@ -22783,7 +22867,7 @@
       <c r="Y99" s="2"/>
       <c r="Z99" s="2"/>
     </row>
-    <row r="100" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:26" ht="15.75" customHeight="1">
       <c r="A100" s="2" t="s">
         <v>586</v>
       </c>
@@ -22825,7 +22909,7 @@
       <c r="Y100" s="2"/>
       <c r="Z100" s="2"/>
     </row>
-    <row r="101" spans="1:26" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:26" ht="141.75" customHeight="1">
       <c r="A101" s="6" t="s">
         <v>593</v>
       </c>
@@ -22867,7 +22951,7 @@
       <c r="Y101" s="2"/>
       <c r="Z101" s="2"/>
     </row>
-    <row r="102" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:26" ht="15.75" customHeight="1">
       <c r="A102" s="2" t="s">
         <v>598</v>
       </c>
@@ -22909,7 +22993,7 @@
       <c r="Y102" s="2"/>
       <c r="Z102" s="2"/>
     </row>
-    <row r="103" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:26" ht="15.75" customHeight="1">
       <c r="A103" s="2" t="s">
         <v>603</v>
       </c>
@@ -22951,7 +23035,7 @@
       <c r="Y103" s="2"/>
       <c r="Z103" s="2"/>
     </row>
-    <row r="104" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:26" ht="15.75" customHeight="1">
       <c r="A104" s="2" t="s">
         <v>609</v>
       </c>
@@ -22993,7 +23077,7 @@
       <c r="Y104" s="2"/>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:26" ht="15.75" customHeight="1">
       <c r="A105" s="2" t="s">
         <v>615</v>
       </c>
@@ -23035,7 +23119,7 @@
       <c r="Y105" s="2"/>
       <c r="Z105" s="2"/>
     </row>
-    <row r="106" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:26" ht="15.75" customHeight="1">
       <c r="A106" s="2" t="s">
         <v>620</v>
       </c>
@@ -23077,7 +23161,7 @@
       <c r="Y106" s="2"/>
       <c r="Z106" s="2"/>
     </row>
-    <row r="107" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:26" ht="15.75" customHeight="1">
       <c r="A107" s="2" t="s">
         <v>625</v>
       </c>
@@ -23119,7 +23203,7 @@
       <c r="Y107" s="2"/>
       <c r="Z107" s="2"/>
     </row>
-    <row r="108" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:26" ht="31.5" customHeight="1">
       <c r="A108" s="2" t="s">
         <v>631</v>
       </c>
@@ -23161,7 +23245,7 @@
       <c r="Y108" s="2"/>
       <c r="Z108" s="2"/>
     </row>
-    <row r="109" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:26" ht="15.75" customHeight="1">
       <c r="A109" s="2" t="s">
         <v>637</v>
       </c>
@@ -23203,7 +23287,7 @@
       <c r="Y109" s="2"/>
       <c r="Z109" s="2"/>
     </row>
-    <row r="110" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:26" ht="15.75" customHeight="1">
       <c r="A110" s="2" t="s">
         <v>644</v>
       </c>
@@ -23245,7 +23329,7 @@
       <c r="Y110" s="2"/>
       <c r="Z110" s="2"/>
     </row>
-    <row r="111" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:26" ht="15.75" customHeight="1">
       <c r="A111" s="2" t="s">
         <v>650</v>
       </c>
@@ -23287,7 +23371,7 @@
       <c r="Y111" s="2"/>
       <c r="Z111" s="2"/>
     </row>
-    <row r="112" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:26" ht="15.75" customHeight="1">
       <c r="A112" s="2" t="s">
         <v>656</v>
       </c>
@@ -23329,7 +23413,7 @@
       <c r="Y112" s="2"/>
       <c r="Z112" s="2"/>
     </row>
-    <row r="113" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:26" ht="31.5" customHeight="1">
       <c r="A113" s="2" t="s">
         <v>663</v>
       </c>
@@ -23371,7 +23455,7 @@
       <c r="Y113" s="2"/>
       <c r="Z113" s="2"/>
     </row>
-    <row r="114" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:26" ht="15.75" customHeight="1">
       <c r="A114" s="2" t="s">
         <v>670</v>
       </c>
@@ -23413,7 +23497,7 @@
       <c r="Y114" s="2"/>
       <c r="Z114" s="2"/>
     </row>
-    <row r="115" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:26" ht="15.75" customHeight="1">
       <c r="A115" s="4" t="s">
         <v>677</v>
       </c>
@@ -23455,7 +23539,7 @@
       <c r="Y115" s="2"/>
       <c r="Z115" s="2"/>
     </row>
-    <row r="116" spans="1:26" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:26" ht="78.75" customHeight="1">
       <c r="A116" s="2" t="s">
         <v>684</v>
       </c>
@@ -23497,7 +23581,7 @@
       <c r="Y116" s="2"/>
       <c r="Z116" s="2"/>
     </row>
-    <row r="117" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:26" ht="15.75" customHeight="1">
       <c r="A117" s="2" t="s">
         <v>691</v>
       </c>
@@ -23539,7 +23623,7 @@
       <c r="Y117" s="2"/>
       <c r="Z117" s="2"/>
     </row>
-    <row r="118" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:26" ht="31.5" customHeight="1">
       <c r="A118" s="47" t="s">
         <v>697</v>
       </c>
@@ -23581,7 +23665,7 @@
       <c r="Y118" s="2"/>
       <c r="Z118" s="2"/>
     </row>
-    <row r="119" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:26" ht="47.25" customHeight="1">
       <c r="A119" s="47" t="s">
         <v>701</v>
       </c>
@@ -23623,7 +23707,7 @@
       <c r="Y119" s="2"/>
       <c r="Z119" s="2"/>
     </row>
-    <row r="120" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:26" ht="31.5" customHeight="1">
       <c r="A120" s="2" t="s">
         <v>706</v>
       </c>
@@ -23665,7 +23749,7 @@
       <c r="Y120" s="2"/>
       <c r="Z120" s="2"/>
     </row>
-    <row r="121" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:26" ht="15.75" customHeight="1">
       <c r="A121" s="2" t="s">
         <v>712</v>
       </c>
@@ -23707,7 +23791,7 @@
       <c r="Y121" s="2"/>
       <c r="Z121" s="2"/>
     </row>
-    <row r="122" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:26" ht="15.75" customHeight="1">
       <c r="A122" s="2" t="s">
         <v>718</v>
       </c>
@@ -23749,7 +23833,7 @@
       <c r="Y122" s="2"/>
       <c r="Z122" s="2"/>
     </row>
-    <row r="123" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:26" ht="15.75" customHeight="1">
       <c r="A123" s="2" t="s">
         <v>725</v>
       </c>
@@ -23791,7 +23875,7 @@
       <c r="Y123" s="2"/>
       <c r="Z123" s="2"/>
     </row>
-    <row r="124" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:26" ht="15.75" customHeight="1">
       <c r="A124" s="2" t="s">
         <v>732</v>
       </c>
@@ -23833,7 +23917,7 @@
       <c r="Y124" s="2"/>
       <c r="Z124" s="2"/>
     </row>
-    <row r="125" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:26" ht="15.75" customHeight="1">
       <c r="A125" s="2" t="s">
         <v>738</v>
       </c>
@@ -23875,7 +23959,7 @@
       <c r="Y125" s="2"/>
       <c r="Z125" s="2"/>
     </row>
-    <row r="126" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:26" ht="47.25" customHeight="1">
       <c r="A126" s="2" t="s">
         <v>744</v>
       </c>
@@ -23917,7 +24001,7 @@
       <c r="Y126" s="2"/>
       <c r="Z126" s="2"/>
     </row>
-    <row r="127" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:26" ht="15.75" customHeight="1">
       <c r="A127" s="2" t="s">
         <v>750</v>
       </c>
@@ -23959,7 +24043,7 @@
       <c r="Y127" s="2"/>
       <c r="Z127" s="2"/>
     </row>
-    <row r="128" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:26" ht="15.75" customHeight="1">
       <c r="A128" s="2" t="s">
         <v>757</v>
       </c>
@@ -24001,7 +24085,7 @@
       <c r="Y128" s="2"/>
       <c r="Z128" s="2"/>
     </row>
-    <row r="129" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:26" ht="15.75" customHeight="1">
       <c r="A129" s="2" t="s">
         <v>763</v>
       </c>
@@ -24043,7 +24127,7 @@
       <c r="Y129" s="2"/>
       <c r="Z129" s="2"/>
     </row>
-    <row r="130" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:26" ht="15.75" customHeight="1">
       <c r="A130" s="2" t="s">
         <v>768</v>
       </c>
@@ -24085,7 +24169,7 @@
       <c r="Y130" s="2"/>
       <c r="Z130" s="2"/>
     </row>
-    <row r="131" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:26" ht="15.75" customHeight="1">
       <c r="A131" s="2" t="s">
         <v>773</v>
       </c>
@@ -24127,7 +24211,7 @@
       <c r="Y131" s="2"/>
       <c r="Z131" s="2"/>
     </row>
-    <row r="132" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:26" ht="15.75" customHeight="1">
       <c r="A132" s="2" t="s">
         <v>780</v>
       </c>
@@ -24169,7 +24253,7 @@
       <c r="Y132" s="2"/>
       <c r="Z132" s="2"/>
     </row>
-    <row r="133" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:26" ht="15.75" customHeight="1">
       <c r="A133" s="4" t="s">
         <v>786</v>
       </c>
@@ -24211,7 +24295,7 @@
       <c r="Y133" s="2"/>
       <c r="Z133" s="2"/>
     </row>
-    <row r="134" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:26" ht="47.25" customHeight="1">
       <c r="A134" s="2" t="s">
         <v>792</v>
       </c>
@@ -24253,7 +24337,7 @@
       <c r="Y134" s="2"/>
       <c r="Z134" s="2"/>
     </row>
-    <row r="135" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:26" ht="15.75" customHeight="1">
       <c r="A135" s="2" t="s">
         <v>798</v>
       </c>
@@ -24295,7 +24379,7 @@
       <c r="Y135" s="2"/>
       <c r="Z135" s="2"/>
     </row>
-    <row r="136" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:26" ht="47.25" customHeight="1">
       <c r="A136" s="2" t="s">
         <v>805</v>
       </c>
@@ -24337,7 +24421,7 @@
       <c r="Y136" s="2"/>
       <c r="Z136" s="2"/>
     </row>
-    <row r="137" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:26" ht="15.75" customHeight="1">
       <c r="A137" s="2" t="s">
         <v>812</v>
       </c>
@@ -24379,7 +24463,7 @@
       <c r="Y137" s="2"/>
       <c r="Z137" s="2"/>
     </row>
-    <row r="138" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:26" ht="15.75" customHeight="1">
       <c r="A138" s="2" t="s">
         <v>818</v>
       </c>
@@ -24421,7 +24505,7 @@
       <c r="Y138" s="2"/>
       <c r="Z138" s="2"/>
     </row>
-    <row r="139" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:26" ht="15.75" customHeight="1">
       <c r="A139" s="2" t="s">
         <v>825</v>
       </c>
@@ -24463,7 +24547,7 @@
       <c r="Y139" s="2"/>
       <c r="Z139" s="2"/>
     </row>
-    <row r="140" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:26" ht="15.75" customHeight="1">
       <c r="A140" s="2" t="s">
         <v>832</v>
       </c>
@@ -24505,7 +24589,7 @@
       <c r="Y140" s="2"/>
       <c r="Z140" s="2"/>
     </row>
-    <row r="141" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:26" ht="15.75" customHeight="1">
       <c r="A141" s="2" t="s">
         <v>839</v>
       </c>
@@ -24547,7 +24631,7 @@
       <c r="Y141" s="2"/>
       <c r="Z141" s="2"/>
     </row>
-    <row r="142" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:26" ht="15.75" customHeight="1">
       <c r="A142" s="2" t="s">
         <v>843</v>
       </c>
@@ -24589,7 +24673,7 @@
       <c r="Y142" s="2"/>
       <c r="Z142" s="2"/>
     </row>
-    <row r="143" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:26" ht="15.75" customHeight="1">
       <c r="A143" s="2" t="s">
         <v>850</v>
       </c>
@@ -24631,7 +24715,7 @@
       <c r="Y143" s="2"/>
       <c r="Z143" s="2"/>
     </row>
-    <row r="144" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:26" ht="15.75" customHeight="1">
       <c r="A144" s="4" t="s">
         <v>854</v>
       </c>
@@ -24673,7 +24757,7 @@
       <c r="Y144" s="2"/>
       <c r="Z144" s="2"/>
     </row>
-    <row r="145" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:26" ht="15.75" customHeight="1">
       <c r="A145" s="2" t="s">
         <v>860</v>
       </c>
@@ -24715,7 +24799,7 @@
       <c r="Y145" s="2"/>
       <c r="Z145" s="2"/>
     </row>
-    <row r="146" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:26" ht="15.75" customHeight="1">
       <c r="A146" s="2" t="s">
         <v>866</v>
       </c>
@@ -24757,7 +24841,7 @@
       <c r="Y146" s="2"/>
       <c r="Z146" s="2"/>
     </row>
-    <row r="147" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:26" ht="47.25" customHeight="1">
       <c r="A147" s="2" t="s">
         <v>873</v>
       </c>
@@ -24799,7 +24883,7 @@
       <c r="Y147" s="2"/>
       <c r="Z147" s="2"/>
     </row>
-    <row r="148" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:26" ht="15.75" customHeight="1">
       <c r="A148" s="4" t="s">
         <v>879</v>
       </c>
@@ -24841,7 +24925,7 @@
       <c r="Y148" s="2"/>
       <c r="Z148" s="2"/>
     </row>
-    <row r="149" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:26" ht="15.75" customHeight="1">
       <c r="A149" s="2" t="s">
         <v>886</v>
       </c>
@@ -24883,7 +24967,7 @@
       <c r="Y149" s="2"/>
       <c r="Z149" s="2"/>
     </row>
-    <row r="150" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:26" ht="31.5" customHeight="1">
       <c r="A150" s="2" t="s">
         <v>893</v>
       </c>
@@ -24925,7 +25009,7 @@
       <c r="Y150" s="2"/>
       <c r="Z150" s="2"/>
     </row>
-    <row r="151" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:26" ht="31.5" customHeight="1">
       <c r="A151" s="2" t="s">
         <v>900</v>
       </c>
@@ -24967,7 +25051,7 @@
       <c r="Y151" s="2"/>
       <c r="Z151" s="2"/>
     </row>
-    <row r="152" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:26" ht="15.75" customHeight="1">
       <c r="A152" s="2" t="s">
         <v>907</v>
       </c>
@@ -25009,7 +25093,7 @@
       <c r="Y152" s="2"/>
       <c r="Z152" s="2"/>
     </row>
-    <row r="153" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:26" ht="31.5" customHeight="1">
       <c r="A153" s="2" t="s">
         <v>913</v>
       </c>
@@ -25051,7 +25135,7 @@
       <c r="Y153" s="2"/>
       <c r="Z153" s="2"/>
     </row>
-    <row r="154" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:26" ht="15.75" customHeight="1">
       <c r="A154" s="4" t="s">
         <v>920</v>
       </c>
@@ -25093,7 +25177,7 @@
       <c r="Y154" s="2"/>
       <c r="Z154" s="2"/>
     </row>
-    <row r="155" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:26" ht="47.25" customHeight="1">
       <c r="A155" s="2" t="s">
         <v>927</v>
       </c>
@@ -25135,7 +25219,7 @@
       <c r="Y155" s="2"/>
       <c r="Z155" s="2"/>
     </row>
-    <row r="156" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:26" ht="47.25" customHeight="1">
       <c r="A156" s="2" t="s">
         <v>934</v>
       </c>
@@ -25177,7 +25261,7 @@
       <c r="Y156" s="2"/>
       <c r="Z156" s="2"/>
     </row>
-    <row r="157" spans="1:26" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:26" ht="78.75" customHeight="1">
       <c r="A157" s="2" t="s">
         <v>941</v>
       </c>
@@ -25219,7 +25303,7 @@
       <c r="Y157" s="2"/>
       <c r="Z157" s="2"/>
     </row>
-    <row r="158" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:26" ht="15.75" customHeight="1">
       <c r="A158" s="2" t="s">
         <v>948</v>
       </c>
@@ -25261,7 +25345,7 @@
       <c r="Y158" s="2"/>
       <c r="Z158" s="2"/>
     </row>
-    <row r="159" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:26" ht="15.75" customHeight="1">
       <c r="A159" s="2" t="s">
         <v>955</v>
       </c>
@@ -25303,7 +25387,7 @@
       <c r="Y159" s="2"/>
       <c r="Z159" s="2"/>
     </row>
-    <row r="160" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:26" ht="15.75" customHeight="1">
       <c r="A160" s="2" t="s">
         <v>960</v>
       </c>
@@ -25345,7 +25429,7 @@
       <c r="Y160" s="2"/>
       <c r="Z160" s="2"/>
     </row>
-    <row r="161" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:26" ht="15.75" customHeight="1">
       <c r="A161" s="2" t="s">
         <v>966</v>
       </c>
@@ -25387,7 +25471,7 @@
       <c r="Y161" s="2"/>
       <c r="Z161" s="2"/>
     </row>
-    <row r="162" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:26" ht="15.75" customHeight="1">
       <c r="A162" s="2" t="s">
         <v>973</v>
       </c>
@@ -25429,7 +25513,7 @@
       <c r="Y162" s="2"/>
       <c r="Z162" s="2"/>
     </row>
-    <row r="163" spans="1:26" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:26" ht="110.25" customHeight="1">
       <c r="A163" s="2" t="s">
         <v>978</v>
       </c>
@@ -25471,7 +25555,7 @@
       <c r="Y163" s="2"/>
       <c r="Z163" s="2"/>
     </row>
-    <row r="164" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:26" ht="15.75" customHeight="1">
       <c r="A164" s="2" t="s">
         <v>984</v>
       </c>
@@ -25513,7 +25597,7 @@
       <c r="Y164" s="2"/>
       <c r="Z164" s="2"/>
     </row>
-    <row r="165" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:26" ht="15.75" customHeight="1">
       <c r="A165" s="2" t="s">
         <v>991</v>
       </c>
@@ -25555,7 +25639,7 @@
       <c r="Y165" s="2"/>
       <c r="Z165" s="2"/>
     </row>
-    <row r="166" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:26" ht="31.5" customHeight="1">
       <c r="A166" s="2" t="s">
         <v>998</v>
       </c>
@@ -25597,7 +25681,7 @@
       <c r="Y166" s="2"/>
       <c r="Z166" s="2"/>
     </row>
-    <row r="167" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:26" ht="63" customHeight="1">
       <c r="A167" s="2" t="s">
         <v>1004</v>
       </c>
@@ -25639,7 +25723,7 @@
       <c r="Y167" s="2"/>
       <c r="Z167" s="2"/>
     </row>
-    <row r="168" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:26" ht="15.75" customHeight="1">
       <c r="A168" s="2" t="s">
         <v>1011</v>
       </c>
@@ -25681,7 +25765,7 @@
       <c r="Y168" s="2"/>
       <c r="Z168" s="2"/>
     </row>
-    <row r="169" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:26" ht="31.5" customHeight="1">
       <c r="A169" s="2" t="s">
         <v>1017</v>
       </c>
@@ -25723,7 +25807,7 @@
       <c r="Y169" s="2"/>
       <c r="Z169" s="2"/>
     </row>
-    <row r="170" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:26" ht="15.75" customHeight="1">
       <c r="A170" s="2" t="s">
         <v>1024</v>
       </c>
@@ -25765,7 +25849,7 @@
       <c r="Y170" s="2"/>
       <c r="Z170" s="2"/>
     </row>
-    <row r="171" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:26" ht="15.75" customHeight="1">
       <c r="A171" s="2" t="s">
         <v>1030</v>
       </c>
@@ -25807,7 +25891,7 @@
       <c r="Y171" s="2"/>
       <c r="Z171" s="2"/>
     </row>
-    <row r="172" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:26" ht="15.75" customHeight="1">
       <c r="A172" s="2" t="s">
         <v>1036</v>
       </c>
@@ -25849,7 +25933,7 @@
       <c r="Y172" s="2"/>
       <c r="Z172" s="2"/>
     </row>
-    <row r="173" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:26" ht="15.75" customHeight="1">
       <c r="A173" s="2" t="s">
         <v>1041</v>
       </c>
@@ -25891,7 +25975,7 @@
       <c r="Y173" s="2"/>
       <c r="Z173" s="2"/>
     </row>
-    <row r="174" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:26" ht="15.75" customHeight="1">
       <c r="A174" s="4" t="s">
         <v>1046</v>
       </c>
@@ -25933,7 +26017,7 @@
       <c r="Y174" s="2"/>
       <c r="Z174" s="2"/>
     </row>
-    <row r="175" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:26" ht="15.75" customHeight="1">
       <c r="A175" s="2" t="s">
         <v>1053</v>
       </c>
@@ -25975,7 +26059,7 @@
       <c r="Y175" s="2"/>
       <c r="Z175" s="2"/>
     </row>
-    <row r="176" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:26" ht="15.75" customHeight="1">
       <c r="A176" s="2" t="s">
         <v>1060</v>
       </c>
@@ -26017,7 +26101,7 @@
       <c r="Y176" s="2"/>
       <c r="Z176" s="2"/>
     </row>
-    <row r="177" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:26" ht="15.75" customHeight="1">
       <c r="A177" s="2" t="s">
         <v>1066</v>
       </c>
@@ -26059,7 +26143,7 @@
       <c r="Y177" s="2"/>
       <c r="Z177" s="2"/>
     </row>
-    <row r="178" spans="1:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:26" ht="94.5" customHeight="1">
       <c r="A178" s="2" t="s">
         <v>1073</v>
       </c>
@@ -26101,7 +26185,7 @@
       <c r="Y178" s="2"/>
       <c r="Z178" s="2"/>
     </row>
-    <row r="179" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:26" ht="15.75" customHeight="1">
       <c r="A179" s="2" t="s">
         <v>1080</v>
       </c>
@@ -26143,7 +26227,7 @@
       <c r="Y179" s="2"/>
       <c r="Z179" s="2"/>
     </row>
-    <row r="180" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:26" ht="47.25" customHeight="1">
       <c r="A180" s="2" t="s">
         <v>1085</v>
       </c>
@@ -26185,7 +26269,7 @@
       <c r="Y180" s="2"/>
       <c r="Z180" s="2"/>
     </row>
-    <row r="181" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:26" ht="47.25" customHeight="1">
       <c r="A181" s="2" t="s">
         <v>1091</v>
       </c>
@@ -26227,7 +26311,7 @@
       <c r="Y181" s="2"/>
       <c r="Z181" s="2"/>
     </row>
-    <row r="182" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:26" ht="47.25" customHeight="1">
       <c r="A182" s="2" t="s">
         <v>1098</v>
       </c>
@@ -26269,7 +26353,7 @@
       <c r="Y182" s="2"/>
       <c r="Z182" s="2"/>
     </row>
-    <row r="183" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:26" ht="31.5" customHeight="1">
       <c r="A183" s="2" t="s">
         <v>1105</v>
       </c>
@@ -26311,7 +26395,7 @@
       <c r="Y183" s="2"/>
       <c r="Z183" s="2"/>
     </row>
-    <row r="184" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:26" ht="31.5" customHeight="1">
       <c r="A184" s="2" t="s">
         <v>1112</v>
       </c>
@@ -26353,7 +26437,7 @@
       <c r="Y184" s="2"/>
       <c r="Z184" s="2"/>
     </row>
-    <row r="185" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:26" ht="15.75" customHeight="1">
       <c r="A185" s="2" t="s">
         <v>1119</v>
       </c>
@@ -26395,7 +26479,7 @@
       <c r="Y185" s="2"/>
       <c r="Z185" s="2"/>
     </row>
-    <row r="186" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:26" ht="15.75" customHeight="1">
       <c r="A186" s="2" t="s">
         <v>1125</v>
       </c>
@@ -26437,7 +26521,7 @@
       <c r="Y186" s="2"/>
       <c r="Z186" s="2"/>
     </row>
-    <row r="187" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:26" ht="15.75" customHeight="1">
       <c r="A187" s="2" t="s">
         <v>1131</v>
       </c>
@@ -26479,7 +26563,7 @@
       <c r="Y187" s="2"/>
       <c r="Z187" s="2"/>
     </row>
-    <row r="188" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:26" ht="15.75" customHeight="1">
       <c r="A188" s="2" t="s">
         <v>1137</v>
       </c>
@@ -26521,7 +26605,7 @@
       <c r="Y188" s="2"/>
       <c r="Z188" s="2"/>
     </row>
-    <row r="189" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:26" ht="15.75" customHeight="1">
       <c r="A189" s="2" t="s">
         <v>1144</v>
       </c>
@@ -26563,7 +26647,7 @@
       <c r="Y189" s="2"/>
       <c r="Z189" s="2"/>
     </row>
-    <row r="190" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:26" ht="15.75" customHeight="1">
       <c r="A190" s="2" t="s">
         <v>1149</v>
       </c>
@@ -26605,7 +26689,7 @@
       <c r="Y190" s="2"/>
       <c r="Z190" s="2"/>
     </row>
-    <row r="191" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:26" ht="31.5" customHeight="1">
       <c r="A191" s="2" t="s">
         <v>1151</v>
       </c>
@@ -26647,7 +26731,7 @@
       <c r="Y191" s="2"/>
       <c r="Z191" s="2"/>
     </row>
-    <row r="192" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:26" ht="15.75" customHeight="1">
       <c r="A192" s="2" t="s">
         <v>1158</v>
       </c>
@@ -26689,7 +26773,7 @@
       <c r="Y192" s="2"/>
       <c r="Z192" s="2"/>
     </row>
-    <row r="193" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:26" ht="15.75" customHeight="1">
       <c r="A193" s="2" t="s">
         <v>1165</v>
       </c>
@@ -26731,7 +26815,7 @@
       <c r="Y193" s="2"/>
       <c r="Z193" s="2"/>
     </row>
-    <row r="194" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:26" ht="15.75" customHeight="1">
       <c r="A194" s="2" t="s">
         <v>1170</v>
       </c>
@@ -26773,7 +26857,7 @@
       <c r="Y194" s="2"/>
       <c r="Z194" s="2"/>
     </row>
-    <row r="195" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:26" ht="15.75" customHeight="1">
       <c r="A195" s="2" t="s">
         <v>1177</v>
       </c>
@@ -26815,7 +26899,7 @@
       <c r="Y195" s="2"/>
       <c r="Z195" s="2"/>
     </row>
-    <row r="196" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:26" ht="15.75" customHeight="1">
       <c r="A196" s="2" t="s">
         <v>1184</v>
       </c>
@@ -26857,7 +26941,7 @@
       <c r="Y196" s="2"/>
       <c r="Z196" s="2"/>
     </row>
-    <row r="197" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:26" ht="31.5" customHeight="1">
       <c r="A197" s="2" t="s">
         <v>1189</v>
       </c>
@@ -26899,7 +26983,7 @@
       <c r="Y197" s="2"/>
       <c r="Z197" s="2"/>
     </row>
-    <row r="198" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:26" ht="47.25" customHeight="1">
       <c r="A198" s="2" t="s">
         <v>1196</v>
       </c>
@@ -26941,7 +27025,7 @@
       <c r="Y198" s="2"/>
       <c r="Z198" s="2"/>
     </row>
-    <row r="199" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:26" ht="15.75" customHeight="1">
       <c r="A199" s="2" t="s">
         <v>1203</v>
       </c>
@@ -26983,7 +27067,7 @@
       <c r="Y199" s="2"/>
       <c r="Z199" s="2"/>
     </row>
-    <row r="200" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:26" ht="31.5" customHeight="1">
       <c r="A200" s="2" t="s">
         <v>1210</v>
       </c>
@@ -27025,7 +27109,7 @@
       <c r="Y200" s="2"/>
       <c r="Z200" s="2"/>
     </row>
-    <row r="201" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:26" ht="15.75" customHeight="1">
       <c r="A201" s="2" t="s">
         <v>1217</v>
       </c>
@@ -27067,7 +27151,7 @@
       <c r="Y201" s="2"/>
       <c r="Z201" s="2"/>
     </row>
-    <row r="202" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:26" ht="15.75" customHeight="1">
       <c r="A202" s="2" t="s">
         <v>1223</v>
       </c>
@@ -27109,7 +27193,7 @@
       <c r="Y202" s="2"/>
       <c r="Z202" s="2"/>
     </row>
-    <row r="203" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:26" ht="15.75" customHeight="1">
       <c r="A203" s="2" t="s">
         <v>1229</v>
       </c>
@@ -27151,7 +27235,7 @@
       <c r="Y203" s="2"/>
       <c r="Z203" s="2"/>
     </row>
-    <row r="204" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:26" ht="15.75" customHeight="1">
       <c r="A204" s="2" t="s">
         <v>1235</v>
       </c>
@@ -27193,7 +27277,7 @@
       <c r="Y204" s="2"/>
       <c r="Z204" s="2"/>
     </row>
-    <row r="205" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:26" ht="31.5" customHeight="1">
       <c r="A205" s="2" t="s">
         <v>1241</v>
       </c>
@@ -27235,7 +27319,7 @@
       <c r="Y205" s="2"/>
       <c r="Z205" s="2"/>
     </row>
-    <row r="206" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:26" ht="31.5" customHeight="1">
       <c r="A206" s="2" t="s">
         <v>1247</v>
       </c>
@@ -27277,7 +27361,7 @@
       <c r="Y206" s="2"/>
       <c r="Z206" s="2"/>
     </row>
-    <row r="207" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:26" ht="47.25" customHeight="1">
       <c r="A207" s="2" t="s">
         <v>1252</v>
       </c>
@@ -27319,7 +27403,7 @@
       <c r="Y207" s="2"/>
       <c r="Z207" s="2"/>
     </row>
-    <row r="208" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:26" ht="31.5" customHeight="1">
       <c r="A208" s="2" t="s">
         <v>1258</v>
       </c>
@@ -27361,7 +27445,7 @@
       <c r="Y208" s="2"/>
       <c r="Z208" s="2"/>
     </row>
-    <row r="209" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:26" ht="15.75" customHeight="1">
       <c r="A209" s="2" t="s">
         <v>1265</v>
       </c>
@@ -27403,7 +27487,7 @@
       <c r="Y209" s="2"/>
       <c r="Z209" s="2"/>
     </row>
-    <row r="210" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:26" ht="15.75" customHeight="1">
       <c r="A210" s="2" t="s">
         <v>1272</v>
       </c>
@@ -27445,7 +27529,7 @@
       <c r="Y210" s="2"/>
       <c r="Z210" s="2"/>
     </row>
-    <row r="211" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:26" ht="15.75" customHeight="1">
       <c r="A211" s="2" t="s">
         <v>1279</v>
       </c>
@@ -27487,7 +27571,7 @@
       <c r="Y211" s="2"/>
       <c r="Z211" s="2"/>
     </row>
-    <row r="212" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:26" ht="15.75" customHeight="1">
       <c r="A212" s="2" t="s">
         <v>1285</v>
       </c>
@@ -27529,7 +27613,7 @@
       <c r="Y212" s="2"/>
       <c r="Z212" s="2"/>
     </row>
-    <row r="213" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:26" ht="15.75" customHeight="1">
       <c r="A213" s="2" t="s">
         <v>1292</v>
       </c>
@@ -27571,7 +27655,7 @@
       <c r="Y213" s="2"/>
       <c r="Z213" s="2"/>
     </row>
-    <row r="214" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:26" ht="15.75" customHeight="1">
       <c r="A214" s="2" t="s">
         <v>1299</v>
       </c>
@@ -27613,7 +27697,7 @@
       <c r="Y214" s="2"/>
       <c r="Z214" s="2"/>
     </row>
-    <row r="215" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:26" ht="15.75" customHeight="1">
       <c r="A215" s="2" t="s">
         <v>1306</v>
       </c>
@@ -27655,7 +27739,7 @@
       <c r="Y215" s="2"/>
       <c r="Z215" s="2"/>
     </row>
-    <row r="216" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:26" ht="15.75" customHeight="1">
       <c r="A216" s="2" t="s">
         <v>1313</v>
       </c>
@@ -27697,7 +27781,7 @@
       <c r="Y216" s="2"/>
       <c r="Z216" s="2"/>
     </row>
-    <row r="217" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:26" ht="63" customHeight="1">
       <c r="A217" s="2" t="s">
         <v>1316</v>
       </c>
@@ -27739,7 +27823,7 @@
       <c r="Y217" s="2"/>
       <c r="Z217" s="2"/>
     </row>
-    <row r="218" spans="1:26" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:26" ht="126" customHeight="1">
       <c r="A218" s="2" t="s">
         <v>1323</v>
       </c>
@@ -27781,7 +27865,7 @@
       <c r="Y218" s="2"/>
       <c r="Z218" s="2"/>
     </row>
-    <row r="219" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:26" ht="15.75" customHeight="1">
       <c r="A219" s="2" t="s">
         <v>1328</v>
       </c>
@@ -27823,7 +27907,7 @@
       <c r="Y219" s="2"/>
       <c r="Z219" s="2"/>
     </row>
-    <row r="220" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:26" ht="31.5" customHeight="1">
       <c r="A220" s="2" t="s">
         <v>1334</v>
       </c>
@@ -27865,7 +27949,7 @@
       <c r="Y220" s="2"/>
       <c r="Z220" s="2"/>
     </row>
-    <row r="221" spans="1:26" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:26" ht="78.75" customHeight="1">
       <c r="A221" s="2" t="s">
         <v>1341</v>
       </c>
@@ -27907,7 +27991,7 @@
       <c r="Y221" s="2"/>
       <c r="Z221" s="2"/>
     </row>
-    <row r="222" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:26" ht="47.25" customHeight="1">
       <c r="A222" s="2" t="s">
         <v>1347</v>
       </c>
@@ -27949,7 +28033,7 @@
       <c r="Y222" s="2"/>
       <c r="Z222" s="2"/>
     </row>
-    <row r="223" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:26" ht="15.75" customHeight="1">
       <c r="A223" s="2" t="s">
         <v>1351</v>
       </c>
@@ -27991,7 +28075,7 @@
       <c r="Y223" s="2"/>
       <c r="Z223" s="2"/>
     </row>
-    <row r="224" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:26" ht="15.75" customHeight="1">
       <c r="A224" s="2" t="s">
         <v>1357</v>
       </c>
@@ -28033,7 +28117,7 @@
       <c r="Y224" s="2"/>
       <c r="Z224" s="2"/>
     </row>
-    <row r="225" spans="1:26" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:26" ht="126" customHeight="1">
       <c r="A225" s="2" t="s">
         <v>1364</v>
       </c>
@@ -28075,7 +28159,7 @@
       <c r="Y225" s="2"/>
       <c r="Z225" s="2"/>
     </row>
-    <row r="226" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:26" ht="15.75" customHeight="1">
       <c r="A226" s="2" t="s">
         <v>1370</v>
       </c>
@@ -28117,7 +28201,7 @@
       <c r="Y226" s="2"/>
       <c r="Z226" s="2"/>
     </row>
-    <row r="227" spans="1:26" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:26" ht="157.5" customHeight="1">
       <c r="A227" s="2" t="s">
         <v>1376</v>
       </c>
@@ -28159,7 +28243,7 @@
       <c r="Y227" s="2"/>
       <c r="Z227" s="2"/>
     </row>
-    <row r="228" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:26" ht="15.75" customHeight="1">
       <c r="A228" s="2" t="s">
         <v>1382</v>
       </c>
@@ -28201,7 +28285,7 @@
       <c r="Y228" s="2"/>
       <c r="Z228" s="2"/>
     </row>
-    <row r="229" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:26" ht="15.75" customHeight="1">
       <c r="A229" s="2" t="s">
         <v>1389</v>
       </c>
@@ -28243,7 +28327,7 @@
       <c r="Y229" s="2"/>
       <c r="Z229" s="2"/>
     </row>
-    <row r="230" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:26" ht="15.75" customHeight="1">
       <c r="A230" s="2" t="s">
         <v>1396</v>
       </c>
@@ -28285,7 +28369,7 @@
       <c r="Y230" s="2"/>
       <c r="Z230" s="2"/>
     </row>
-    <row r="231" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:26" ht="15.75" customHeight="1">
       <c r="A231" s="2" t="s">
         <v>1403</v>
       </c>
@@ -28327,7 +28411,7 @@
       <c r="Y231" s="2"/>
       <c r="Z231" s="2"/>
     </row>
-    <row r="232" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:26" ht="15.75" customHeight="1">
       <c r="A232" s="2" t="s">
         <v>1409</v>
       </c>
@@ -28369,7 +28453,7 @@
       <c r="Y232" s="2"/>
       <c r="Z232" s="2"/>
     </row>
-    <row r="233" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:26" ht="15.75" customHeight="1">
       <c r="A233" s="2" t="s">
         <v>1416</v>
       </c>
@@ -28411,7 +28495,7 @@
       <c r="Y233" s="2"/>
       <c r="Z233" s="2"/>
     </row>
-    <row r="234" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:26" ht="15.75" customHeight="1">
       <c r="A234" s="2" t="s">
         <v>1422</v>
       </c>
@@ -28453,7 +28537,7 @@
       <c r="Y234" s="2"/>
       <c r="Z234" s="2"/>
     </row>
-    <row r="235" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:26" ht="15.75" customHeight="1">
       <c r="A235" s="2" t="s">
         <v>1429</v>
       </c>
@@ -28495,7 +28579,7 @@
       <c r="Y235" s="2"/>
       <c r="Z235" s="2"/>
     </row>
-    <row r="236" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:26" ht="15.75" customHeight="1">
       <c r="A236" s="2" t="s">
         <v>1435</v>
       </c>
@@ -28537,7 +28621,7 @@
       <c r="Y236" s="2"/>
       <c r="Z236" s="2"/>
     </row>
-    <row r="237" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:26" ht="15.75" customHeight="1">
       <c r="A237" s="2" t="s">
         <v>1440</v>
       </c>
@@ -28579,7 +28663,7 @@
       <c r="Y237" s="2"/>
       <c r="Z237" s="2"/>
     </row>
-    <row r="238" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:26" ht="15.75" customHeight="1">
       <c r="A238" s="2" t="s">
         <v>1445</v>
       </c>
@@ -28621,7 +28705,7 @@
       <c r="Y238" s="2"/>
       <c r="Z238" s="2"/>
     </row>
-    <row r="239" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:26" ht="15.75" customHeight="1">
       <c r="A239" s="2" t="s">
         <v>1452</v>
       </c>
@@ -28663,7 +28747,7 @@
       <c r="Y239" s="2"/>
       <c r="Z239" s="2"/>
     </row>
-    <row r="240" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:26" ht="15.75" customHeight="1">
       <c r="A240" s="2" t="s">
         <v>1459</v>
       </c>
@@ -28705,7 +28789,7 @@
       <c r="Y240" s="2"/>
       <c r="Z240" s="2"/>
     </row>
-    <row r="241" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:26" ht="15.75" customHeight="1">
       <c r="A241" s="2" t="s">
         <v>1464</v>
       </c>
@@ -28747,7 +28831,7 @@
       <c r="Y241" s="2"/>
       <c r="Z241" s="2"/>
     </row>
-    <row r="242" spans="1:26" ht="204.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:26" ht="204.75" customHeight="1">
       <c r="A242" s="2" t="s">
         <v>1471</v>
       </c>
@@ -28789,7 +28873,7 @@
       <c r="Y242" s="2"/>
       <c r="Z242" s="2"/>
     </row>
-    <row r="243" spans="1:26" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:26" ht="157.5" customHeight="1">
       <c r="A243" s="6" t="s">
         <v>1475</v>
       </c>
@@ -28831,7 +28915,7 @@
       <c r="Y243" s="2"/>
       <c r="Z243" s="2"/>
     </row>
-    <row r="244" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:26" ht="15.75" customHeight="1">
       <c r="A244" s="2" t="s">
         <v>1480</v>
       </c>
@@ -28873,7 +28957,7 @@
       <c r="Y244" s="2"/>
       <c r="Z244" s="2"/>
     </row>
-    <row r="245" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:26" ht="31.5" customHeight="1">
       <c r="A245" s="2" t="s">
         <v>1486</v>
       </c>
@@ -28915,7 +28999,7 @@
       <c r="Y245" s="2"/>
       <c r="Z245" s="2"/>
     </row>
-    <row r="246" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:26" ht="15.75" customHeight="1">
       <c r="A246" s="2" t="s">
         <v>1493</v>
       </c>
@@ -28957,7 +29041,7 @@
       <c r="Y246" s="2"/>
       <c r="Z246" s="2"/>
     </row>
-    <row r="247" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:26" ht="15.75" customHeight="1">
       <c r="A247" s="2" t="s">
         <v>1500</v>
       </c>
@@ -28999,7 +29083,7 @@
       <c r="Y247" s="2"/>
       <c r="Z247" s="2"/>
     </row>
-    <row r="248" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:26" ht="15.75" customHeight="1">
       <c r="A248" s="2" t="s">
         <v>1506</v>
       </c>
@@ -29041,7 +29125,7 @@
       <c r="Y248" s="2"/>
       <c r="Z248" s="2"/>
     </row>
-    <row r="249" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:26" ht="15.75" customHeight="1">
       <c r="A249" s="2" t="s">
         <v>1512</v>
       </c>
@@ -29083,7 +29167,7 @@
       <c r="Y249" s="2"/>
       <c r="Z249" s="2"/>
     </row>
-    <row r="250" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:26" ht="15.75" customHeight="1">
       <c r="A250" s="2" t="s">
         <v>1517</v>
       </c>
@@ -29125,7 +29209,7 @@
       <c r="Y250" s="2"/>
       <c r="Z250" s="2"/>
     </row>
-    <row r="251" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:26" ht="15.75" customHeight="1">
       <c r="A251" s="2" t="s">
         <v>1524</v>
       </c>
@@ -29167,7 +29251,7 @@
       <c r="Y251" s="2"/>
       <c r="Z251" s="2"/>
     </row>
-    <row r="252" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:26" ht="15.75" customHeight="1">
       <c r="A252" s="2" t="s">
         <v>1530</v>
       </c>
@@ -29209,7 +29293,7 @@
       <c r="Y252" s="2"/>
       <c r="Z252" s="2"/>
     </row>
-    <row r="253" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:26" ht="15.75" customHeight="1">
       <c r="A253" s="2" t="s">
         <v>1536</v>
       </c>
@@ -29251,7 +29335,7 @@
       <c r="Y253" s="2"/>
       <c r="Z253" s="2"/>
     </row>
-    <row r="254" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:26" ht="31.5" customHeight="1">
       <c r="A254" s="2" t="s">
         <v>1540</v>
       </c>
@@ -29293,7 +29377,7 @@
       <c r="Y254" s="2"/>
       <c r="Z254" s="2"/>
     </row>
-    <row r="255" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:26" ht="15.75" customHeight="1">
       <c r="A255" s="2" t="s">
         <v>1547</v>
       </c>
@@ -29335,7 +29419,7 @@
       <c r="Y255" s="2"/>
       <c r="Z255" s="2"/>
     </row>
-    <row r="256" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:26" ht="31.5" customHeight="1">
       <c r="A256" s="2" t="s">
         <v>1554</v>
       </c>
@@ -29377,7 +29461,7 @@
       <c r="Y256" s="2"/>
       <c r="Z256" s="2"/>
     </row>
-    <row r="257" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:26" ht="15.75" customHeight="1">
       <c r="A257" s="2" t="s">
         <v>1561</v>
       </c>
@@ -29419,7 +29503,7 @@
       <c r="Y257" s="2"/>
       <c r="Z257" s="2"/>
     </row>
-    <row r="258" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:26" ht="15.75" customHeight="1">
       <c r="A258" s="2" t="s">
         <v>1566</v>
       </c>
@@ -29461,7 +29545,7 @@
       <c r="Y258" s="2"/>
       <c r="Z258" s="2"/>
     </row>
-    <row r="259" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:26" ht="15.75" customHeight="1">
       <c r="A259" s="2" t="s">
         <v>1568</v>
       </c>
@@ -29503,7 +29587,7 @@
       <c r="Y259" s="2"/>
       <c r="Z259" s="2"/>
     </row>
-    <row r="260" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:26" ht="15.75" customHeight="1">
       <c r="A260" s="2" t="s">
         <v>1572</v>
       </c>
@@ -29545,7 +29629,7 @@
       <c r="Y260" s="2"/>
       <c r="Z260" s="2"/>
     </row>
-    <row r="261" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:26" ht="15.75" customHeight="1">
       <c r="A261" s="2" t="s">
         <v>1579</v>
       </c>
@@ -29587,7 +29671,7 @@
       <c r="Y261" s="2"/>
       <c r="Z261" s="2"/>
     </row>
-    <row r="262" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:26" ht="15.75" customHeight="1">
       <c r="A262" s="2" t="s">
         <v>1586</v>
       </c>
@@ -29629,7 +29713,7 @@
       <c r="Y262" s="2"/>
       <c r="Z262" s="2"/>
     </row>
-    <row r="263" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:26" ht="15.75" customHeight="1">
       <c r="A263" s="2" t="s">
         <v>1590</v>
       </c>
@@ -29671,7 +29755,7 @@
       <c r="Y263" s="2"/>
       <c r="Z263" s="2"/>
     </row>
-    <row r="264" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:26" ht="15.75" customHeight="1">
       <c r="A264" s="2" t="s">
         <v>1594</v>
       </c>
@@ -29713,7 +29797,7 @@
       <c r="Y264" s="2"/>
       <c r="Z264" s="2"/>
     </row>
-    <row r="265" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:26" ht="15.75" customHeight="1">
       <c r="A265" s="2" t="s">
         <v>1601</v>
       </c>
@@ -29755,7 +29839,7 @@
       <c r="Y265" s="2"/>
       <c r="Z265" s="2"/>
     </row>
-    <row r="266" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:26" ht="15.75" customHeight="1">
       <c r="A266" s="2" t="s">
         <v>1605</v>
       </c>
@@ -29797,7 +29881,7 @@
       <c r="Y266" s="2"/>
       <c r="Z266" s="2"/>
     </row>
-    <row r="267" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:26" ht="15.75" customHeight="1">
       <c r="A267" s="2" t="s">
         <v>1610</v>
       </c>
@@ -29839,7 +29923,7 @@
       <c r="Y267" s="2"/>
       <c r="Z267" s="2"/>
     </row>
-    <row r="268" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:26" ht="15.75" customHeight="1">
       <c r="A268" s="2" t="s">
         <v>1615</v>
       </c>
@@ -29881,7 +29965,7 @@
       <c r="Y268" s="2"/>
       <c r="Z268" s="2"/>
     </row>
-    <row r="269" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:26" ht="15.75" customHeight="1">
       <c r="A269" s="2" t="s">
         <v>1622</v>
       </c>
@@ -29923,7 +30007,7 @@
       <c r="Y269" s="2"/>
       <c r="Z269" s="2"/>
     </row>
-    <row r="270" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:26" ht="31.5" customHeight="1">
       <c r="A270" s="2" t="s">
         <v>1628</v>
       </c>
@@ -29965,7 +30049,7 @@
       <c r="Y270" s="2"/>
       <c r="Z270" s="2"/>
     </row>
-    <row r="271" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:26" ht="15.75" customHeight="1">
       <c r="A271" s="2" t="s">
         <v>1635</v>
       </c>
@@ -30007,7 +30091,7 @@
       <c r="Y271" s="2"/>
       <c r="Z271" s="2"/>
     </row>
-    <row r="272" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:26" ht="15.75" customHeight="1">
       <c r="A272" s="2" t="s">
         <v>1642</v>
       </c>
@@ -30049,7 +30133,7 @@
       <c r="Y272" s="2"/>
       <c r="Z272" s="2"/>
     </row>
-    <row r="273" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:26" ht="15.75" customHeight="1">
       <c r="A273" s="2" t="s">
         <v>1648</v>
       </c>
@@ -30091,7 +30175,7 @@
       <c r="Y273" s="2"/>
       <c r="Z273" s="2"/>
     </row>
-    <row r="274" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:26" ht="15.75" customHeight="1">
       <c r="A274" s="2" t="s">
         <v>1654</v>
       </c>
@@ -30133,7 +30217,7 @@
       <c r="Y274" s="2"/>
       <c r="Z274" s="2"/>
     </row>
-    <row r="275" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:26" ht="31.5" customHeight="1">
       <c r="A275" s="2" t="s">
         <v>1661</v>
       </c>
@@ -30175,7 +30259,7 @@
       <c r="Y275" s="2"/>
       <c r="Z275" s="2"/>
     </row>
-    <row r="276" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:26" ht="15.75" customHeight="1">
       <c r="A276" s="2" t="s">
         <v>1667</v>
       </c>
@@ -30217,7 +30301,7 @@
       <c r="Y276" s="2"/>
       <c r="Z276" s="2"/>
     </row>
-    <row r="277" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:26" ht="31.5" customHeight="1">
       <c r="A277" s="2" t="s">
         <v>1673</v>
       </c>
@@ -30259,7 +30343,7 @@
       <c r="Y277" s="2"/>
       <c r="Z277" s="2"/>
     </row>
-    <row r="278" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:26" ht="15.75" customHeight="1">
       <c r="A278" s="2" t="s">
         <v>1680</v>
       </c>
@@ -30301,7 +30385,7 @@
       <c r="Y278" s="2"/>
       <c r="Z278" s="2"/>
     </row>
-    <row r="279" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:26" ht="15.75" customHeight="1">
       <c r="A279" s="2" t="s">
         <v>1686</v>
       </c>
@@ -30343,7 +30427,7 @@
       <c r="Y279" s="2"/>
       <c r="Z279" s="2"/>
     </row>
-    <row r="280" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:26" ht="31.5" customHeight="1">
       <c r="A280" s="2" t="s">
         <v>1690</v>
       </c>
@@ -30385,7 +30469,7 @@
       <c r="Y280" s="2"/>
       <c r="Z280" s="2"/>
     </row>
-    <row r="281" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:26" ht="15.75" customHeight="1">
       <c r="A281" s="2" t="s">
         <v>1697</v>
       </c>
@@ -30427,7 +30511,7 @@
       <c r="Y281" s="2"/>
       <c r="Z281" s="2"/>
     </row>
-    <row r="282" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:26" ht="15.75" customHeight="1">
       <c r="A282" s="2" t="s">
         <v>1704</v>
       </c>
@@ -30469,7 +30553,7 @@
       <c r="Y282" s="2"/>
       <c r="Z282" s="2"/>
     </row>
-    <row r="283" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:26" ht="15.75" customHeight="1">
       <c r="A283" s="2" t="s">
         <v>1711</v>
       </c>
@@ -30511,7 +30595,7 @@
       <c r="Y283" s="2"/>
       <c r="Z283" s="2"/>
     </row>
-    <row r="284" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:26" ht="15.75" customHeight="1">
       <c r="A284" s="2" t="s">
         <v>1717</v>
       </c>
@@ -30553,7 +30637,7 @@
       <c r="Y284" s="2"/>
       <c r="Z284" s="2"/>
     </row>
-    <row r="285" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:26" ht="15.75" customHeight="1">
       <c r="A285" s="2" t="s">
         <v>1723</v>
       </c>
@@ -30595,7 +30679,7 @@
       <c r="Y285" s="2"/>
       <c r="Z285" s="2"/>
     </row>
-    <row r="286" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:26" ht="15.75" customHeight="1">
       <c r="A286" s="2" t="s">
         <v>1730</v>
       </c>
@@ -30637,7 +30721,7 @@
       <c r="Y286" s="2"/>
       <c r="Z286" s="2"/>
     </row>
-    <row r="287" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:26" ht="15.75" customHeight="1">
       <c r="A287" s="2" t="s">
         <v>1737</v>
       </c>
@@ -30679,7 +30763,7 @@
       <c r="Y287" s="2"/>
       <c r="Z287" s="2"/>
     </row>
-    <row r="288" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:26" ht="15.75" customHeight="1">
       <c r="A288" s="2" t="s">
         <v>1744</v>
       </c>
@@ -30721,7 +30805,7 @@
       <c r="Y288" s="2"/>
       <c r="Z288" s="2"/>
     </row>
-    <row r="289" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:26" ht="15.75" customHeight="1">
       <c r="A289" s="2" t="s">
         <v>1751</v>
       </c>
@@ -30763,7 +30847,7 @@
       <c r="Y289" s="2"/>
       <c r="Z289" s="2"/>
     </row>
-    <row r="290" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:26" ht="15.75" customHeight="1">
       <c r="A290" s="2" t="s">
         <v>1758</v>
       </c>
@@ -30805,7 +30889,7 @@
       <c r="Y290" s="2"/>
       <c r="Z290" s="2"/>
     </row>
-    <row r="291" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:26" ht="31.5" customHeight="1">
       <c r="A291" s="2" t="s">
         <v>1765</v>
       </c>
@@ -30847,7 +30931,7 @@
       <c r="Y291" s="2"/>
       <c r="Z291" s="2"/>
     </row>
-    <row r="292" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:26" ht="15.75" customHeight="1">
       <c r="A292" s="2" t="s">
         <v>1772</v>
       </c>
@@ -30889,7 +30973,7 @@
       <c r="Y292" s="2"/>
       <c r="Z292" s="2"/>
     </row>
-    <row r="293" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:26" ht="15.75" customHeight="1">
       <c r="A293" s="2" t="s">
         <v>1779</v>
       </c>
@@ -30931,7 +31015,7 @@
       <c r="Y293" s="2"/>
       <c r="Z293" s="2"/>
     </row>
-    <row r="294" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:26" ht="47.25" customHeight="1">
       <c r="A294" s="2" t="s">
         <v>1786</v>
       </c>
@@ -30973,7 +31057,7 @@
       <c r="Y294" s="2"/>
       <c r="Z294" s="2"/>
     </row>
-    <row r="295" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:26" ht="31.5" customHeight="1">
       <c r="A295" s="2" t="s">
         <v>1793</v>
       </c>
@@ -31015,7 +31099,7 @@
       <c r="Y295" s="2"/>
       <c r="Z295" s="2"/>
     </row>
-    <row r="296" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:26" ht="15.75" customHeight="1">
       <c r="A296" s="2" t="s">
         <v>1800</v>
       </c>
@@ -31057,7 +31141,7 @@
       <c r="Y296" s="2"/>
       <c r="Z296" s="2"/>
     </row>
-    <row r="297" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:26" ht="31.5" customHeight="1">
       <c r="A297" s="2" t="s">
         <v>1807</v>
       </c>
@@ -31099,7 +31183,7 @@
       <c r="Y297" s="2"/>
       <c r="Z297" s="2"/>
     </row>
-    <row r="298" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:26" ht="15.75" customHeight="1">
       <c r="A298" s="2" t="s">
         <v>1814</v>
       </c>
@@ -31141,7 +31225,7 @@
       <c r="Y298" s="2"/>
       <c r="Z298" s="2"/>
     </row>
-    <row r="299" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:26" ht="47.25" customHeight="1">
       <c r="A299" s="2" t="s">
         <v>1821</v>
       </c>
@@ -31183,7 +31267,7 @@
       <c r="Y299" s="2"/>
       <c r="Z299" s="2"/>
     </row>
-    <row r="300" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:26" ht="15.75" customHeight="1">
       <c r="A300" s="2" t="s">
         <v>1828</v>
       </c>
@@ -31225,7 +31309,7 @@
       <c r="Y300" s="2"/>
       <c r="Z300" s="2"/>
     </row>
-    <row r="301" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:26" ht="15.75" customHeight="1">
       <c r="A301" s="2" t="s">
         <v>1835</v>
       </c>
@@ -31267,7 +31351,7 @@
       <c r="Y301" s="2"/>
       <c r="Z301" s="2"/>
     </row>
-    <row r="302" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:26" ht="31.5" customHeight="1">
       <c r="A302" s="2" t="s">
         <v>1842</v>
       </c>
@@ -31309,7 +31393,7 @@
       <c r="Y302" s="2"/>
       <c r="Z302" s="2"/>
     </row>
-    <row r="303" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:26" ht="31.5" customHeight="1">
       <c r="A303" s="2" t="s">
         <v>1849</v>
       </c>
@@ -31351,7 +31435,7 @@
       <c r="Y303" s="2"/>
       <c r="Z303" s="2"/>
     </row>
-    <row r="304" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:26" ht="31.5" customHeight="1">
       <c r="A304" s="2" t="s">
         <v>1856</v>
       </c>
@@ -31393,7 +31477,7 @@
       <c r="Y304" s="2"/>
       <c r="Z304" s="2"/>
     </row>
-    <row r="305" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:26" ht="15.75" customHeight="1">
       <c r="A305" s="2" t="s">
         <v>1863</v>
       </c>
@@ -31435,7 +31519,7 @@
       <c r="Y305" s="2"/>
       <c r="Z305" s="2"/>
     </row>
-    <row r="306" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:26" ht="15.75" customHeight="1">
       <c r="A306" s="2" t="s">
         <v>1869</v>
       </c>
@@ -31477,7 +31561,7 @@
       <c r="Y306" s="2"/>
       <c r="Z306" s="2"/>
     </row>
-    <row r="307" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:26" ht="15.75" customHeight="1">
       <c r="A307" s="2" t="s">
         <v>1875</v>
       </c>
@@ -31519,7 +31603,7 @@
       <c r="Y307" s="2"/>
       <c r="Z307" s="2"/>
     </row>
-    <row r="308" spans="1:26" ht="189" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:26" ht="189" customHeight="1">
       <c r="A308" s="2" t="s">
         <v>1881</v>
       </c>
@@ -31561,7 +31645,7 @@
       <c r="Y308" s="2"/>
       <c r="Z308" s="2"/>
     </row>
-    <row r="309" spans="1:26" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:26" ht="126" customHeight="1">
       <c r="A309" s="2" t="s">
         <v>1885</v>
       </c>
@@ -31603,7 +31687,7 @@
       <c r="Y309" s="2"/>
       <c r="Z309" s="2"/>
     </row>
-    <row r="310" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:26" ht="15.75" customHeight="1">
       <c r="A310" s="2" t="s">
         <v>1891</v>
       </c>
@@ -31645,7 +31729,7 @@
       <c r="Y310" s="2"/>
       <c r="Z310" s="2"/>
     </row>
-    <row r="311" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:26" ht="15.75" customHeight="1">
       <c r="A311" s="2" t="s">
         <v>1898</v>
       </c>
@@ -31687,7 +31771,7 @@
       <c r="Y311" s="2"/>
       <c r="Z311" s="2"/>
     </row>
-    <row r="312" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:26" ht="15.75" customHeight="1">
       <c r="A312" s="2" t="s">
         <v>1905</v>
       </c>
@@ -31729,7 +31813,7 @@
       <c r="Y312" s="2"/>
       <c r="Z312" s="2"/>
     </row>
-    <row r="313" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:26" ht="15.75" customHeight="1">
       <c r="A313" s="2" t="s">
         <v>1906</v>
       </c>
@@ -31771,7 +31855,7 @@
       <c r="Y313" s="2"/>
       <c r="Z313" s="2"/>
     </row>
-    <row r="314" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:26" ht="15.75" customHeight="1">
       <c r="A314" s="2" t="s">
         <v>1912</v>
       </c>
@@ -31813,7 +31897,7 @@
       <c r="Y314" s="2"/>
       <c r="Z314" s="2"/>
     </row>
-    <row r="315" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:26" ht="15.75" customHeight="1">
       <c r="A315" s="2" t="s">
         <v>1918</v>
       </c>
@@ -31855,7 +31939,7 @@
       <c r="Y315" s="2"/>
       <c r="Z315" s="2"/>
     </row>
-    <row r="316" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:26" ht="15.75" customHeight="1">
       <c r="A316" s="2" t="s">
         <v>1924</v>
       </c>
@@ -31897,7 +31981,7 @@
       <c r="Y316" s="2"/>
       <c r="Z316" s="2"/>
     </row>
-    <row r="317" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:26" ht="15.75" customHeight="1">
       <c r="A317" s="2" t="s">
         <v>1931</v>
       </c>
@@ -31939,7 +32023,7 @@
       <c r="Y317" s="2"/>
       <c r="Z317" s="2"/>
     </row>
-    <row r="318" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:26" ht="15.75" customHeight="1">
       <c r="A318" s="2" t="s">
         <v>1938</v>
       </c>
@@ -31981,7 +32065,7 @@
       <c r="Y318" s="2"/>
       <c r="Z318" s="2"/>
     </row>
-    <row r="319" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:26" ht="15.75" customHeight="1">
       <c r="A319" s="2" t="s">
         <v>1945</v>
       </c>
@@ -32023,7 +32107,7 @@
       <c r="Y319" s="2"/>
       <c r="Z319" s="2"/>
     </row>
-    <row r="320" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:26" ht="15.75" customHeight="1">
       <c r="A320" s="2" t="s">
         <v>1950</v>
       </c>
@@ -32065,7 +32149,7 @@
       <c r="Y320" s="2"/>
       <c r="Z320" s="2"/>
     </row>
-    <row r="321" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:26" ht="63" customHeight="1">
       <c r="A321" s="2" t="s">
         <v>1957</v>
       </c>
@@ -32107,7 +32191,7 @@
       <c r="Y321" s="2"/>
       <c r="Z321" s="2"/>
     </row>
-    <row r="322" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:26" ht="15.75" customHeight="1">
       <c r="A322" s="2" t="s">
         <v>1964</v>
       </c>
@@ -32149,7 +32233,7 @@
       <c r="Y322" s="2"/>
       <c r="Z322" s="2"/>
     </row>
-    <row r="323" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:26" ht="15.75" customHeight="1">
       <c r="A323" s="2" t="s">
         <v>1969</v>
       </c>
@@ -32191,7 +32275,7 @@
       <c r="Y323" s="2"/>
       <c r="Z323" s="2"/>
     </row>
-    <row r="324" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:26" ht="15.75" customHeight="1">
       <c r="A324" s="2" t="s">
         <v>1974</v>
       </c>
@@ -32233,7 +32317,7 @@
       <c r="Y324" s="2"/>
       <c r="Z324" s="2"/>
     </row>
-    <row r="325" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:26" ht="15.75" customHeight="1">
       <c r="A325" s="2" t="s">
         <v>1979</v>
       </c>
@@ -32275,7 +32359,7 @@
       <c r="Y325" s="2"/>
       <c r="Z325" s="2"/>
     </row>
-    <row r="326" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:26" ht="15.75" customHeight="1">
       <c r="A326" s="2" t="s">
         <v>1986</v>
       </c>
@@ -32317,7 +32401,7 @@
       <c r="Y326" s="2"/>
       <c r="Z326" s="2"/>
     </row>
-    <row r="327" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:26" ht="15.75" customHeight="1">
       <c r="A327" s="2" t="s">
         <v>1990</v>
       </c>
@@ -32359,7 +32443,7 @@
       <c r="Y327" s="2"/>
       <c r="Z327" s="2"/>
     </row>
-    <row r="328" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:26" ht="15.75" customHeight="1">
       <c r="A328" s="2" t="s">
         <v>1997</v>
       </c>
@@ -32401,7 +32485,7 @@
       <c r="Y328" s="2"/>
       <c r="Z328" s="2"/>
     </row>
-    <row r="329" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:26" ht="15.75" customHeight="1">
       <c r="A329" s="2" t="s">
         <v>2002</v>
       </c>
@@ -32443,7 +32527,7 @@
       <c r="Y329" s="2"/>
       <c r="Z329" s="2"/>
     </row>
-    <row r="330" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:26" ht="15.75" customHeight="1">
       <c r="A330" s="2" t="s">
         <v>2007</v>
       </c>
@@ -32485,7 +32569,7 @@
       <c r="Y330" s="2"/>
       <c r="Z330" s="2"/>
     </row>
-    <row r="331" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:26" ht="15.75" customHeight="1">
       <c r="A331" s="2" t="s">
         <v>2012</v>
       </c>
@@ -32527,7 +32611,7 @@
       <c r="Y331" s="2"/>
       <c r="Z331" s="2"/>
     </row>
-    <row r="332" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:26" ht="15.75" customHeight="1">
       <c r="A332" s="2" t="s">
         <v>2016</v>
       </c>
@@ -32569,7 +32653,7 @@
       <c r="Y332" s="2"/>
       <c r="Z332" s="2"/>
     </row>
-    <row r="333" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:26" ht="15.75" customHeight="1">
       <c r="A333" s="2" t="s">
         <v>2021</v>
       </c>
@@ -32611,7 +32695,7 @@
       <c r="Y333" s="2"/>
       <c r="Z333" s="2"/>
     </row>
-    <row r="334" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:26" ht="15.75" customHeight="1">
       <c r="A334" s="2" t="s">
         <v>2026</v>
       </c>
@@ -32653,7 +32737,7 @@
       <c r="Y334" s="2"/>
       <c r="Z334" s="2"/>
     </row>
-    <row r="335" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:26" ht="15.75" customHeight="1">
       <c r="A335" s="2" t="s">
         <v>2030</v>
       </c>
@@ -32695,7 +32779,7 @@
       <c r="Y335" s="2"/>
       <c r="Z335" s="2"/>
     </row>
-    <row r="336" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:26" ht="15.75" customHeight="1">
       <c r="A336" s="2" t="s">
         <v>2035</v>
       </c>
@@ -32737,7 +32821,7 @@
       <c r="Y336" s="2"/>
       <c r="Z336" s="2"/>
     </row>
-    <row r="337" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:26" ht="15.75" customHeight="1">
       <c r="A337" s="2" t="s">
         <v>2042</v>
       </c>
@@ -32779,7 +32863,7 @@
       <c r="Y337" s="2"/>
       <c r="Z337" s="2"/>
     </row>
-    <row r="338" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:26" ht="15.75" customHeight="1">
       <c r="A338" s="2" t="s">
         <v>2049</v>
       </c>
@@ -32821,7 +32905,7 @@
       <c r="Y338" s="2"/>
       <c r="Z338" s="2"/>
     </row>
-    <row r="339" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:26" ht="15.75" customHeight="1">
       <c r="A339" s="2" t="s">
         <v>2055</v>
       </c>
@@ -32863,7 +32947,7 @@
       <c r="Y339" s="2"/>
       <c r="Z339" s="2"/>
     </row>
-    <row r="340" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:26" ht="15.75" customHeight="1">
       <c r="A340" s="2" t="s">
         <v>2060</v>
       </c>
@@ -32905,7 +32989,7 @@
       <c r="Y340" s="2"/>
       <c r="Z340" s="2"/>
     </row>
-    <row r="341" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:26" ht="15.75" customHeight="1">
       <c r="A341" s="2" t="s">
         <v>2067</v>
       </c>
@@ -32947,7 +33031,7 @@
       <c r="Y341" s="2"/>
       <c r="Z341" s="2"/>
     </row>
-    <row r="342" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:26" ht="15.75" customHeight="1">
       <c r="A342" s="2" t="s">
         <v>2071</v>
       </c>
@@ -32989,7 +33073,7 @@
       <c r="Y342" s="2"/>
       <c r="Z342" s="2"/>
     </row>
-    <row r="343" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:26" ht="15.75" customHeight="1">
       <c r="A343" s="2" t="s">
         <v>2078</v>
       </c>
@@ -33031,7 +33115,7 @@
       <c r="Y343" s="2"/>
       <c r="Z343" s="2"/>
     </row>
-    <row r="344" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:26" ht="15.75" customHeight="1">
       <c r="A344" s="2" t="s">
         <v>2085</v>
       </c>
@@ -33073,7 +33157,7 @@
       <c r="Y344" s="2"/>
       <c r="Z344" s="2"/>
     </row>
-    <row r="345" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:26" ht="15.75" customHeight="1">
       <c r="A345" s="2" t="s">
         <v>2092</v>
       </c>
@@ -33115,7 +33199,7 @@
       <c r="Y345" s="2"/>
       <c r="Z345" s="2"/>
     </row>
-    <row r="346" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:26" ht="15.75" customHeight="1">
       <c r="A346" s="2" t="s">
         <v>2097</v>
       </c>
@@ -33157,7 +33241,7 @@
       <c r="Y346" s="2"/>
       <c r="Z346" s="2"/>
     </row>
-    <row r="347" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:26" ht="15.75" customHeight="1">
       <c r="A347" s="2" t="s">
         <v>2104</v>
       </c>
@@ -33199,7 +33283,7 @@
       <c r="Y347" s="2"/>
       <c r="Z347" s="2"/>
     </row>
-    <row r="348" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:26" ht="15.75" customHeight="1">
       <c r="A348" s="2" t="s">
         <v>2110</v>
       </c>
@@ -33241,7 +33325,7 @@
       <c r="Y348" s="2"/>
       <c r="Z348" s="2"/>
     </row>
-    <row r="349" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:26" ht="15.75" customHeight="1">
       <c r="A349" s="2" t="s">
         <v>2114</v>
       </c>
@@ -33283,7 +33367,7 @@
       <c r="Y349" s="2"/>
       <c r="Z349" s="2"/>
     </row>
-    <row r="350" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:26" ht="15.75" customHeight="1">
       <c r="A350" s="2" t="s">
         <v>2121</v>
       </c>
@@ -33325,7 +33409,7 @@
       <c r="Y350" s="2"/>
       <c r="Z350" s="2"/>
     </row>
-    <row r="351" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:26" ht="15.75" customHeight="1">
       <c r="A351" s="2" t="s">
         <v>2128</v>
       </c>
@@ -33367,7 +33451,7 @@
       <c r="Y351" s="2"/>
       <c r="Z351" s="2"/>
     </row>
-    <row r="352" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:26" ht="15.75" customHeight="1">
       <c r="A352" s="2" t="s">
         <v>2133</v>
       </c>
@@ -33409,7 +33493,7 @@
       <c r="Y352" s="2"/>
       <c r="Z352" s="2"/>
     </row>
-    <row r="353" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:26" ht="15.75" customHeight="1">
       <c r="A353" s="2" t="s">
         <v>2135</v>
       </c>
@@ -33451,7 +33535,7 @@
       <c r="Y353" s="2"/>
       <c r="Z353" s="2"/>
     </row>
-    <row r="354" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:26" ht="15.75" customHeight="1">
       <c r="A354" s="2" t="s">
         <v>2138</v>
       </c>
@@ -33493,7 +33577,7 @@
       <c r="Y354" s="2"/>
       <c r="Z354" s="2"/>
     </row>
-    <row r="355" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:26" ht="15.75" customHeight="1">
       <c r="A355" s="2" t="s">
         <v>2145</v>
       </c>
@@ -33535,7 +33619,7 @@
       <c r="Y355" s="2"/>
       <c r="Z355" s="2"/>
     </row>
-    <row r="356" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:26" ht="15.75" customHeight="1">
       <c r="A356" s="2" t="s">
         <v>2149</v>
       </c>
@@ -33577,7 +33661,7 @@
       <c r="Y356" s="2"/>
       <c r="Z356" s="2"/>
     </row>
-    <row r="357" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:26" ht="15.75" customHeight="1">
       <c r="A357" s="2" t="s">
         <v>2154</v>
       </c>
@@ -33619,7 +33703,7 @@
       <c r="Y357" s="2"/>
       <c r="Z357" s="2"/>
     </row>
-    <row r="358" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:26" ht="15.75" customHeight="1">
       <c r="A358" s="2" t="s">
         <v>2159</v>
       </c>
@@ -33661,7 +33745,7 @@
       <c r="Y358" s="2"/>
       <c r="Z358" s="2"/>
     </row>
-    <row r="359" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:26" ht="15.75" customHeight="1">
       <c r="A359" s="4" t="s">
         <v>2164</v>
       </c>
@@ -33703,7 +33787,7 @@
       <c r="Y359" s="2"/>
       <c r="Z359" s="2"/>
     </row>
-    <row r="360" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:26" ht="15.75" customHeight="1">
       <c r="A360" s="2" t="s">
         <v>2171</v>
       </c>
@@ -33745,7 +33829,7 @@
       <c r="Y360" s="2"/>
       <c r="Z360" s="2"/>
     </row>
-    <row r="361" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:26" ht="15.75" customHeight="1">
       <c r="A361" s="2" t="s">
         <v>2177</v>
       </c>
@@ -33787,7 +33871,7 @@
       <c r="Y361" s="2"/>
       <c r="Z361" s="2"/>
     </row>
-    <row r="362" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:26" ht="15.75" customHeight="1">
       <c r="A362" s="2" t="s">
         <v>2182</v>
       </c>
@@ -33829,7 +33913,7 @@
       <c r="Y362" s="2"/>
       <c r="Z362" s="2"/>
     </row>
-    <row r="363" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:26" ht="15.75" customHeight="1">
       <c r="A363" s="2" t="s">
         <v>2188</v>
       </c>
@@ -33871,7 +33955,7 @@
       <c r="Y363" s="2"/>
       <c r="Z363" s="2"/>
     </row>
-    <row r="364" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:26" ht="15.75" customHeight="1">
       <c r="A364" s="4" t="s">
         <v>2192</v>
       </c>
@@ -33913,7 +33997,7 @@
       <c r="Y364" s="2"/>
       <c r="Z364" s="2"/>
     </row>
-    <row r="365" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:26" ht="47.25" customHeight="1">
       <c r="A365" s="2" t="s">
         <v>2197</v>
       </c>
@@ -33955,7 +34039,7 @@
       <c r="Y365" s="2"/>
       <c r="Z365" s="2"/>
     </row>
-    <row r="366" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:26" ht="15.75" customHeight="1">
       <c r="A366" s="2" t="s">
         <v>2204</v>
       </c>
@@ -33997,7 +34081,7 @@
       <c r="Y366" s="2"/>
       <c r="Z366" s="2"/>
     </row>
-    <row r="367" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:26" ht="15.75" customHeight="1">
       <c r="A367" s="2" t="s">
         <v>2211</v>
       </c>
@@ -34039,7 +34123,7 @@
       <c r="Y367" s="2"/>
       <c r="Z367" s="2"/>
     </row>
-    <row r="368" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:26" ht="15.75" customHeight="1">
       <c r="A368" s="2" t="s">
         <v>2216</v>
       </c>
@@ -34081,7 +34165,7 @@
       <c r="Y368" s="2"/>
       <c r="Z368" s="2"/>
     </row>
-    <row r="369" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:26" ht="15.75" customHeight="1">
       <c r="A369" s="2" t="s">
         <v>2222</v>
       </c>
@@ -34123,7 +34207,7 @@
       <c r="Y369" s="2"/>
       <c r="Z369" s="2"/>
     </row>
-    <row r="370" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:26" ht="15.75" customHeight="1">
       <c r="A370" s="2" t="s">
         <v>2229</v>
       </c>
@@ -34165,7 +34249,7 @@
       <c r="Y370" s="2"/>
       <c r="Z370" s="2"/>
     </row>
-    <row r="371" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:26" ht="15.75" customHeight="1">
       <c r="A371" s="2" t="s">
         <v>2235</v>
       </c>
@@ -34207,7 +34291,7 @@
       <c r="Y371" s="2"/>
       <c r="Z371" s="2"/>
     </row>
-    <row r="372" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:26" ht="15.75" customHeight="1">
       <c r="A372" s="2" t="s">
         <v>2239</v>
       </c>
@@ -34249,7 +34333,7 @@
       <c r="Y372" s="2"/>
       <c r="Z372" s="2"/>
     </row>
-    <row r="373" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:26" ht="31.5" customHeight="1">
       <c r="A373" s="2" t="s">
         <v>2244</v>
       </c>
@@ -34291,7 +34375,7 @@
       <c r="Y373" s="2"/>
       <c r="Z373" s="2"/>
     </row>
-    <row r="374" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:26" ht="15.75" customHeight="1">
       <c r="A374" s="2" t="s">
         <v>2250</v>
       </c>
@@ -34333,7 +34417,7 @@
       <c r="Y374" s="2"/>
       <c r="Z374" s="2"/>
     </row>
-    <row r="375" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:26" ht="15.75" customHeight="1">
       <c r="A375" s="2" t="s">
         <v>2257</v>
       </c>
@@ -34375,7 +34459,7 @@
       <c r="Y375" s="2"/>
       <c r="Z375" s="2"/>
     </row>
-    <row r="376" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:26" ht="15.75" customHeight="1">
       <c r="A376" s="2" t="s">
         <v>2263</v>
       </c>
@@ -34417,7 +34501,7 @@
       <c r="Y376" s="2"/>
       <c r="Z376" s="2"/>
     </row>
-    <row r="377" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:26" ht="15.75" customHeight="1">
       <c r="A377" s="2" t="s">
         <v>2270</v>
       </c>
@@ -34459,7 +34543,7 @@
       <c r="Y377" s="2"/>
       <c r="Z377" s="2"/>
     </row>
-    <row r="378" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:26" ht="15.75" customHeight="1">
       <c r="A378" s="2" t="s">
         <v>2276</v>
       </c>
@@ -34501,7 +34585,7 @@
       <c r="Y378" s="2"/>
       <c r="Z378" s="2"/>
     </row>
-    <row r="379" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:26" ht="15.75" customHeight="1">
       <c r="A379" s="2" t="s">
         <v>2281</v>
       </c>
@@ -34543,7 +34627,7 @@
       <c r="Y379" s="2"/>
       <c r="Z379" s="2"/>
     </row>
-    <row r="380" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:26" ht="15.75" customHeight="1">
       <c r="A380" s="2" t="s">
         <v>2288</v>
       </c>
@@ -34585,7 +34669,7 @@
       <c r="Y380" s="2"/>
       <c r="Z380" s="2"/>
     </row>
-    <row r="381" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:26" ht="15.75" customHeight="1">
       <c r="A381" s="2" t="s">
         <v>2294</v>
       </c>
@@ -34627,7 +34711,7 @@
       <c r="Y381" s="2"/>
       <c r="Z381" s="2"/>
     </row>
-    <row r="382" spans="1:26" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:26" ht="141.75" customHeight="1">
       <c r="A382" s="2" t="s">
         <v>2300</v>
       </c>
@@ -34669,7 +34753,7 @@
       <c r="Y382" s="2"/>
       <c r="Z382" s="2"/>
     </row>
-    <row r="383" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:26" ht="15.75" customHeight="1">
       <c r="A383" s="2" t="s">
         <v>2307</v>
       </c>
@@ -34711,7 +34795,7 @@
       <c r="Y383" s="2"/>
       <c r="Z383" s="2"/>
     </row>
-    <row r="384" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:26" ht="15.75" customHeight="1">
       <c r="A384" s="2" t="s">
         <v>2312</v>
       </c>
@@ -34753,7 +34837,7 @@
       <c r="Y384" s="2"/>
       <c r="Z384" s="2"/>
     </row>
-    <row r="385" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:26" ht="15.75" customHeight="1">
       <c r="A385" s="2" t="s">
         <v>2316</v>
       </c>
@@ -34795,7 +34879,7 @@
       <c r="Y385" s="2"/>
       <c r="Z385" s="2"/>
     </row>
-    <row r="386" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:26" ht="15.75" customHeight="1">
       <c r="A386" s="2" t="s">
         <v>2322</v>
       </c>
@@ -34837,7 +34921,7 @@
       <c r="Y386" s="2"/>
       <c r="Z386" s="2"/>
     </row>
-    <row r="387" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:26" ht="15.75" customHeight="1">
       <c r="A387" s="2" t="s">
         <v>2328</v>
       </c>
@@ -34879,7 +34963,7 @@
       <c r="Y387" s="2"/>
       <c r="Z387" s="2"/>
     </row>
-    <row r="388" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:26" ht="15.75" customHeight="1">
       <c r="A388" s="2" t="s">
         <v>2334</v>
       </c>
@@ -34921,7 +35005,7 @@
       <c r="Y388" s="2"/>
       <c r="Z388" s="2"/>
     </row>
-    <row r="389" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:26" ht="15.75" customHeight="1">
       <c r="A389" s="4" t="s">
         <v>2341</v>
       </c>
@@ -34963,7 +35047,7 @@
       <c r="Y389" s="2"/>
       <c r="Z389" s="2"/>
     </row>
-    <row r="390" spans="1:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:26" ht="94.5" customHeight="1">
       <c r="A390" s="2" t="s">
         <v>2347</v>
       </c>
@@ -35005,7 +35089,7 @@
       <c r="Y390" s="2"/>
       <c r="Z390" s="2"/>
     </row>
-    <row r="391" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:26" ht="47.25" customHeight="1">
       <c r="A391" s="2" t="s">
         <v>2353</v>
       </c>
@@ -35047,7 +35131,7 @@
       <c r="Y391" s="2"/>
       <c r="Z391" s="2"/>
     </row>
-    <row r="392" spans="1:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:26" ht="94.5" customHeight="1">
       <c r="A392" s="2" t="s">
         <v>2360</v>
       </c>
@@ -35089,7 +35173,7 @@
       <c r="Y392" s="2"/>
       <c r="Z392" s="2"/>
     </row>
-    <row r="393" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:26" ht="63" customHeight="1">
       <c r="A393" s="2" t="s">
         <v>2367</v>
       </c>
@@ -35131,7 +35215,7 @@
       <c r="Y393" s="2"/>
       <c r="Z393" s="2"/>
     </row>
-    <row r="394" spans="1:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:26" ht="94.5" customHeight="1">
       <c r="A394" s="2" t="s">
         <v>2374</v>
       </c>
@@ -35173,7 +35257,7 @@
       <c r="Y394" s="2"/>
       <c r="Z394" s="2"/>
     </row>
-    <row r="395" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:26" ht="15.75" customHeight="1">
       <c r="A395" s="2" t="s">
         <v>2380</v>
       </c>
@@ -35215,7 +35299,7 @@
       <c r="Y395" s="2"/>
       <c r="Z395" s="2"/>
     </row>
-    <row r="396" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:26" ht="15.75" customHeight="1">
       <c r="A396" s="2" t="s">
         <v>2387</v>
       </c>
@@ -35257,7 +35341,7 @@
       <c r="Y396" s="2"/>
       <c r="Z396" s="2"/>
     </row>
-    <row r="397" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:26" ht="15.75" customHeight="1">
       <c r="A397" s="4" t="s">
         <v>2391</v>
       </c>
@@ -35299,7 +35383,7 @@
       <c r="Y397" s="2"/>
       <c r="Z397" s="2"/>
     </row>
-    <row r="398" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:26" ht="15.75" customHeight="1">
       <c r="A398" s="2" t="s">
         <v>2398</v>
       </c>
@@ -35341,7 +35425,7 @@
       <c r="Y398" s="2"/>
       <c r="Z398" s="2"/>
     </row>
-    <row r="399" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:26" ht="15.75" customHeight="1">
       <c r="A399" s="2" t="s">
         <v>2403</v>
       </c>
@@ -35383,7 +35467,7 @@
       <c r="Y399" s="2"/>
       <c r="Z399" s="2"/>
     </row>
-    <row r="400" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:26" ht="15.75" customHeight="1">
       <c r="A400" s="2" t="s">
         <v>2410</v>
       </c>
@@ -35425,7 +35509,7 @@
       <c r="Y400" s="2"/>
       <c r="Z400" s="2"/>
     </row>
-    <row r="401" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:26" ht="15.75" customHeight="1">
       <c r="A401" s="2" t="s">
         <v>2417</v>
       </c>
@@ -35467,7 +35551,7 @@
       <c r="Y401" s="2"/>
       <c r="Z401" s="2"/>
     </row>
-    <row r="402" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:26" ht="15.75" customHeight="1">
       <c r="A402" s="2" t="s">
         <v>2422</v>
       </c>
@@ -35509,7 +35593,7 @@
       <c r="Y402" s="2"/>
       <c r="Z402" s="2"/>
     </row>
-    <row r="403" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:26" ht="15.75" customHeight="1">
       <c r="A403" s="2" t="s">
         <v>2427</v>
       </c>
@@ -35551,7 +35635,7 @@
       <c r="Y403" s="2"/>
       <c r="Z403" s="2"/>
     </row>
-    <row r="404" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:26" ht="15.75" customHeight="1">
       <c r="A404" s="2" t="s">
         <v>2432</v>
       </c>
@@ -35593,7 +35677,7 @@
       <c r="Y404" s="2"/>
       <c r="Z404" s="2"/>
     </row>
-    <row r="405" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:26" ht="15.75" customHeight="1">
       <c r="A405" s="2" t="s">
         <v>2436</v>
       </c>
@@ -35635,7 +35719,7 @@
       <c r="Y405" s="2"/>
       <c r="Z405" s="2"/>
     </row>
-    <row r="406" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:26" ht="15.75" customHeight="1">
       <c r="A406" s="2" t="s">
         <v>2442</v>
       </c>
@@ -35677,7 +35761,7 @@
       <c r="Y406" s="2"/>
       <c r="Z406" s="2"/>
     </row>
-    <row r="407" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:26" ht="47.25" customHeight="1">
       <c r="A407" s="6" t="s">
         <v>2448</v>
       </c>
@@ -35719,7 +35803,7 @@
       <c r="Y407" s="2"/>
       <c r="Z407" s="2"/>
     </row>
-    <row r="408" spans="1:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:26" ht="94.5" customHeight="1">
       <c r="A408" s="2" t="s">
         <v>2452</v>
       </c>
@@ -35761,7 +35845,7 @@
       <c r="Y408" s="2"/>
       <c r="Z408" s="2"/>
     </row>
-    <row r="409" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:26" ht="15.75" customHeight="1">
       <c r="A409" s="2" t="s">
         <v>2458</v>
       </c>
@@ -35803,7 +35887,7 @@
       <c r="Y409" s="2"/>
       <c r="Z409" s="2"/>
     </row>
-    <row r="410" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:26" ht="15.75" customHeight="1">
       <c r="A410" s="2" t="s">
         <v>2465</v>
       </c>
@@ -35845,7 +35929,7 @@
       <c r="Y410" s="2"/>
       <c r="Z410" s="2"/>
     </row>
-    <row r="411" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:26" ht="15.75" customHeight="1">
       <c r="A411" s="2" t="s">
         <v>2469</v>
       </c>
@@ -35887,7 +35971,7 @@
       <c r="Y411" s="2"/>
       <c r="Z411" s="2"/>
     </row>
-    <row r="412" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:26" ht="15.75" customHeight="1">
       <c r="A412" s="2" t="s">
         <v>2476</v>
       </c>
@@ -35929,7 +36013,7 @@
       <c r="Y412" s="2"/>
       <c r="Z412" s="2"/>
     </row>
-    <row r="413" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:26" ht="15.75" customHeight="1">
       <c r="A413" s="2" t="s">
         <v>2483</v>
       </c>
@@ -35971,7 +36055,7 @@
       <c r="Y413" s="2"/>
       <c r="Z413" s="2"/>
     </row>
-    <row r="414" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:26" ht="15.75" customHeight="1">
       <c r="A414" s="2" t="s">
         <v>2490</v>
       </c>
@@ -36013,7 +36097,7 @@
       <c r="Y414" s="2"/>
       <c r="Z414" s="2"/>
     </row>
-    <row r="415" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:26" ht="15.75" customHeight="1">
       <c r="A415" s="2" t="s">
         <v>2495</v>
       </c>
@@ -36055,7 +36139,7 @@
       <c r="Y415" s="2"/>
       <c r="Z415" s="2"/>
     </row>
-    <row r="416" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:26" ht="47.25" customHeight="1">
       <c r="A416" s="2" t="s">
         <v>2502</v>
       </c>
@@ -36097,7 +36181,7 @@
       <c r="Y416" s="2"/>
       <c r="Z416" s="2"/>
     </row>
-    <row r="417" spans="1:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:26" ht="94.5" customHeight="1">
       <c r="A417" s="2" t="s">
         <v>2508</v>
       </c>
@@ -36139,7 +36223,7 @@
       <c r="Y417" s="2"/>
       <c r="Z417" s="2"/>
     </row>
-    <row r="418" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:26" ht="31.5" customHeight="1">
       <c r="A418" s="2" t="s">
         <v>2515</v>
       </c>
@@ -36181,7 +36265,7 @@
       <c r="Y418" s="2"/>
       <c r="Z418" s="2"/>
     </row>
-    <row r="419" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:26" ht="15.75" customHeight="1">
       <c r="A419" s="2" t="s">
         <v>2521</v>
       </c>
@@ -36223,7 +36307,7 @@
       <c r="Y419" s="2"/>
       <c r="Z419" s="2"/>
     </row>
-    <row r="420" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:26" ht="47.25" customHeight="1">
       <c r="A420" s="2" t="s">
         <v>2523</v>
       </c>
@@ -36265,7 +36349,7 @@
       <c r="Y420" s="2"/>
       <c r="Z420" s="2"/>
     </row>
-    <row r="421" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:26" ht="31.5" customHeight="1">
       <c r="A421" s="2" t="s">
         <v>2529</v>
       </c>
@@ -36307,7 +36391,7 @@
       <c r="Y421" s="2"/>
       <c r="Z421" s="2"/>
     </row>
-    <row r="422" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:26" ht="31.5" customHeight="1">
       <c r="A422" s="2" t="s">
         <v>2535</v>
       </c>
@@ -36349,7 +36433,7 @@
       <c r="Y422" s="2"/>
       <c r="Z422" s="2"/>
     </row>
-    <row r="423" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:26" ht="63" customHeight="1">
       <c r="A423" s="2" t="s">
         <v>2542</v>
       </c>
@@ -36391,7 +36475,7 @@
       <c r="Y423" s="2"/>
       <c r="Z423" s="2"/>
     </row>
-    <row r="424" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:26" ht="47.25" customHeight="1">
       <c r="A424" s="2" t="s">
         <v>2549</v>
       </c>
@@ -36433,7 +36517,7 @@
       <c r="Y424" s="2"/>
       <c r="Z424" s="2"/>
     </row>
-    <row r="425" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:26" ht="63" customHeight="1">
       <c r="A425" s="2" t="s">
         <v>2556</v>
       </c>
@@ -36475,7 +36559,7 @@
       <c r="Y425" s="2"/>
       <c r="Z425" s="2"/>
     </row>
-    <row r="426" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:26" ht="15.75" customHeight="1">
       <c r="A426" s="2" t="s">
         <v>2563</v>
       </c>
@@ -36517,7 +36601,7 @@
       <c r="Y426" s="2"/>
       <c r="Z426" s="2"/>
     </row>
-    <row r="427" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:26" ht="15.75" customHeight="1">
       <c r="A427" s="2" t="s">
         <v>2566</v>
       </c>
@@ -36559,7 +36643,7 @@
       <c r="Y427" s="2"/>
       <c r="Z427" s="2"/>
     </row>
-    <row r="428" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:26" ht="15.75" customHeight="1">
       <c r="A428" s="2" t="s">
         <v>2573</v>
       </c>
@@ -36601,7 +36685,7 @@
       <c r="Y428" s="2"/>
       <c r="Z428" s="2"/>
     </row>
-    <row r="429" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:26" ht="15.75" customHeight="1">
       <c r="A429" s="2" t="s">
         <v>2580</v>
       </c>
@@ -36643,7 +36727,7 @@
       <c r="Y429" s="2"/>
       <c r="Z429" s="2"/>
     </row>
-    <row r="430" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:26" ht="15.75" customHeight="1">
       <c r="A430" s="2" t="s">
         <v>2586</v>
       </c>
@@ -36685,7 +36769,7 @@
       <c r="Y430" s="2"/>
       <c r="Z430" s="2"/>
     </row>
-    <row r="431" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:26" ht="15.75" customHeight="1">
       <c r="A431" s="2" t="s">
         <v>2592</v>
       </c>
@@ -36727,7 +36811,7 @@
       <c r="Y431" s="2"/>
       <c r="Z431" s="2"/>
     </row>
-    <row r="432" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:26" ht="31.5" customHeight="1">
       <c r="A432" s="2" t="s">
         <v>2599</v>
       </c>
@@ -36769,7 +36853,7 @@
       <c r="Y432" s="2"/>
       <c r="Z432" s="2"/>
     </row>
-    <row r="433" spans="1:26" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:26" ht="78.75" customHeight="1">
       <c r="A433" s="2" t="s">
         <v>2606</v>
       </c>
@@ -36811,7 +36895,7 @@
       <c r="Y433" s="2"/>
       <c r="Z433" s="2"/>
     </row>
-    <row r="434" spans="1:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:26" ht="94.5" customHeight="1">
       <c r="A434" s="2" t="s">
         <v>2612</v>
       </c>
@@ -36853,7 +36937,7 @@
       <c r="Y434" s="2"/>
       <c r="Z434" s="2"/>
     </row>
-    <row r="435" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:26" ht="15.75" customHeight="1">
       <c r="A435" s="2" t="s">
         <v>2617</v>
       </c>
@@ -36895,7 +36979,7 @@
       <c r="Y435" s="2"/>
       <c r="Z435" s="2"/>
     </row>
-    <row r="436" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:26" ht="63" customHeight="1">
       <c r="A436" s="2" t="s">
         <v>2623</v>
       </c>
@@ -36937,7 +37021,7 @@
       <c r="Y436" s="2"/>
       <c r="Z436" s="2"/>
     </row>
-    <row r="437" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:26" ht="31.5" customHeight="1">
       <c r="A437" s="2" t="s">
         <v>2630</v>
       </c>
@@ -36979,7 +37063,7 @@
       <c r="Y437" s="2"/>
       <c r="Z437" s="2"/>
     </row>
-    <row r="438" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:26" ht="15.75" customHeight="1">
       <c r="A438" s="2" t="s">
         <v>2637</v>
       </c>
@@ -37021,7 +37105,7 @@
       <c r="Y438" s="2"/>
       <c r="Z438" s="2"/>
     </row>
-    <row r="439" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:26" ht="15.75" customHeight="1">
       <c r="A439" s="2" t="s">
         <v>2642</v>
       </c>
@@ -37063,7 +37147,7 @@
       <c r="Y439" s="2"/>
       <c r="Z439" s="2"/>
     </row>
-    <row r="440" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:26" ht="15.75" customHeight="1">
       <c r="A440" s="2" t="s">
         <v>2649</v>
       </c>
@@ -37105,7 +37189,7 @@
       <c r="Y440" s="2"/>
       <c r="Z440" s="2"/>
     </row>
-    <row r="441" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:26" ht="15.75" customHeight="1">
       <c r="A441" s="2" t="s">
         <v>2654</v>
       </c>
@@ -37147,7 +37231,7 @@
       <c r="Y441" s="2"/>
       <c r="Z441" s="2"/>
     </row>
-    <row r="442" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:26" ht="15.75" customHeight="1">
       <c r="A442" s="2" t="s">
         <v>2661</v>
       </c>
@@ -37189,7 +37273,7 @@
       <c r="Y442" s="2"/>
       <c r="Z442" s="2"/>
     </row>
-    <row r="443" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:26" ht="15.75" customHeight="1">
       <c r="A443" s="2" t="s">
         <v>2668</v>
       </c>
@@ -37231,7 +37315,7 @@
       <c r="Y443" s="2"/>
       <c r="Z443" s="2"/>
     </row>
-    <row r="444" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:26" ht="31.5" customHeight="1">
       <c r="A444" s="2" t="s">
         <v>2674</v>
       </c>
@@ -37273,7 +37357,7 @@
       <c r="Y444" s="2"/>
       <c r="Z444" s="2"/>
     </row>
-    <row r="445" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:26" ht="31.5" customHeight="1">
       <c r="A445" s="2" t="s">
         <v>2681</v>
       </c>
@@ -37315,7 +37399,7 @@
       <c r="Y445" s="2"/>
       <c r="Z445" s="2"/>
     </row>
-    <row r="446" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:26" ht="15.75" customHeight="1">
       <c r="A446" s="2" t="s">
         <v>2688</v>
       </c>
@@ -37357,7 +37441,7 @@
       <c r="Y446" s="2"/>
       <c r="Z446" s="2"/>
     </row>
-    <row r="447" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:26" ht="15.75" customHeight="1">
       <c r="A447" s="2" t="s">
         <v>2693</v>
       </c>
@@ -37399,7 +37483,7 @@
       <c r="Y447" s="2"/>
       <c r="Z447" s="2"/>
     </row>
-    <row r="448" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:26" ht="31.5" customHeight="1">
       <c r="A448" s="2" t="s">
         <v>2698</v>
       </c>
@@ -37441,7 +37525,7 @@
       <c r="Y448" s="2"/>
       <c r="Z448" s="2"/>
     </row>
-    <row r="449" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:26" ht="15.75" customHeight="1">
       <c r="A449" s="2" t="s">
         <v>2705</v>
       </c>
@@ -37483,7 +37567,7 @@
       <c r="Y449" s="2"/>
       <c r="Z449" s="2"/>
     </row>
-    <row r="450" spans="1:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:26" ht="94.5" customHeight="1">
       <c r="A450" s="2" t="s">
         <v>2711</v>
       </c>
@@ -37525,7 +37609,7 @@
       <c r="Y450" s="2"/>
       <c r="Z450" s="2"/>
     </row>
-    <row r="451" spans="1:26" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:26" ht="78.75" customHeight="1">
       <c r="A451" s="2" t="s">
         <v>2716</v>
       </c>
@@ -37567,7 +37651,7 @@
       <c r="Y451" s="2"/>
       <c r="Z451" s="2"/>
     </row>
-    <row r="452" spans="1:26" ht="204.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:26" ht="204.75" customHeight="1">
       <c r="A452" s="2" t="s">
         <v>2722</v>
       </c>
@@ -37609,7 +37693,7 @@
       <c r="Y452" s="2"/>
       <c r="Z452" s="2"/>
     </row>
-    <row r="453" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:26" ht="15.75" customHeight="1">
       <c r="A453" s="2" t="s">
         <v>2726</v>
       </c>
@@ -37651,7 +37735,7 @@
       <c r="Y453" s="2"/>
       <c r="Z453" s="2"/>
     </row>
-    <row r="454" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:26" ht="15.75" customHeight="1">
       <c r="A454" s="2" t="s">
         <v>2731</v>
       </c>
@@ -37693,7 +37777,7 @@
       <c r="Y454" s="2"/>
       <c r="Z454" s="2"/>
     </row>
-    <row r="455" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:26" ht="15.75" customHeight="1">
       <c r="A455" s="2" t="s">
         <v>2737</v>
       </c>
@@ -37735,7 +37819,7 @@
       <c r="Y455" s="2"/>
       <c r="Z455" s="2"/>
     </row>
-    <row r="456" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:26" ht="15.75" customHeight="1">
       <c r="A456" s="2" t="s">
         <v>2743</v>
       </c>
@@ -37777,7 +37861,7 @@
       <c r="Y456" s="2"/>
       <c r="Z456" s="2"/>
     </row>
-    <row r="457" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:26" ht="31.5" customHeight="1">
       <c r="A457" s="2" t="s">
         <v>2749</v>
       </c>
@@ -37819,7 +37903,7 @@
       <c r="Y457" s="2"/>
       <c r="Z457" s="2"/>
     </row>
-    <row r="458" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:26" ht="63" customHeight="1">
       <c r="A458" s="2" t="s">
         <v>2756</v>
       </c>
@@ -37861,7 +37945,7 @@
       <c r="Y458" s="2"/>
       <c r="Z458" s="2"/>
     </row>
-    <row r="459" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:26" ht="63" customHeight="1">
       <c r="A459" s="2" t="s">
         <v>2763</v>
       </c>
@@ -37903,7 +37987,7 @@
       <c r="Y459" s="2"/>
       <c r="Z459" s="2"/>
     </row>
-    <row r="460" spans="1:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:26" ht="94.5" customHeight="1">
       <c r="A460" s="2" t="s">
         <v>2769</v>
       </c>
@@ -37945,7 +38029,7 @@
       <c r="Y460" s="2"/>
       <c r="Z460" s="2"/>
     </row>
-    <row r="461" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:26" ht="31.5" customHeight="1">
       <c r="A461" s="2" t="s">
         <v>2776</v>
       </c>
@@ -37987,7 +38071,7 @@
       <c r="Y461" s="2"/>
       <c r="Z461" s="2"/>
     </row>
-    <row r="462" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:26" ht="15.75" customHeight="1">
       <c r="A462" s="2" t="s">
         <v>2783</v>
       </c>
@@ -38029,7 +38113,7 @@
       <c r="Y462" s="2"/>
       <c r="Z462" s="2"/>
     </row>
-    <row r="463" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:26" ht="15.75" customHeight="1">
       <c r="A463" s="2" t="s">
         <v>2789</v>
       </c>
@@ -38071,7 +38155,7 @@
       <c r="Y463" s="2"/>
       <c r="Z463" s="2"/>
     </row>
-    <row r="464" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:26" ht="31.5" customHeight="1">
       <c r="A464" s="2" t="s">
         <v>2795</v>
       </c>
@@ -38113,7 +38197,7 @@
       <c r="Y464" s="2"/>
       <c r="Z464" s="2"/>
     </row>
-    <row r="465" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:26" ht="15.75" customHeight="1">
       <c r="A465" s="4" t="s">
         <v>2802</v>
       </c>
@@ -38155,7 +38239,7 @@
       <c r="Y465" s="2"/>
       <c r="Z465" s="2"/>
     </row>
-    <row r="466" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:26" ht="31.5" customHeight="1">
       <c r="A466" s="2" t="s">
         <v>2809</v>
       </c>
@@ -38197,7 +38281,7 @@
       <c r="Y466" s="2"/>
       <c r="Z466" s="2"/>
     </row>
-    <row r="467" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:26" ht="31.5" customHeight="1">
       <c r="A467" s="2" t="s">
         <v>2816</v>
       </c>
@@ -38239,7 +38323,7 @@
       <c r="Y467" s="2"/>
       <c r="Z467" s="2"/>
     </row>
-    <row r="468" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:26" ht="15.75" customHeight="1">
       <c r="A468" s="2" t="s">
         <v>2823</v>
       </c>
@@ -38281,7 +38365,7 @@
       <c r="Y468" s="2"/>
       <c r="Z468" s="2"/>
     </row>
-    <row r="469" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:26" ht="15.75" customHeight="1">
       <c r="A469" s="2" t="s">
         <v>2830</v>
       </c>
@@ -38323,7 +38407,7 @@
       <c r="Y469" s="2"/>
       <c r="Z469" s="2"/>
     </row>
-    <row r="470" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:26" ht="15.75" customHeight="1">
       <c r="A470" s="2" t="s">
         <v>2837</v>
       </c>
@@ -38365,7 +38449,7 @@
       <c r="Y470" s="2"/>
       <c r="Z470" s="2"/>
     </row>
-    <row r="471" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:26" ht="47.25" customHeight="1">
       <c r="A471" s="2" t="s">
         <v>2843</v>
       </c>
@@ -38407,7 +38491,7 @@
       <c r="Y471" s="2"/>
       <c r="Z471" s="2"/>
     </row>
-    <row r="472" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:26" ht="47.25" customHeight="1">
       <c r="A472" s="2" t="s">
         <v>2850</v>
       </c>
@@ -38449,7 +38533,7 @@
       <c r="Y472" s="2"/>
       <c r="Z472" s="2"/>
     </row>
-    <row r="473" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:26" ht="31.5" customHeight="1">
       <c r="A473" s="2" t="s">
         <v>2857</v>
       </c>
@@ -38491,7 +38575,7 @@
       <c r="Y473" s="2"/>
       <c r="Z473" s="2"/>
     </row>
-    <row r="474" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:26" ht="15.75" customHeight="1">
       <c r="A474" s="2" t="s">
         <v>2864</v>
       </c>
@@ -38533,7 +38617,7 @@
       <c r="Y474" s="2"/>
       <c r="Z474" s="2"/>
     </row>
-    <row r="475" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:26" ht="15.75" customHeight="1">
       <c r="A475" s="2" t="s">
         <v>2869</v>
       </c>
@@ -38575,7 +38659,7 @@
       <c r="Y475" s="2"/>
       <c r="Z475" s="2"/>
     </row>
-    <row r="476" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:26" ht="15.75" customHeight="1">
       <c r="A476" s="4" t="s">
         <v>2873</v>
       </c>
@@ -38617,7 +38701,7 @@
       <c r="Y476" s="2"/>
       <c r="Z476" s="2"/>
     </row>
-    <row r="477" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:26" ht="63" customHeight="1">
       <c r="A477" s="2" t="s">
         <v>2879</v>
       </c>
@@ -38659,7 +38743,7 @@
       <c r="Y477" s="2"/>
       <c r="Z477" s="2"/>
     </row>
-    <row r="478" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:26" ht="31.5" customHeight="1">
       <c r="A478" s="2" t="s">
         <v>2886</v>
       </c>
@@ -38701,7 +38785,7 @@
       <c r="Y478" s="2"/>
       <c r="Z478" s="2"/>
     </row>
-    <row r="479" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:26" ht="31.5" customHeight="1">
       <c r="A479" s="2" t="s">
         <v>2893</v>
       </c>
@@ -38743,7 +38827,7 @@
       <c r="Y479" s="2"/>
       <c r="Z479" s="2"/>
     </row>
-    <row r="480" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:26" ht="15.75" customHeight="1">
       <c r="A480" s="2" t="s">
         <v>2900</v>
       </c>
@@ -38785,7 +38869,7 @@
       <c r="Y480" s="2"/>
       <c r="Z480" s="2"/>
     </row>
-    <row r="481" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:26" ht="15.75" customHeight="1">
       <c r="A481" s="4" t="s">
         <v>2907</v>
       </c>
@@ -38827,7 +38911,7 @@
       <c r="Y481" s="2"/>
       <c r="Z481" s="2"/>
     </row>
-    <row r="482" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:26" ht="15.75" customHeight="1">
       <c r="A482" s="2" t="s">
         <v>2914</v>
       </c>
@@ -38869,7 +38953,7 @@
       <c r="Y482" s="2"/>
       <c r="Z482" s="2"/>
     </row>
-    <row r="483" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:26" ht="15.75" customHeight="1">
       <c r="A483" s="2" t="s">
         <v>2920</v>
       </c>
@@ -38911,7 +38995,7 @@
       <c r="Y483" s="2"/>
       <c r="Z483" s="2"/>
     </row>
-    <row r="484" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:26" ht="15.75" customHeight="1">
       <c r="A484" s="4" t="s">
         <v>2922</v>
       </c>
@@ -38953,7 +39037,7 @@
       <c r="Y484" s="2"/>
       <c r="Z484" s="2"/>
     </row>
-    <row r="485" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:26" ht="15.75" customHeight="1">
       <c r="A485" s="4" t="s">
         <v>2927</v>
       </c>
@@ -38995,7 +39079,7 @@
       <c r="Y485" s="2"/>
       <c r="Z485" s="2"/>
     </row>
-    <row r="486" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:26" ht="15.75" customHeight="1">
       <c r="A486" s="2" t="s">
         <v>2931</v>
       </c>
@@ -39037,7 +39121,7 @@
       <c r="Y486" s="2"/>
       <c r="Z486" s="2"/>
     </row>
-    <row r="487" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:26" ht="15.75" customHeight="1">
       <c r="A487" s="2" t="s">
         <v>2936</v>
       </c>
@@ -39079,7 +39163,7 @@
       <c r="Y487" s="2"/>
       <c r="Z487" s="2"/>
     </row>
-    <row r="488" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:26" ht="63" customHeight="1">
       <c r="A488" s="2" t="s">
         <v>2942</v>
       </c>
@@ -39121,7 +39205,7 @@
       <c r="Y488" s="2"/>
       <c r="Z488" s="2"/>
     </row>
-    <row r="489" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:26" ht="15.75" customHeight="1">
       <c r="A489" s="2" t="s">
         <v>2949</v>
       </c>
@@ -39163,7 +39247,7 @@
       <c r="Y489" s="2"/>
       <c r="Z489" s="2"/>
     </row>
-    <row r="490" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:26" ht="15.75" customHeight="1">
       <c r="A490" s="2" t="s">
         <v>2955</v>
       </c>
@@ -39205,7 +39289,7 @@
       <c r="Y490" s="2"/>
       <c r="Z490" s="2"/>
     </row>
-    <row r="491" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:26" ht="15.75" customHeight="1">
       <c r="A491" s="2" t="s">
         <v>2962</v>
       </c>
@@ -39247,7 +39331,7 @@
       <c r="Y491" s="2"/>
       <c r="Z491" s="2"/>
     </row>
-    <row r="492" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:26" ht="15.75" customHeight="1">
       <c r="A492" s="2" t="s">
         <v>2968</v>
       </c>
@@ -39289,7 +39373,7 @@
       <c r="Y492" s="2"/>
       <c r="Z492" s="2"/>
     </row>
-    <row r="493" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:26" ht="15.75" customHeight="1">
       <c r="A493" s="2" t="s">
         <v>2975</v>
       </c>
@@ -39331,7 +39415,7 @@
       <c r="Y493" s="2"/>
       <c r="Z493" s="2"/>
     </row>
-    <row r="494" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:26" ht="15.75" customHeight="1">
       <c r="A494" s="2" t="s">
         <v>2980</v>
       </c>
@@ -39373,7 +39457,7 @@
       <c r="Y494" s="2"/>
       <c r="Z494" s="2"/>
     </row>
-    <row r="495" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:26" ht="15.75" customHeight="1">
       <c r="A495" s="2" t="s">
         <v>2987</v>
       </c>
@@ -39415,7 +39499,7 @@
       <c r="Y495" s="2"/>
       <c r="Z495" s="2"/>
     </row>
-    <row r="496" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:26" ht="15.75" customHeight="1">
       <c r="A496" s="2" t="s">
         <v>2992</v>
       </c>
@@ -39457,7 +39541,7 @@
       <c r="Y496" s="2"/>
       <c r="Z496" s="2"/>
     </row>
-    <row r="497" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:26" ht="31.5" customHeight="1">
       <c r="A497" s="2" t="s">
         <v>2999</v>
       </c>
@@ -39499,7 +39583,7 @@
       <c r="Y497" s="2"/>
       <c r="Z497" s="2"/>
     </row>
-    <row r="498" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:26" ht="15.75" customHeight="1">
       <c r="A498" s="2" t="s">
         <v>3005</v>
       </c>
@@ -39541,7 +39625,7 @@
       <c r="Y498" s="2"/>
       <c r="Z498" s="2"/>
     </row>
-    <row r="499" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:26" ht="15.75" customHeight="1">
       <c r="A499" s="2" t="s">
         <v>3011</v>
       </c>
@@ -39583,7 +39667,7 @@
       <c r="Y499" s="2"/>
       <c r="Z499" s="2"/>
     </row>
-    <row r="500" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:26" ht="31.5" customHeight="1">
       <c r="A500" s="2" t="s">
         <v>3017</v>
       </c>
@@ -39625,7 +39709,7 @@
       <c r="Y500" s="2"/>
       <c r="Z500" s="2"/>
     </row>
-    <row r="501" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:26" ht="15.75" customHeight="1">
       <c r="A501" s="2" t="s">
         <v>3023</v>
       </c>
@@ -39667,7 +39751,7 @@
       <c r="Y501" s="2"/>
       <c r="Z501" s="2"/>
     </row>
-    <row r="502" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:26" ht="15.75" customHeight="1">
       <c r="A502" s="2" t="s">
         <v>3030</v>
       </c>
@@ -39709,7 +39793,7 @@
       <c r="Y502" s="2"/>
       <c r="Z502" s="2"/>
     </row>
-    <row r="503" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:26" ht="15.75" customHeight="1">
       <c r="A503" s="2" t="s">
         <v>3037</v>
       </c>
@@ -39751,7 +39835,7 @@
       <c r="Y503" s="2"/>
       <c r="Z503" s="2"/>
     </row>
-    <row r="504" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:26" ht="15.75" customHeight="1">
       <c r="A504" s="2" t="s">
         <v>3043</v>
       </c>
@@ -39793,7 +39877,7 @@
       <c r="Y504" s="2"/>
       <c r="Z504" s="2"/>
     </row>
-    <row r="505" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:26" ht="47.25" customHeight="1">
       <c r="A505" s="2" t="s">
         <v>3050</v>
       </c>
@@ -39835,7 +39919,7 @@
       <c r="Y505" s="2"/>
       <c r="Z505" s="2"/>
     </row>
-    <row r="506" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:26" ht="31.5" customHeight="1">
       <c r="A506" s="2" t="s">
         <v>3057</v>
       </c>
@@ -39877,7 +39961,7 @@
       <c r="Y506" s="2"/>
       <c r="Z506" s="2"/>
     </row>
-    <row r="507" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:26" ht="31.5" customHeight="1">
       <c r="A507" s="2" t="s">
         <v>3063</v>
       </c>
@@ -39919,7 +40003,7 @@
       <c r="Y507" s="2"/>
       <c r="Z507" s="2"/>
     </row>
-    <row r="508" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:26" ht="15.75" customHeight="1">
       <c r="A508" s="2" t="s">
         <v>3070</v>
       </c>
@@ -39961,7 +40045,7 @@
       <c r="Y508" s="2"/>
       <c r="Z508" s="2"/>
     </row>
-    <row r="509" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:26" ht="15.75" customHeight="1">
       <c r="A509" s="2" t="s">
         <v>3077</v>
       </c>
@@ -40003,7 +40087,7 @@
       <c r="Y509" s="2"/>
       <c r="Z509" s="2"/>
     </row>
-    <row r="510" spans="1:26" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:26" ht="126" customHeight="1">
       <c r="A510" s="2" t="s">
         <v>3084</v>
       </c>
@@ -40045,7 +40129,7 @@
       <c r="Y510" s="2"/>
       <c r="Z510" s="2"/>
     </row>
-    <row r="511" spans="1:26" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:26" ht="78.75" customHeight="1">
       <c r="A511" s="2" t="s">
         <v>3090</v>
       </c>
@@ -40087,7 +40171,7 @@
       <c r="Y511" s="2"/>
       <c r="Z511" s="2"/>
     </row>
-    <row r="512" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:26" ht="15.75" customHeight="1">
       <c r="A512" s="2" t="s">
         <v>3094</v>
       </c>
@@ -40129,7 +40213,7 @@
       <c r="Y512" s="2"/>
       <c r="Z512" s="2"/>
     </row>
-    <row r="513" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:26" ht="15.75" customHeight="1">
       <c r="A513" s="2" t="s">
         <v>3101</v>
       </c>
@@ -40171,7 +40255,7 @@
       <c r="Y513" s="2"/>
       <c r="Z513" s="2"/>
     </row>
-    <row r="514" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:26" ht="15.75" customHeight="1">
       <c r="A514" s="2" t="s">
         <v>3108</v>
       </c>
@@ -40213,7 +40297,7 @@
       <c r="Y514" s="2"/>
       <c r="Z514" s="2"/>
     </row>
-    <row r="515" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:26" ht="15.75" customHeight="1">
       <c r="A515" s="2" t="s">
         <v>3115</v>
       </c>
@@ -40255,7 +40339,7 @@
       <c r="Y515" s="2"/>
       <c r="Z515" s="2"/>
     </row>
-    <row r="516" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:26" ht="15.75" customHeight="1">
       <c r="A516" s="2" t="s">
         <v>3120</v>
       </c>
@@ -40297,7 +40381,7 @@
       <c r="Y516" s="2"/>
       <c r="Z516" s="2"/>
     </row>
-    <row r="517" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:26" ht="15.75" customHeight="1">
       <c r="A517" s="2" t="s">
         <v>3123</v>
       </c>
@@ -40339,7 +40423,7 @@
       <c r="Y517" s="2"/>
       <c r="Z517" s="2"/>
     </row>
-    <row r="518" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:26" ht="15.75" customHeight="1">
       <c r="A518" s="2" t="s">
         <v>3130</v>
       </c>
@@ -40381,7 +40465,7 @@
       <c r="Y518" s="2"/>
       <c r="Z518" s="2"/>
     </row>
-    <row r="519" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:26" ht="15.75" customHeight="1">
       <c r="A519" s="2" t="s">
         <v>3137</v>
       </c>
@@ -40423,7 +40507,7 @@
       <c r="Y519" s="2"/>
       <c r="Z519" s="2"/>
     </row>
-    <row r="520" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:26" ht="15.75" customHeight="1">
       <c r="A520" s="2" t="s">
         <v>3143</v>
       </c>
@@ -40465,7 +40549,7 @@
       <c r="Y520" s="2"/>
       <c r="Z520" s="2"/>
     </row>
-    <row r="521" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:26" ht="15.75" customHeight="1">
       <c r="A521" s="2" t="s">
         <v>3147</v>
       </c>
@@ -40507,7 +40591,7 @@
       <c r="Y521" s="2"/>
       <c r="Z521" s="2"/>
     </row>
-    <row r="522" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:26" ht="15.75" customHeight="1">
       <c r="A522" s="2" t="s">
         <v>3154</v>
       </c>
@@ -40549,7 +40633,7 @@
       <c r="Y522" s="2"/>
       <c r="Z522" s="2"/>
     </row>
-    <row r="523" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:26" ht="15.75" customHeight="1">
       <c r="A523" s="2" t="s">
         <v>3158</v>
       </c>
@@ -40591,7 +40675,7 @@
       <c r="Y523" s="2"/>
       <c r="Z523" s="2"/>
     </row>
-    <row r="524" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:26" ht="15.75" customHeight="1">
       <c r="A524" s="2" t="s">
         <v>3165</v>
       </c>
@@ -40633,7 +40717,7 @@
       <c r="Y524" s="2"/>
       <c r="Z524" s="2"/>
     </row>
-    <row r="525" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:26" ht="15.75" customHeight="1">
       <c r="A525" s="2" t="s">
         <v>3172</v>
       </c>
@@ -40675,7 +40759,7 @@
       <c r="Y525" s="2"/>
       <c r="Z525" s="2"/>
     </row>
-    <row r="526" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:26" ht="31.5" customHeight="1">
       <c r="A526" s="2" t="s">
         <v>3178</v>
       </c>
@@ -40717,7 +40801,7 @@
       <c r="Y526" s="2"/>
       <c r="Z526" s="2"/>
     </row>
-    <row r="527" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:26" ht="15.75" customHeight="1">
       <c r="A527" s="2" t="s">
         <v>3185</v>
       </c>
@@ -40759,7 +40843,7 @@
       <c r="Y527" s="2"/>
       <c r="Z527" s="2"/>
     </row>
-    <row r="528" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:26" ht="15.75" customHeight="1">
       <c r="A528" s="2" t="s">
         <v>3192</v>
       </c>
@@ -40801,7 +40885,7 @@
       <c r="Y528" s="2"/>
       <c r="Z528" s="2"/>
     </row>
-    <row r="529" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:26" ht="15.75" customHeight="1">
       <c r="A529" s="2" t="s">
         <v>3196</v>
       </c>
@@ -40843,7 +40927,7 @@
       <c r="Y529" s="2"/>
       <c r="Z529" s="2"/>
     </row>
-    <row r="530" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:26" ht="15.75" customHeight="1">
       <c r="A530" s="2" t="s">
         <v>3202</v>
       </c>
@@ -40885,7 +40969,7 @@
       <c r="Y530" s="2"/>
       <c r="Z530" s="2"/>
     </row>
-    <row r="531" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:26" ht="15.75" customHeight="1">
       <c r="A531" s="2" t="s">
         <v>3207</v>
       </c>
@@ -40927,7 +41011,7 @@
       <c r="Y531" s="2"/>
       <c r="Z531" s="2"/>
     </row>
-    <row r="532" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:26" ht="15.75" customHeight="1">
       <c r="A532" s="4" t="s">
         <v>3207</v>
       </c>
@@ -40969,7 +41053,7 @@
       <c r="Y532" s="2"/>
       <c r="Z532" s="2"/>
     </row>
-    <row r="533" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:26" ht="15.75" customHeight="1">
       <c r="A533" s="2" t="s">
         <v>3214</v>
       </c>
@@ -41011,7 +41095,7 @@
       <c r="Y533" s="2"/>
       <c r="Z533" s="2"/>
     </row>
-    <row r="534" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:26" ht="15.75" customHeight="1">
       <c r="A534" s="2" t="s">
         <v>3220</v>
       </c>
@@ -41053,7 +41137,7 @@
       <c r="Y534" s="2"/>
       <c r="Z534" s="2"/>
     </row>
-    <row r="535" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:26" ht="15.75" customHeight="1">
       <c r="A535" s="2" t="s">
         <v>3227</v>
       </c>
@@ -41095,7 +41179,7 @@
       <c r="Y535" s="2"/>
       <c r="Z535" s="2"/>
     </row>
-    <row r="536" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:26" ht="15.75" customHeight="1">
       <c r="A536" s="2" t="s">
         <v>3232</v>
       </c>
@@ -41137,7 +41221,7 @@
       <c r="Y536" s="2"/>
       <c r="Z536" s="2"/>
     </row>
-    <row r="537" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:26" ht="47.25" customHeight="1">
       <c r="A537" s="2" t="s">
         <v>3239</v>
       </c>
@@ -41179,7 +41263,7 @@
       <c r="Y537" s="2"/>
       <c r="Z537" s="2"/>
     </row>
-    <row r="538" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:26" ht="31.5" customHeight="1">
       <c r="A538" s="2" t="s">
         <v>3246</v>
       </c>
@@ -41221,7 +41305,7 @@
       <c r="Y538" s="2"/>
       <c r="Z538" s="2"/>
     </row>
-    <row r="539" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:26" ht="15.75" customHeight="1">
       <c r="A539" s="4" t="s">
         <v>3253</v>
       </c>
@@ -41263,7 +41347,7 @@
       <c r="Y539" s="2"/>
       <c r="Z539" s="2"/>
     </row>
-    <row r="540" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:26" ht="15.75" customHeight="1">
       <c r="A540" s="2" t="s">
         <v>3259</v>
       </c>
@@ -41305,7 +41389,7 @@
       <c r="Y540" s="2"/>
       <c r="Z540" s="2"/>
     </row>
-    <row r="541" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:26" ht="15.75" customHeight="1">
       <c r="A541" s="2" t="s">
         <v>3265</v>
       </c>
@@ -41347,7 +41431,7 @@
       <c r="Y541" s="2"/>
       <c r="Z541" s="2"/>
     </row>
-    <row r="542" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:26" ht="63" customHeight="1">
       <c r="A542" s="2" t="s">
         <v>3270</v>
       </c>
@@ -41389,7 +41473,7 @@
       <c r="Y542" s="2"/>
       <c r="Z542" s="2"/>
     </row>
-    <row r="543" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:26" ht="15.75" customHeight="1">
       <c r="A543" s="2" t="s">
         <v>3277</v>
       </c>
@@ -41431,7 +41515,7 @@
       <c r="Y543" s="2"/>
       <c r="Z543" s="2"/>
     </row>
-    <row r="544" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:26" ht="15.75" customHeight="1">
       <c r="A544" s="2" t="s">
         <v>3284</v>
       </c>
@@ -41473,7 +41557,7 @@
       <c r="Y544" s="2"/>
       <c r="Z544" s="2"/>
     </row>
-    <row r="545" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:26" ht="63" customHeight="1">
       <c r="A545" s="2" t="s">
         <v>3291</v>
       </c>
@@ -41515,7 +41599,7 @@
       <c r="Y545" s="2"/>
       <c r="Z545" s="2"/>
     </row>
-    <row r="546" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:26" ht="15.75" customHeight="1">
       <c r="A546" s="2" t="s">
         <v>3298</v>
       </c>
@@ -41557,7 +41641,7 @@
       <c r="Y546" s="2"/>
       <c r="Z546" s="2"/>
     </row>
-    <row r="547" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:26" ht="15.75" customHeight="1">
       <c r="A547" s="2" t="s">
         <v>3305</v>
       </c>
@@ -41599,7 +41683,7 @@
       <c r="Y547" s="2"/>
       <c r="Z547" s="2"/>
     </row>
-    <row r="548" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:26" ht="31.5" customHeight="1">
       <c r="A548" s="2" t="s">
         <v>3312</v>
       </c>
@@ -41641,7 +41725,7 @@
       <c r="Y548" s="2"/>
       <c r="Z548" s="2"/>
     </row>
-    <row r="549" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:26" ht="15.75" customHeight="1">
       <c r="A549" s="2" t="s">
         <v>3319</v>
       </c>
@@ -41683,7 +41767,7 @@
       <c r="Y549" s="2"/>
       <c r="Z549" s="2"/>
     </row>
-    <row r="550" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:26" ht="47.25" customHeight="1">
       <c r="A550" s="2" t="s">
         <v>3326</v>
       </c>
@@ -41725,7 +41809,7 @@
       <c r="Y550" s="2"/>
       <c r="Z550" s="2"/>
     </row>
-    <row r="551" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:26" ht="15.75" customHeight="1">
       <c r="A551" s="2" t="s">
         <v>3333</v>
       </c>
@@ -41767,7 +41851,7 @@
       <c r="Y551" s="2"/>
       <c r="Z551" s="2"/>
     </row>
-    <row r="552" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:26" ht="31.5" customHeight="1">
       <c r="A552" s="2" t="s">
         <v>3340</v>
       </c>
@@ -41809,7 +41893,7 @@
       <c r="Y552" s="2"/>
       <c r="Z552" s="2"/>
     </row>
-    <row r="553" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:26" ht="31.5" customHeight="1">
       <c r="A553" s="2" t="s">
         <v>3347</v>
       </c>
@@ -41851,7 +41935,7 @@
       <c r="Y553" s="2"/>
       <c r="Z553" s="2"/>
     </row>
-    <row r="554" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:26" ht="15.75" customHeight="1">
       <c r="A554" s="2" t="s">
         <v>3354</v>
       </c>
@@ -41893,7 +41977,7 @@
       <c r="Y554" s="2"/>
       <c r="Z554" s="2"/>
     </row>
-    <row r="555" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:26" ht="15.75" customHeight="1">
       <c r="A555" s="2" t="s">
         <v>3359</v>
       </c>
@@ -41935,7 +42019,7 @@
       <c r="Y555" s="2"/>
       <c r="Z555" s="2"/>
     </row>
-    <row r="556" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:26" ht="15.75" customHeight="1">
       <c r="A556" s="2" t="s">
         <v>3364</v>
       </c>
@@ -41977,7 +42061,7 @@
       <c r="Y556" s="2"/>
       <c r="Z556" s="2"/>
     </row>
-    <row r="557" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:26" ht="15.75" customHeight="1">
       <c r="A557" s="2" t="s">
         <v>3371</v>
       </c>
@@ -42019,7 +42103,7 @@
       <c r="Y557" s="2"/>
       <c r="Z557" s="2"/>
     </row>
-    <row r="558" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:26" ht="63" customHeight="1">
       <c r="A558" s="2" t="s">
         <v>3378</v>
       </c>
@@ -42061,7 +42145,7 @@
       <c r="Y558" s="2"/>
       <c r="Z558" s="2"/>
     </row>
-    <row r="559" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:26" ht="31.5" customHeight="1">
       <c r="A559" s="2" t="s">
         <v>3384</v>
       </c>
@@ -42103,7 +42187,7 @@
       <c r="Y559" s="2"/>
       <c r="Z559" s="2"/>
     </row>
-    <row r="560" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:26" ht="31.5" customHeight="1">
       <c r="A560" s="2" t="s">
         <v>3391</v>
       </c>
@@ -42145,7 +42229,7 @@
       <c r="Y560" s="2"/>
       <c r="Z560" s="2"/>
     </row>
-    <row r="561" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:26" ht="31.5" customHeight="1">
       <c r="A561" s="2" t="s">
         <v>3398</v>
       </c>
@@ -42187,7 +42271,7 @@
       <c r="Y561" s="2"/>
       <c r="Z561" s="2"/>
     </row>
-    <row r="562" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:26" ht="47.25" customHeight="1">
       <c r="A562" s="2" t="s">
         <v>3405</v>
       </c>
@@ -42229,7 +42313,7 @@
       <c r="Y562" s="2"/>
       <c r="Z562" s="2"/>
     </row>
-    <row r="563" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:26" ht="15.75" customHeight="1">
       <c r="A563" s="2" t="s">
         <v>3412</v>
       </c>
@@ -42271,7 +42355,7 @@
       <c r="Y563" s="2"/>
       <c r="Z563" s="2"/>
     </row>
-    <row r="564" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:26" ht="15.75" customHeight="1">
       <c r="A564" s="2" t="s">
         <v>3419</v>
       </c>
@@ -42313,7 +42397,7 @@
       <c r="Y564" s="2"/>
       <c r="Z564" s="2"/>
     </row>
-    <row r="565" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:26" ht="15.75" customHeight="1">
       <c r="A565" s="2" t="s">
         <v>3425</v>
       </c>
@@ -42355,7 +42439,7 @@
       <c r="Y565" s="2"/>
       <c r="Z565" s="2"/>
     </row>
-    <row r="566" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:26" ht="15.75" customHeight="1">
       <c r="A566" s="2" t="s">
         <v>3431</v>
       </c>
@@ -42397,7 +42481,7 @@
       <c r="Y566" s="2"/>
       <c r="Z566" s="2"/>
     </row>
-    <row r="567" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:26" ht="15.75" customHeight="1">
       <c r="A567" s="2" t="s">
         <v>3437</v>
       </c>
@@ -42439,7 +42523,7 @@
       <c r="Y567" s="2"/>
       <c r="Z567" s="2"/>
     </row>
-    <row r="568" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:26" ht="15.75" customHeight="1">
       <c r="A568" s="2" t="s">
         <v>3442</v>
       </c>
@@ -42481,7 +42565,7 @@
       <c r="Y568" s="2"/>
       <c r="Z568" s="2"/>
     </row>
-    <row r="569" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:26" ht="15.75" customHeight="1">
       <c r="A569" s="2" t="s">
         <v>3448</v>
       </c>
@@ -42523,7 +42607,7 @@
       <c r="Y569" s="2"/>
       <c r="Z569" s="2"/>
     </row>
-    <row r="570" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:26" ht="47.25" customHeight="1">
       <c r="A570" s="2" t="s">
         <v>3454</v>
       </c>
@@ -42565,7 +42649,7 @@
       <c r="Y570" s="2"/>
       <c r="Z570" s="2"/>
     </row>
-    <row r="571" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:26" ht="15.75" customHeight="1">
       <c r="A571" s="2" t="s">
         <v>3461</v>
       </c>
@@ -42607,7 +42691,7 @@
       <c r="Y571" s="2"/>
       <c r="Z571" s="2"/>
     </row>
-    <row r="572" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:26" ht="15.75" customHeight="1">
       <c r="A572" s="2" t="s">
         <v>3466</v>
       </c>
@@ -42649,7 +42733,7 @@
       <c r="Y572" s="2"/>
       <c r="Z572" s="2"/>
     </row>
-    <row r="573" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:26" ht="15.75" customHeight="1">
       <c r="A573" s="2" t="s">
         <v>3470</v>
       </c>
@@ -42691,7 +42775,7 @@
       <c r="Y573" s="2"/>
       <c r="Z573" s="2"/>
     </row>
-    <row r="574" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:26" ht="15.75" customHeight="1">
       <c r="A574" s="2" t="s">
         <v>3477</v>
       </c>
@@ -42733,7 +42817,7 @@
       <c r="Y574" s="2"/>
       <c r="Z574" s="2"/>
     </row>
-    <row r="575" spans="1:26" ht="204.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:26" ht="204.75" customHeight="1">
       <c r="A575" s="2" t="s">
         <v>3482</v>
       </c>
@@ -42775,7 +42859,7 @@
       <c r="Y575" s="2"/>
       <c r="Z575" s="2"/>
     </row>
-    <row r="576" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:26" ht="15.75" customHeight="1">
       <c r="A576" s="2" t="s">
         <v>3488</v>
       </c>
@@ -42817,7 +42901,7 @@
       <c r="Y576" s="2"/>
       <c r="Z576" s="2"/>
     </row>
-    <row r="577" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:26" ht="15.75" customHeight="1">
       <c r="A577" s="2" t="s">
         <v>3493</v>
       </c>
@@ -42859,7 +42943,7 @@
       <c r="Y577" s="2"/>
       <c r="Z577" s="2"/>
     </row>
-    <row r="578" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:26" ht="15.75" customHeight="1">
       <c r="A578" s="2" t="s">
         <v>3499</v>
       </c>
@@ -42901,7 +42985,7 @@
       <c r="Y578" s="2"/>
       <c r="Z578" s="2"/>
     </row>
-    <row r="579" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:26" ht="31.5" customHeight="1">
       <c r="A579" s="2" t="s">
         <v>3506</v>
       </c>
@@ -42943,7 +43027,7 @@
       <c r="Y579" s="2"/>
       <c r="Z579" s="2"/>
     </row>
-    <row r="580" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:26" ht="15.75" customHeight="1">
       <c r="A580" s="2" t="s">
         <v>3513</v>
       </c>
@@ -42985,7 +43069,7 @@
       <c r="Y580" s="2"/>
       <c r="Z580" s="2"/>
     </row>
-    <row r="581" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:26" ht="15.75" customHeight="1">
       <c r="A581" s="2" t="s">
         <v>3519</v>
       </c>
@@ -43027,7 +43111,7 @@
       <c r="Y581" s="2"/>
       <c r="Z581" s="2"/>
     </row>
-    <row r="582" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:26" ht="15.75" customHeight="1">
       <c r="A582" s="2" t="s">
         <v>3526</v>
       </c>
@@ -43069,7 +43153,7 @@
       <c r="Y582" s="2"/>
       <c r="Z582" s="2"/>
     </row>
-    <row r="583" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:26" ht="15.75" customHeight="1">
       <c r="A583" s="2" t="s">
         <v>3533</v>
       </c>
@@ -43111,7 +43195,7 @@
       <c r="Y583" s="2"/>
       <c r="Z583" s="2"/>
     </row>
-    <row r="584" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:26" ht="15.75" customHeight="1">
       <c r="A584" s="2" t="s">
         <v>3539</v>
       </c>
@@ -43153,7 +43237,7 @@
       <c r="Y584" s="2"/>
       <c r="Z584" s="2"/>
     </row>
-    <row r="585" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:26" ht="15.75" customHeight="1">
       <c r="A585" s="2" t="s">
         <v>3545</v>
       </c>
@@ -43195,7 +43279,7 @@
       <c r="Y585" s="2"/>
       <c r="Z585" s="2"/>
     </row>
-    <row r="586" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:26" ht="15.75" customHeight="1">
       <c r="A586" s="2" t="s">
         <v>3551</v>
       </c>
@@ -43237,7 +43321,7 @@
       <c r="Y586" s="2"/>
       <c r="Z586" s="2"/>
     </row>
-    <row r="587" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:26" ht="31.5" customHeight="1">
       <c r="A587" s="2" t="s">
         <v>3555</v>
       </c>
@@ -43279,7 +43363,7 @@
       <c r="Y587" s="2"/>
       <c r="Z587" s="2"/>
     </row>
-    <row r="588" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:26" ht="63" customHeight="1">
       <c r="A588" s="2" t="s">
         <v>3562</v>
       </c>
@@ -43321,7 +43405,7 @@
       <c r="Y588" s="2"/>
       <c r="Z588" s="2"/>
     </row>
-    <row r="589" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:26" ht="15.75" customHeight="1">
       <c r="A589" s="2" t="s">
         <v>3569</v>
       </c>
@@ -43363,7 +43447,7 @@
       <c r="Y589" s="2"/>
       <c r="Z589" s="2"/>
     </row>
-    <row r="590" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:26" ht="15.75" customHeight="1">
       <c r="A590" s="2" t="s">
         <v>3575</v>
       </c>
@@ -43405,7 +43489,7 @@
       <c r="Y590" s="2"/>
       <c r="Z590" s="2"/>
     </row>
-    <row r="591" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:26" ht="15.75" customHeight="1">
       <c r="A591" s="2" t="s">
         <v>3582</v>
       </c>
@@ -43447,7 +43531,7 @@
       <c r="Y591" s="2"/>
       <c r="Z591" s="2"/>
     </row>
-    <row r="592" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:26" ht="15.75" customHeight="1">
       <c r="A592" s="2" t="s">
         <v>3589</v>
       </c>
@@ -43489,7 +43573,7 @@
       <c r="Y592" s="2"/>
       <c r="Z592" s="2"/>
     </row>
-    <row r="593" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:26" ht="15.75" customHeight="1">
       <c r="A593" s="2" t="s">
         <v>3596</v>
       </c>
@@ -43531,7 +43615,7 @@
       <c r="Y593" s="2"/>
       <c r="Z593" s="2"/>
     </row>
-    <row r="594" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:26" ht="15.75" customHeight="1">
       <c r="A594" s="2" t="s">
         <v>3603</v>
       </c>
@@ -43573,7 +43657,7 @@
       <c r="Y594" s="2"/>
       <c r="Z594" s="2"/>
     </row>
-    <row r="595" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:26" ht="31.5" customHeight="1">
       <c r="A595" s="2" t="s">
         <v>3608</v>
       </c>
@@ -43615,7 +43699,7 @@
       <c r="Y595" s="2"/>
       <c r="Z595" s="2"/>
     </row>
-    <row r="596" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:26" ht="15.75" customHeight="1">
       <c r="A596" s="2" t="s">
         <v>3615</v>
       </c>
@@ -43657,7 +43741,7 @@
       <c r="Y596" s="2"/>
       <c r="Z596" s="2"/>
     </row>
-    <row r="597" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:26" ht="15.75" customHeight="1">
       <c r="A597" s="2" t="s">
         <v>3619</v>
       </c>
@@ -43699,7 +43783,7 @@
       <c r="Y597" s="2"/>
       <c r="Z597" s="2"/>
     </row>
-    <row r="598" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:26" ht="15.75" customHeight="1">
       <c r="A598" s="2" t="s">
         <v>3626</v>
       </c>
@@ -43741,7 +43825,7 @@
       <c r="Y598" s="2"/>
       <c r="Z598" s="2"/>
     </row>
-    <row r="599" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:26" ht="15.75" customHeight="1">
       <c r="A599" s="2" t="s">
         <v>3631</v>
       </c>
@@ -43783,7 +43867,7 @@
       <c r="Y599" s="2"/>
       <c r="Z599" s="2"/>
     </row>
-    <row r="600" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:26" ht="15.75" customHeight="1">
       <c r="A600" s="2" t="s">
         <v>3638</v>
       </c>
@@ -43825,7 +43909,7 @@
       <c r="Y600" s="2"/>
       <c r="Z600" s="2"/>
     </row>
-    <row r="601" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:26" ht="15.75" customHeight="1">
       <c r="A601" s="2" t="s">
         <v>3644</v>
       </c>
@@ -43867,7 +43951,7 @@
       <c r="Y601" s="2"/>
       <c r="Z601" s="2"/>
     </row>
-    <row r="602" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:26" ht="47.25" customHeight="1">
       <c r="A602" s="2" t="s">
         <v>3651</v>
       </c>
@@ -43909,7 +43993,7 @@
       <c r="Y602" s="2"/>
       <c r="Z602" s="2"/>
     </row>
-    <row r="603" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:26" ht="15.75" customHeight="1">
       <c r="A603" s="2" t="s">
         <v>3658</v>
       </c>
@@ -43951,7 +44035,7 @@
       <c r="Y603" s="2"/>
       <c r="Z603" s="2"/>
     </row>
-    <row r="604" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:26" ht="15.75" customHeight="1">
       <c r="A604" s="2" t="s">
         <v>3664</v>
       </c>
@@ -43993,7 +44077,7 @@
       <c r="Y604" s="2"/>
       <c r="Z604" s="2"/>
     </row>
-    <row r="605" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:26" ht="15.75" customHeight="1">
       <c r="A605" s="2" t="s">
         <v>3671</v>
       </c>
@@ -44035,7 +44119,7 @@
       <c r="Y605" s="2"/>
       <c r="Z605" s="2"/>
     </row>
-    <row r="606" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:26" ht="15.75" customHeight="1">
       <c r="A606" s="2" t="s">
         <v>3676</v>
       </c>
@@ -44077,7 +44161,7 @@
       <c r="Y606" s="2"/>
       <c r="Z606" s="2"/>
     </row>
-    <row r="607" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:26" ht="15.75" customHeight="1">
       <c r="A607" s="2" t="s">
         <v>3681</v>
       </c>
@@ -44119,7 +44203,7 @@
       <c r="Y607" s="2"/>
       <c r="Z607" s="2"/>
     </row>
-    <row r="608" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:26" ht="47.25" customHeight="1">
       <c r="A608" s="2" t="s">
         <v>3688</v>
       </c>
@@ -44161,7 +44245,7 @@
       <c r="Y608" s="2"/>
       <c r="Z608" s="2"/>
     </row>
-    <row r="609" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:26" ht="31.5" customHeight="1">
       <c r="A609" s="2" t="s">
         <v>3695</v>
       </c>
@@ -44203,7 +44287,7 @@
       <c r="Y609" s="2"/>
       <c r="Z609" s="2"/>
     </row>
-    <row r="610" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:26" ht="31.5" customHeight="1">
       <c r="A610" s="2" t="s">
         <v>3702</v>
       </c>
@@ -44245,7 +44329,7 @@
       <c r="Y610" s="2"/>
       <c r="Z610" s="2"/>
     </row>
-    <row r="611" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:26" ht="15.75" customHeight="1">
       <c r="A611" s="2" t="s">
         <v>3709</v>
       </c>
@@ -44287,7 +44371,7 @@
       <c r="Y611" s="2"/>
       <c r="Z611" s="2"/>
     </row>
-    <row r="612" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:26" ht="15.75" customHeight="1">
       <c r="A612" s="2" t="s">
         <v>3716</v>
       </c>
@@ -44329,7 +44413,7 @@
       <c r="Y612" s="2"/>
       <c r="Z612" s="2"/>
     </row>
-    <row r="613" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:26" ht="15.75" customHeight="1">
       <c r="A613" s="2" t="s">
         <v>3723</v>
       </c>
@@ -44371,7 +44455,7 @@
       <c r="Y613" s="2"/>
       <c r="Z613" s="2"/>
     </row>
-    <row r="614" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:26" ht="15.75" customHeight="1">
       <c r="A614" s="2" t="s">
         <v>3730</v>
       </c>
@@ -44413,7 +44497,7 @@
       <c r="Y614" s="2"/>
       <c r="Z614" s="2"/>
     </row>
-    <row r="615" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:26" ht="15.75" customHeight="1">
       <c r="A615" s="2" t="s">
         <v>3737</v>
       </c>
@@ -44455,7 +44539,7 @@
       <c r="Y615" s="2"/>
       <c r="Z615" s="2"/>
     </row>
-    <row r="616" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:26" ht="15.75" customHeight="1">
       <c r="A616" s="4" t="s">
         <v>3744</v>
       </c>
@@ -44497,7 +44581,7 @@
       <c r="Y616" s="2"/>
       <c r="Z616" s="2"/>
     </row>
-    <row r="617" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:26" ht="15.75" customHeight="1">
       <c r="A617" s="2" t="s">
         <v>3751</v>
       </c>
@@ -44539,7 +44623,7 @@
       <c r="Y617" s="2"/>
       <c r="Z617" s="2"/>
     </row>
-    <row r="618" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:26" ht="15.75" customHeight="1">
       <c r="A618" s="2" t="s">
         <v>3755</v>
       </c>
@@ -44581,7 +44665,7 @@
       <c r="Y618" s="2"/>
       <c r="Z618" s="2"/>
     </row>
-    <row r="619" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:26" ht="15.75" customHeight="1">
       <c r="A619" s="2" t="s">
         <v>3759</v>
       </c>
@@ -44623,7 +44707,7 @@
       <c r="Y619" s="2"/>
       <c r="Z619" s="2"/>
     </row>
-    <row r="620" spans="1:26" ht="204.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:26" ht="204.75" customHeight="1">
       <c r="A620" s="2" t="s">
         <v>3763</v>
       </c>
@@ -44665,7 +44749,7 @@
       <c r="Y620" s="2"/>
       <c r="Z620" s="2"/>
     </row>
-    <row r="621" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:26" ht="31.5" customHeight="1">
       <c r="A621" s="2" t="s">
         <v>3768</v>
       </c>
@@ -44707,7 +44791,7 @@
       <c r="Y621" s="2"/>
       <c r="Z621" s="2"/>
     </row>
-    <row r="622" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:26" ht="15.75" customHeight="1">
       <c r="A622" s="2" t="s">
         <v>3774</v>
       </c>
@@ -44749,7 +44833,7 @@
       <c r="Y622" s="2"/>
       <c r="Z622" s="2"/>
     </row>
-    <row r="623" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:26" ht="15.75" customHeight="1">
       <c r="A623" s="2" t="s">
         <v>3781</v>
       </c>
@@ -44791,7 +44875,7 @@
       <c r="Y623" s="2"/>
       <c r="Z623" s="2"/>
     </row>
-    <row r="624" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:26" ht="31.5" customHeight="1">
       <c r="A624" s="2" t="s">
         <v>3788</v>
       </c>
@@ -44833,7 +44917,7 @@
       <c r="Y624" s="2"/>
       <c r="Z624" s="2"/>
     </row>
-    <row r="625" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:26" ht="15.75" customHeight="1">
       <c r="A625" s="2" t="s">
         <v>3795</v>
       </c>
@@ -44875,7 +44959,7 @@
       <c r="Y625" s="2"/>
       <c r="Z625" s="2"/>
     </row>
-    <row r="626" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:26" ht="15.75" customHeight="1">
       <c r="A626" s="2" t="s">
         <v>3801</v>
       </c>
@@ -44917,7 +45001,7 @@
       <c r="Y626" s="2"/>
       <c r="Z626" s="2"/>
     </row>
-    <row r="627" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:26" ht="15.75" customHeight="1">
       <c r="A627" s="2" t="s">
         <v>3808</v>
       </c>
@@ -44959,7 +45043,7 @@
       <c r="Y627" s="2"/>
       <c r="Z627" s="2"/>
     </row>
-    <row r="628" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:26" ht="15.75" customHeight="1">
       <c r="A628" s="2" t="s">
         <v>3815</v>
       </c>
@@ -45001,7 +45085,7 @@
       <c r="Y628" s="2"/>
       <c r="Z628" s="2"/>
     </row>
-    <row r="629" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:26" ht="15.75" customHeight="1">
       <c r="A629" s="2" t="s">
         <v>3822</v>
       </c>
@@ -45043,7 +45127,7 @@
       <c r="Y629" s="2"/>
       <c r="Z629" s="2"/>
     </row>
-    <row r="630" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:26" ht="15.75" customHeight="1">
       <c r="A630" s="2" t="s">
         <v>3829</v>
       </c>
@@ -45085,7 +45169,7 @@
       <c r="Y630" s="2"/>
       <c r="Z630" s="2"/>
     </row>
-    <row r="631" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:26" ht="15.75" customHeight="1">
       <c r="A631" s="2" t="s">
         <v>3834</v>
       </c>
@@ -45127,7 +45211,7 @@
       <c r="Y631" s="2"/>
       <c r="Z631" s="2"/>
     </row>
-    <row r="632" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:26" ht="15.75" customHeight="1">
       <c r="A632" s="2" t="s">
         <v>3838</v>
       </c>
@@ -45169,7 +45253,7 @@
       <c r="Y632" s="2"/>
       <c r="Z632" s="2"/>
     </row>
-    <row r="633" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:26" ht="15.75" customHeight="1">
       <c r="A633" s="2" t="s">
         <v>3844</v>
       </c>
@@ -45211,7 +45295,7 @@
       <c r="Y633" s="2"/>
       <c r="Z633" s="2"/>
     </row>
-    <row r="634" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:26" ht="31.5" customHeight="1">
       <c r="A634" s="2" t="s">
         <v>3849</v>
       </c>
@@ -45253,7 +45337,7 @@
       <c r="Y634" s="2"/>
       <c r="Z634" s="2"/>
     </row>
-    <row r="635" spans="1:26" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:26" ht="126" customHeight="1">
       <c r="A635" s="2" t="s">
         <v>3855</v>
       </c>
@@ -45295,7 +45379,7 @@
       <c r="Y635" s="2"/>
       <c r="Z635" s="2"/>
     </row>
-    <row r="636" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:26" ht="31.5" customHeight="1">
       <c r="A636" s="2" t="s">
         <v>3861</v>
       </c>
@@ -45337,7 +45421,7 @@
       <c r="Y636" s="2"/>
       <c r="Z636" s="2"/>
     </row>
-    <row r="637" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:26" ht="15.75" customHeight="1">
       <c r="A637" s="2" t="s">
         <v>3864</v>
       </c>
@@ -45379,7 +45463,7 @@
       <c r="Y637" s="2"/>
       <c r="Z637" s="2"/>
     </row>
-    <row r="638" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:26" ht="15.75" customHeight="1">
       <c r="A638" s="2" t="s">
         <v>3869</v>
       </c>
@@ -45421,7 +45505,7 @@
       <c r="Y638" s="2"/>
       <c r="Z638" s="2"/>
     </row>
-    <row r="639" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:26" ht="15.75" customHeight="1">
       <c r="A639" s="4" t="s">
         <v>3876</v>
       </c>
@@ -45463,7 +45547,7 @@
       <c r="Y639" s="2"/>
       <c r="Z639" s="2"/>
     </row>
-    <row r="640" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:26" ht="15.75" customHeight="1">
       <c r="A640" s="2" t="s">
         <v>3883</v>
       </c>
@@ -45505,7 +45589,7 @@
       <c r="Y640" s="2"/>
       <c r="Z640" s="2"/>
     </row>
-    <row r="641" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:26" ht="15.75" customHeight="1">
       <c r="A641" s="2" t="s">
         <v>3889</v>
       </c>
@@ -45547,7 +45631,7 @@
       <c r="Y641" s="2"/>
       <c r="Z641" s="2"/>
     </row>
-    <row r="642" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:26" ht="63" customHeight="1">
       <c r="A642" s="2" t="s">
         <v>3893</v>
       </c>
@@ -45589,7 +45673,7 @@
       <c r="Y642" s="2"/>
       <c r="Z642" s="2"/>
     </row>
-    <row r="643" spans="1:26" ht="141.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:26" ht="141.75" customHeight="1">
       <c r="A643" s="2" t="s">
         <v>3897</v>
       </c>
@@ -45631,7 +45715,7 @@
       <c r="Y643" s="2"/>
       <c r="Z643" s="2"/>
     </row>
-    <row r="644" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:26" ht="15.75" customHeight="1">
       <c r="A644" s="2" t="s">
         <v>3902</v>
       </c>
@@ -45673,7 +45757,7 @@
       <c r="Y644" s="2"/>
       <c r="Z644" s="2"/>
     </row>
-    <row r="645" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:26" ht="15.75" customHeight="1">
       <c r="A645" s="2" t="s">
         <v>3908</v>
       </c>
@@ -45715,7 +45799,7 @@
       <c r="Y645" s="2"/>
       <c r="Z645" s="2"/>
     </row>
-    <row r="646" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:26" ht="47.25" customHeight="1">
       <c r="A646" s="2" t="s">
         <v>3912</v>
       </c>
@@ -45757,7 +45841,7 @@
       <c r="Y646" s="2"/>
       <c r="Z646" s="2"/>
     </row>
-    <row r="647" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:26" ht="15.75" customHeight="1">
       <c r="A647" s="2" t="s">
         <v>3919</v>
       </c>
@@ -45799,7 +45883,7 @@
       <c r="Y647" s="2"/>
       <c r="Z647" s="2"/>
     </row>
-    <row r="648" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:26" ht="15.75" customHeight="1">
       <c r="A648" s="2" t="s">
         <v>3924</v>
       </c>
@@ -45841,7 +45925,7 @@
       <c r="Y648" s="2"/>
       <c r="Z648" s="2"/>
     </row>
-    <row r="649" spans="1:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:26" ht="94.5" customHeight="1">
       <c r="A649" s="2" t="s">
         <v>3930</v>
       </c>
@@ -45883,7 +45967,7 @@
       <c r="Y649" s="2"/>
       <c r="Z649" s="2"/>
     </row>
-    <row r="650" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:26" ht="15.75" customHeight="1">
       <c r="A650" s="2" t="s">
         <v>3935</v>
       </c>
@@ -45925,7 +46009,7 @@
       <c r="Y650" s="2"/>
       <c r="Z650" s="2"/>
     </row>
-    <row r="651" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:26" ht="31.5" customHeight="1">
       <c r="A651" s="2" t="s">
         <v>3942</v>
       </c>
@@ -45967,7 +46051,7 @@
       <c r="Y651" s="2"/>
       <c r="Z651" s="2"/>
     </row>
-    <row r="652" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:26" ht="31.5" customHeight="1">
       <c r="A652" s="2" t="s">
         <v>3949</v>
       </c>
@@ -46009,7 +46093,7 @@
       <c r="Y652" s="2"/>
       <c r="Z652" s="2"/>
     </row>
-    <row r="653" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:26" ht="15.75" customHeight="1">
       <c r="A653" s="2" t="s">
         <v>3956</v>
       </c>
@@ -46051,7 +46135,7 @@
       <c r="Y653" s="2"/>
       <c r="Z653" s="2"/>
     </row>
-    <row r="654" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:26" ht="15.75" customHeight="1">
       <c r="A654" s="2" t="s">
         <v>3963</v>
       </c>
@@ -46093,7 +46177,7 @@
       <c r="Y654" s="2"/>
       <c r="Z654" s="2"/>
     </row>
-    <row r="655" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:26" ht="31.5" customHeight="1">
       <c r="A655" s="2" t="s">
         <v>3969</v>
       </c>
@@ -46135,7 +46219,7 @@
       <c r="Y655" s="2"/>
       <c r="Z655" s="2"/>
     </row>
-    <row r="656" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:26" ht="15.75" customHeight="1">
       <c r="A656" s="2" t="s">
         <v>3976</v>
       </c>
@@ -46177,7 +46261,7 @@
       <c r="Y656" s="2"/>
       <c r="Z656" s="2"/>
     </row>
-    <row r="657" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:26" ht="15.75" customHeight="1">
       <c r="A657" s="2" t="s">
         <v>3982</v>
       </c>
@@ -46219,7 +46303,7 @@
       <c r="Y657" s="2"/>
       <c r="Z657" s="2"/>
     </row>
-    <row r="658" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:26" ht="47.25" customHeight="1">
       <c r="A658" s="2" t="s">
         <v>3988</v>
       </c>
@@ -46261,7 +46345,7 @@
       <c r="Y658" s="2"/>
       <c r="Z658" s="2"/>
     </row>
-    <row r="659" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:26" ht="31.5" customHeight="1">
       <c r="A659" s="2" t="s">
         <v>3993</v>
       </c>
@@ -46303,7 +46387,7 @@
       <c r="Y659" s="2"/>
       <c r="Z659" s="2"/>
     </row>
-    <row r="660" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:26" ht="63" customHeight="1">
       <c r="A660" s="2" t="s">
         <v>4000</v>
       </c>
@@ -46345,7 +46429,7 @@
       <c r="Y660" s="2"/>
       <c r="Z660" s="2"/>
     </row>
-    <row r="661" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:26" ht="31.5" customHeight="1">
       <c r="A661" s="2" t="s">
         <v>4006</v>
       </c>
@@ -46387,7 +46471,7 @@
       <c r="Y661" s="2"/>
       <c r="Z661" s="2"/>
     </row>
-    <row r="662" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:26" ht="31.5" customHeight="1">
       <c r="A662" s="2" t="s">
         <v>4012</v>
       </c>
@@ -46429,7 +46513,7 @@
       <c r="Y662" s="2"/>
       <c r="Z662" s="2"/>
     </row>
-    <row r="663" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:26" ht="47.25" customHeight="1">
       <c r="A663" s="2" t="s">
         <v>4018</v>
       </c>
@@ -46471,7 +46555,7 @@
       <c r="Y663" s="2"/>
       <c r="Z663" s="2"/>
     </row>
-    <row r="664" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:26" ht="31.5" customHeight="1">
       <c r="A664" s="2" t="s">
         <v>4024</v>
       </c>
@@ -46513,7 +46597,7 @@
       <c r="Y664" s="2"/>
       <c r="Z664" s="2"/>
     </row>
-    <row r="665" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:26" ht="63" customHeight="1">
       <c r="A665" s="2" t="s">
         <v>4031</v>
       </c>
@@ -46555,7 +46639,7 @@
       <c r="Y665" s="2"/>
       <c r="Z665" s="2"/>
     </row>
-    <row r="666" spans="1:26" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:26" ht="78.75" customHeight="1">
       <c r="A666" s="2" t="s">
         <v>4037</v>
       </c>
@@ -46597,7 +46681,7 @@
       <c r="Y666" s="2"/>
       <c r="Z666" s="2"/>
     </row>
-    <row r="667" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:26" ht="31.5" customHeight="1">
       <c r="A667" s="2" t="s">
         <v>4042</v>
       </c>
@@ -46639,7 +46723,7 @@
       <c r="Y667" s="2"/>
       <c r="Z667" s="2"/>
     </row>
-    <row r="668" spans="1:26" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:26" ht="126" customHeight="1">
       <c r="A668" s="2" t="s">
         <v>4048</v>
       </c>
@@ -46681,7 +46765,7 @@
       <c r="Y668" s="2"/>
       <c r="Z668" s="2"/>
     </row>
-    <row r="669" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:26" ht="63" customHeight="1">
       <c r="A669" s="2" t="s">
         <v>4052</v>
       </c>
@@ -46723,7 +46807,7 @@
       <c r="Y669" s="2"/>
       <c r="Z669" s="2"/>
     </row>
-    <row r="670" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:26" ht="31.5" customHeight="1">
       <c r="A670" s="2" t="s">
         <v>4055</v>
       </c>
@@ -46765,7 +46849,7 @@
       <c r="Y670" s="2"/>
       <c r="Z670" s="2"/>
     </row>
-    <row r="671" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:26" ht="31.5" customHeight="1">
       <c r="A671" s="2" t="s">
         <v>4058</v>
       </c>
@@ -46807,7 +46891,7 @@
       <c r="Y671" s="2"/>
       <c r="Z671" s="2"/>
     </row>
-    <row r="672" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:26" ht="31.5" customHeight="1">
       <c r="A672" s="2" t="s">
         <v>4065</v>
       </c>
@@ -46849,7 +46933,7 @@
       <c r="Y672" s="2"/>
       <c r="Z672" s="2"/>
     </row>
-    <row r="673" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:26" ht="31.5" customHeight="1">
       <c r="A673" s="2" t="s">
         <v>4071</v>
       </c>
@@ -46891,7 +46975,7 @@
       <c r="Y673" s="2"/>
       <c r="Z673" s="2"/>
     </row>
-    <row r="674" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:26" ht="31.5" customHeight="1">
       <c r="A674" s="2" t="s">
         <v>4076</v>
       </c>
@@ -46933,7 +47017,7 @@
       <c r="Y674" s="2"/>
       <c r="Z674" s="2"/>
     </row>
-    <row r="675" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:26" ht="31.5" customHeight="1">
       <c r="A675" s="2" t="s">
         <v>4082</v>
       </c>
@@ -46975,7 +47059,7 @@
       <c r="Y675" s="2"/>
       <c r="Z675" s="2"/>
     </row>
-    <row r="676" spans="1:26" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:26" ht="110.25" customHeight="1">
       <c r="A676" s="2" t="s">
         <v>5496</v>
       </c>
@@ -47017,7 +47101,7 @@
       <c r="Y676" s="2"/>
       <c r="Z676" s="2"/>
     </row>
-    <row r="677" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:26" ht="47.25" customHeight="1">
       <c r="A677" s="2" t="s">
         <v>4092</v>
       </c>
@@ -47059,7 +47143,7 @@
       <c r="Y677" s="2"/>
       <c r="Z677" s="2"/>
     </row>
-    <row r="678" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:26" ht="47.25" customHeight="1">
       <c r="A678" s="2" t="s">
         <v>4099</v>
       </c>
@@ -47101,7 +47185,7 @@
       <c r="Y678" s="2"/>
       <c r="Z678" s="2"/>
     </row>
-    <row r="679" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:26" ht="47.25" customHeight="1">
       <c r="A679" s="2" t="s">
         <v>4106</v>
       </c>
@@ -47143,7 +47227,7 @@
       <c r="Y679" s="2"/>
       <c r="Z679" s="2"/>
     </row>
-    <row r="680" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:26" ht="31.5" customHeight="1">
       <c r="A680" s="2" t="s">
         <v>4113</v>
       </c>
@@ -47185,7 +47269,7 @@
       <c r="Y680" s="2"/>
       <c r="Z680" s="2"/>
     </row>
-    <row r="681" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:26" ht="31.5" customHeight="1">
       <c r="A681" s="2" t="s">
         <v>4119</v>
       </c>
@@ -47227,7 +47311,7 @@
       <c r="Y681" s="2"/>
       <c r="Z681" s="2"/>
     </row>
-    <row r="682" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:26" ht="31.5" customHeight="1">
       <c r="A682" s="2" t="s">
         <v>4125</v>
       </c>
@@ -47269,7 +47353,7 @@
       <c r="Y682" s="2"/>
       <c r="Z682" s="2"/>
     </row>
-    <row r="683" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:26" ht="31.5" customHeight="1">
       <c r="A683" s="2" t="s">
         <v>4131</v>
       </c>
@@ -47311,7 +47395,7 @@
       <c r="Y683" s="2"/>
       <c r="Z683" s="2"/>
     </row>
-    <row r="684" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:26" ht="31.5" customHeight="1">
       <c r="A684" s="2" t="s">
         <v>4136</v>
       </c>
@@ -47353,7 +47437,7 @@
       <c r="Y684" s="2"/>
       <c r="Z684" s="2"/>
     </row>
-    <row r="685" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:26" ht="31.5" customHeight="1">
       <c r="A685" s="2" t="s">
         <v>4141</v>
       </c>
@@ -47395,7 +47479,7 @@
       <c r="Y685" s="2"/>
       <c r="Z685" s="2"/>
     </row>
-    <row r="686" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:26" ht="31.5" customHeight="1">
       <c r="A686" s="2" t="s">
         <v>4148</v>
       </c>
@@ -47437,7 +47521,7 @@
       <c r="Y686" s="2"/>
       <c r="Z686" s="2"/>
     </row>
-    <row r="687" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:26" ht="31.5" customHeight="1">
       <c r="A687" s="2" t="s">
         <v>4154</v>
       </c>
@@ -47479,7 +47563,7 @@
       <c r="Y687" s="2"/>
       <c r="Z687" s="2"/>
     </row>
-    <row r="688" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:26" ht="47.25" customHeight="1">
       <c r="A688" s="47" t="s">
         <v>4161</v>
       </c>
@@ -47521,7 +47605,7 @@
       <c r="Y688" s="2"/>
       <c r="Z688" s="2"/>
     </row>
-    <row r="689" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:26" ht="31.5" customHeight="1">
       <c r="A689" s="2" t="s">
         <v>4164</v>
       </c>
@@ -47563,7 +47647,7 @@
       <c r="Y689" s="2"/>
       <c r="Z689" s="2"/>
     </row>
-    <row r="690" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:26" ht="63" customHeight="1">
       <c r="A690" s="2" t="s">
         <v>4171</v>
       </c>
@@ -47605,7 +47689,7 @@
       <c r="Y690" s="2"/>
       <c r="Z690" s="2"/>
     </row>
-    <row r="691" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:26" ht="31.5" customHeight="1">
       <c r="A691" s="2" t="s">
         <v>4176</v>
       </c>
@@ -47647,7 +47731,7 @@
       <c r="Y691" s="2"/>
       <c r="Z691" s="2"/>
     </row>
-    <row r="692" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:26" ht="31.5" customHeight="1">
       <c r="A692" s="2" t="s">
         <v>4182</v>
       </c>
@@ -47689,7 +47773,7 @@
       <c r="Y692" s="2"/>
       <c r="Z692" s="2"/>
     </row>
-    <row r="693" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:26" ht="63" customHeight="1">
       <c r="A693" s="2" t="s">
         <v>4189</v>
       </c>
@@ -47731,7 +47815,7 @@
       <c r="Y693" s="2"/>
       <c r="Z693" s="2"/>
     </row>
-    <row r="694" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:26" ht="63" customHeight="1">
       <c r="A694" s="2" t="s">
         <v>4195</v>
       </c>
@@ -47773,7 +47857,7 @@
       <c r="Y694" s="2"/>
       <c r="Z694" s="2"/>
     </row>
-    <row r="695" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:26" ht="31.5" customHeight="1">
       <c r="A695" s="2" t="s">
         <v>4201</v>
       </c>
@@ -47815,7 +47899,7 @@
       <c r="Y695" s="2"/>
       <c r="Z695" s="2"/>
     </row>
-    <row r="696" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:26" ht="31.5" customHeight="1">
       <c r="A696" s="2" t="s">
         <v>4207</v>
       </c>
@@ -47857,7 +47941,7 @@
       <c r="Y696" s="2"/>
       <c r="Z696" s="2"/>
     </row>
-    <row r="697" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:26" ht="31.5" customHeight="1">
       <c r="A697" s="2" t="s">
         <v>4212</v>
       </c>
@@ -47899,7 +47983,7 @@
       <c r="Y697" s="2"/>
       <c r="Z697" s="2"/>
     </row>
-    <row r="698" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:26" ht="47.25" customHeight="1">
       <c r="A698" s="2" t="s">
         <v>4219</v>
       </c>
@@ -47941,7 +48025,7 @@
       <c r="Y698" s="2"/>
       <c r="Z698" s="2"/>
     </row>
-    <row r="699" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:26" ht="75" customHeight="1">
       <c r="A699" s="9" t="s">
         <v>4223</v>
       </c>
@@ -47983,7 +48067,7 @@
       <c r="Y699" s="13"/>
       <c r="Z699" s="13"/>
     </row>
-    <row r="700" spans="1:26" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:26" ht="409.5" customHeight="1">
       <c r="A700" s="14" t="s">
         <v>4230</v>
       </c>
@@ -48025,7 +48109,7 @@
       <c r="Y700" s="13"/>
       <c r="Z700" s="13"/>
     </row>
-    <row r="701" spans="1:26" ht="285" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:26" ht="285" customHeight="1">
       <c r="A701" s="14" t="s">
         <v>4235</v>
       </c>
@@ -48067,7 +48151,7 @@
       <c r="Y701" s="13"/>
       <c r="Z701" s="13"/>
     </row>
-    <row r="702" spans="1:26" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:26" ht="157.5" customHeight="1">
       <c r="A702" s="46" t="s">
         <v>4241</v>
       </c>
@@ -48114,7 +48198,7 @@
       <c r="Y702" s="13"/>
       <c r="Z702" s="13"/>
     </row>
-    <row r="703" spans="1:26" ht="300" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:26" ht="300" customHeight="1">
       <c r="A703" s="45" t="s">
         <v>4242</v>
       </c>
@@ -48156,7 +48240,7 @@
       <c r="Y703" s="13"/>
       <c r="Z703" s="13"/>
     </row>
-    <row r="704" spans="1:26" ht="345" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:26" ht="345" customHeight="1">
       <c r="A704" s="14" t="s">
         <v>4247</v>
       </c>
@@ -48198,7 +48282,7 @@
       <c r="Y704" s="13"/>
       <c r="Z704" s="13"/>
     </row>
-    <row r="705" spans="1:26" ht="405" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:26" ht="405" customHeight="1">
       <c r="A705" s="45" t="s">
         <v>4252</v>
       </c>
@@ -48240,7 +48324,7 @@
       <c r="Y705" s="13"/>
       <c r="Z705" s="13"/>
     </row>
-    <row r="706" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:26" ht="47.25" customHeight="1">
       <c r="A706" s="10" t="s">
         <v>4258</v>
       </c>
@@ -48282,7 +48366,7 @@
       <c r="Y706" s="13"/>
       <c r="Z706" s="13"/>
     </row>
-    <row r="707" spans="1:26" ht="345" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:26" ht="345" customHeight="1">
       <c r="A707" s="14" t="s">
         <v>4264</v>
       </c>
@@ -48324,7 +48408,7 @@
       <c r="Y707" s="13"/>
       <c r="Z707" s="13"/>
     </row>
-    <row r="708" spans="1:26" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:26" ht="180" customHeight="1">
       <c r="A708" s="14" t="s">
         <v>4269</v>
       </c>
@@ -48366,7 +48450,7 @@
       <c r="Y708" s="13"/>
       <c r="Z708" s="13"/>
     </row>
-    <row r="709" spans="1:26" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:26" ht="409.5" customHeight="1">
       <c r="A709" s="14" t="s">
         <v>4274</v>
       </c>
@@ -48408,7 +48492,7 @@
       <c r="Y709" s="13"/>
       <c r="Z709" s="13"/>
     </row>
-    <row r="710" spans="1:26" ht="300" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:26" ht="300" customHeight="1">
       <c r="A710" s="14" t="s">
         <v>4280</v>
       </c>
@@ -48450,7 +48534,7 @@
       <c r="Y710" s="13"/>
       <c r="Z710" s="13"/>
     </row>
-    <row r="711" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:26" ht="31.5" customHeight="1">
       <c r="A711" s="23" t="s">
         <v>4285</v>
       </c>
@@ -48492,7 +48576,7 @@
       <c r="Y711" s="13"/>
       <c r="Z711" s="13"/>
     </row>
-    <row r="712" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:26" ht="105" customHeight="1">
       <c r="A712" s="24" t="s">
         <v>4292</v>
       </c>
@@ -48534,7 +48618,7 @@
       <c r="Y712" s="13"/>
       <c r="Z712" s="13"/>
     </row>
-    <row r="713" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:26" ht="75" customHeight="1">
       <c r="A713" s="24" t="s">
         <v>4299</v>
       </c>
@@ -48576,7 +48660,7 @@
       <c r="Y713" s="13"/>
       <c r="Z713" s="13"/>
     </row>
-    <row r="714" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:26" ht="90" customHeight="1">
       <c r="A714" s="24" t="s">
         <v>4305</v>
       </c>
@@ -48618,7 +48702,7 @@
       <c r="Y714" s="13"/>
       <c r="Z714" s="13"/>
     </row>
-    <row r="715" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:26" ht="120" customHeight="1">
       <c r="A715" s="24" t="s">
         <v>4311</v>
       </c>
@@ -48660,7 +48744,7 @@
       <c r="Y715" s="13"/>
       <c r="Z715" s="13"/>
     </row>
-    <row r="716" spans="1:26" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:26" ht="78.75" customHeight="1">
       <c r="A716" s="24" t="s">
         <v>4318</v>
       </c>
@@ -48707,7 +48791,7 @@
       <c r="Y716" s="13"/>
       <c r="Z716" s="13"/>
     </row>
-    <row r="717" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:26" ht="47.25" customHeight="1">
       <c r="A717" s="10" t="s">
         <v>4319</v>
       </c>
@@ -48749,7 +48833,7 @@
       <c r="Y717" s="13"/>
       <c r="Z717" s="13"/>
     </row>
-    <row r="718" spans="1:26" ht="210" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:26" ht="210" customHeight="1">
       <c r="A718" s="14" t="s">
         <v>4326</v>
       </c>
@@ -48791,7 +48875,7 @@
       <c r="Y718" s="13"/>
       <c r="Z718" s="13"/>
     </row>
-    <row r="719" spans="1:26" ht="315" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:26" ht="315" customHeight="1">
       <c r="A719" s="14" t="s">
         <v>4332</v>
       </c>
@@ -48833,7 +48917,7 @@
       <c r="Y719" s="13"/>
       <c r="Z719" s="13"/>
     </row>
-    <row r="720" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:26" ht="31.5" customHeight="1">
       <c r="A720" s="10" t="s">
         <v>4338</v>
       </c>
@@ -48875,7 +48959,7 @@
       <c r="Y720" s="13"/>
       <c r="Z720" s="13"/>
     </row>
-    <row r="721" spans="1:26" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:26" ht="409.5" customHeight="1">
       <c r="A721" s="45" t="s">
         <v>4345</v>
       </c>
@@ -48917,7 +49001,7 @@
       <c r="Y721" s="13"/>
       <c r="Z721" s="13"/>
     </row>
-    <row r="722" spans="1:26" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:26" ht="409.5" customHeight="1">
       <c r="A722" s="45" t="s">
         <v>4349</v>
       </c>
@@ -48959,7 +49043,7 @@
       <c r="Y722" s="13"/>
       <c r="Z722" s="13"/>
     </row>
-    <row r="723" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:26" ht="15.75" customHeight="1">
       <c r="A723" s="10" t="s">
         <v>4354</v>
       </c>
@@ -49001,7 +49085,7 @@
       <c r="Y723" s="13"/>
       <c r="Z723" s="13"/>
     </row>
-    <row r="724" spans="1:26" ht="240" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:26" ht="240" customHeight="1">
       <c r="A724" s="45" t="s">
         <v>4360</v>
       </c>
@@ -49043,7 +49127,7 @@
       <c r="Y724" s="13"/>
       <c r="Z724" s="13"/>
     </row>
-    <row r="725" spans="1:26" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:26" ht="195" customHeight="1">
       <c r="A725" s="14" t="s">
         <v>4364</v>
       </c>
@@ -49085,7 +49169,7 @@
       <c r="Y725" s="13"/>
       <c r="Z725" s="13"/>
     </row>
-    <row r="726" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:26" ht="75" customHeight="1">
       <c r="A726" s="11" t="s">
         <v>4370</v>
       </c>
@@ -49127,7 +49211,7 @@
       <c r="Y726" s="13"/>
       <c r="Z726" s="13"/>
     </row>
-    <row r="727" spans="1:26" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:26" ht="180" customHeight="1">
       <c r="A727" s="14" t="s">
         <v>4376</v>
       </c>
@@ -49169,7 +49253,7 @@
       <c r="Y727" s="13"/>
       <c r="Z727" s="13"/>
     </row>
-    <row r="728" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:26" ht="120" customHeight="1">
       <c r="A728" s="14" t="s">
         <v>4381</v>
       </c>
@@ -49211,7 +49295,7 @@
       <c r="Y728" s="13"/>
       <c r="Z728" s="13"/>
     </row>
-    <row r="729" spans="1:26" ht="240" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:26" ht="240" customHeight="1">
       <c r="A729" s="14" t="s">
         <v>4387</v>
       </c>
@@ -49253,7 +49337,7 @@
       <c r="Y729" s="13"/>
       <c r="Z729" s="13"/>
     </row>
-    <row r="730" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:26" ht="105" customHeight="1">
       <c r="A730" s="14" t="s">
         <v>4393</v>
       </c>
@@ -49295,7 +49379,7 @@
       <c r="Y730" s="13"/>
       <c r="Z730" s="13"/>
     </row>
-    <row r="731" spans="1:26" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:26" ht="17.25" customHeight="1">
       <c r="A731" s="10" t="s">
         <v>4399</v>
       </c>
@@ -49337,7 +49421,7 @@
       <c r="Y731" s="13"/>
       <c r="Z731" s="13"/>
     </row>
-    <row r="732" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:26" ht="105" customHeight="1">
       <c r="A732" s="14" t="s">
         <v>4406</v>
       </c>
@@ -49379,7 +49463,7 @@
       <c r="Y732" s="13"/>
       <c r="Z732" s="13"/>
     </row>
-    <row r="733" spans="1:26" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:26" ht="150" customHeight="1">
       <c r="A733" s="14" t="s">
         <v>4413</v>
       </c>
@@ -49421,7 +49505,7 @@
       <c r="Y733" s="13"/>
       <c r="Z733" s="13"/>
     </row>
-    <row r="734" spans="1:26" ht="330" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:26" ht="330" customHeight="1">
       <c r="A734" s="14" t="s">
         <v>4420</v>
       </c>
@@ -49463,7 +49547,7 @@
       <c r="Y734" s="13"/>
       <c r="Z734" s="13"/>
     </row>
-    <row r="735" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:26" ht="60" customHeight="1">
       <c r="A735" s="14" t="s">
         <v>4426</v>
       </c>
@@ -49505,7 +49589,7 @@
       <c r="Y735" s="13"/>
       <c r="Z735" s="13"/>
     </row>
-    <row r="736" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:26" ht="31.5" customHeight="1">
       <c r="A736" s="10" t="s">
         <v>4433</v>
       </c>
@@ -49547,7 +49631,7 @@
       <c r="Y736" s="13"/>
       <c r="Z736" s="13"/>
     </row>
-    <row r="737" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:26" ht="75" customHeight="1">
       <c r="A737" s="14" t="s">
         <v>4440</v>
       </c>
@@ -49589,7 +49673,7 @@
       <c r="Y737" s="13"/>
       <c r="Z737" s="13"/>
     </row>
-    <row r="738" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:26" ht="31.5" customHeight="1">
       <c r="A738" s="10" t="s">
         <v>4447</v>
       </c>
@@ -49631,7 +49715,7 @@
       <c r="Y738" s="13"/>
       <c r="Z738" s="13"/>
     </row>
-    <row r="739" spans="1:26" ht="240" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:26" ht="240" customHeight="1">
       <c r="A739" s="14" t="s">
         <v>4454</v>
       </c>
@@ -49673,7 +49757,7 @@
       <c r="Y739" s="13"/>
       <c r="Z739" s="13"/>
     </row>
-    <row r="740" spans="1:26" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:26" ht="150" customHeight="1">
       <c r="A740" s="14" t="s">
         <v>4461</v>
       </c>
@@ -49715,7 +49799,7 @@
       <c r="Y740" s="13"/>
       <c r="Z740" s="13"/>
     </row>
-    <row r="741" spans="1:26" ht="210" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:26" ht="210" customHeight="1">
       <c r="A741" s="14" t="s">
         <v>4468</v>
       </c>
@@ -49757,7 +49841,7 @@
       <c r="Y741" s="13"/>
       <c r="Z741" s="13"/>
     </row>
-    <row r="742" spans="1:26" ht="375" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:26" ht="375" customHeight="1">
       <c r="A742" s="14" t="s">
         <v>4475</v>
       </c>
@@ -49799,7 +49883,7 @@
       <c r="Y742" s="13"/>
       <c r="Z742" s="13"/>
     </row>
-    <row r="743" spans="1:26" ht="300" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:26" ht="300" customHeight="1">
       <c r="A743" s="14" t="s">
         <v>4482</v>
       </c>
@@ -49841,7 +49925,7 @@
       <c r="Y743" s="13"/>
       <c r="Z743" s="13"/>
     </row>
-    <row r="744" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:26" ht="31.5" customHeight="1">
       <c r="A744" s="10" t="s">
         <v>4489</v>
       </c>
@@ -49883,7 +49967,7 @@
       <c r="Y744" s="13"/>
       <c r="Z744" s="13"/>
     </row>
-    <row r="745" spans="1:26" ht="405" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:26" ht="405" customHeight="1">
       <c r="A745" s="14" t="s">
         <v>4496</v>
       </c>
@@ -49925,7 +50009,7 @@
       <c r="Y745" s="13"/>
       <c r="Z745" s="13"/>
     </row>
-    <row r="746" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:26" ht="31.5" customHeight="1">
       <c r="A746" s="10" t="s">
         <v>4503</v>
       </c>
@@ -49967,7 +50051,7 @@
       <c r="Y746" s="13"/>
       <c r="Z746" s="13"/>
     </row>
-    <row r="747" spans="1:26" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:26" ht="409.5" customHeight="1">
       <c r="A747" s="14" t="s">
         <v>4510</v>
       </c>
@@ -50009,7 +50093,7 @@
       <c r="Y747" s="13"/>
       <c r="Z747" s="13"/>
     </row>
-    <row r="748" spans="1:26" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:26" ht="409.5" customHeight="1">
       <c r="A748" s="14" t="s">
         <v>4515</v>
       </c>
@@ -50051,7 +50135,7 @@
       <c r="Y748" s="13"/>
       <c r="Z748" s="13"/>
     </row>
-    <row r="749" spans="1:26" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:26" ht="409.5" customHeight="1">
       <c r="A749" s="14" t="s">
         <v>4521</v>
       </c>
@@ -50093,7 +50177,7 @@
       <c r="Y749" s="13"/>
       <c r="Z749" s="13"/>
     </row>
-    <row r="750" spans="1:26" ht="360" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:26" ht="360" customHeight="1">
       <c r="A750" s="14" t="s">
         <v>4528</v>
       </c>
@@ -50135,7 +50219,7 @@
       <c r="Y750" s="13"/>
       <c r="Z750" s="13"/>
     </row>
-    <row r="751" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:26" ht="47.25" customHeight="1">
       <c r="A751" s="10" t="s">
         <v>4535</v>
       </c>
@@ -50177,7 +50261,7 @@
       <c r="Y751" s="13"/>
       <c r="Z751" s="13"/>
     </row>
-    <row r="752" spans="1:26" ht="210" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:26" ht="210" customHeight="1">
       <c r="A752" s="14" t="s">
         <v>4542</v>
       </c>
@@ -50219,7 +50303,7 @@
       <c r="Y752" s="13"/>
       <c r="Z752" s="13"/>
     </row>
-    <row r="753" spans="1:26" ht="330" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:26" ht="330" customHeight="1">
       <c r="A753" s="14" t="s">
         <v>4548</v>
       </c>
@@ -50261,7 +50345,7 @@
       <c r="Y753" s="13"/>
       <c r="Z753" s="13"/>
     </row>
-    <row r="754" spans="1:26" ht="315" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:26" ht="315" customHeight="1">
       <c r="A754" s="14" t="s">
         <v>4555</v>
       </c>
@@ -50303,7 +50387,7 @@
       <c r="Y754" s="13"/>
       <c r="Z754" s="13"/>
     </row>
-    <row r="755" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:26" ht="47.25" customHeight="1">
       <c r="A755" s="10" t="s">
         <v>4562</v>
       </c>
@@ -50345,7 +50429,7 @@
       <c r="Y755" s="13"/>
       <c r="Z755" s="13"/>
     </row>
-    <row r="756" spans="1:26" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:26" ht="409.5" customHeight="1">
       <c r="A756" s="14" t="s">
         <v>4569</v>
       </c>
@@ -50387,7 +50471,7 @@
       <c r="Y756" s="13"/>
       <c r="Z756" s="13"/>
     </row>
-    <row r="757" spans="1:26" ht="210" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:26" ht="210" customHeight="1">
       <c r="A757" s="14" t="s">
         <v>4575</v>
       </c>
@@ -50429,7 +50513,7 @@
       <c r="Y757" s="13"/>
       <c r="Z757" s="13"/>
     </row>
-    <row r="758" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:26" ht="47.25" customHeight="1">
       <c r="A758" s="10" t="s">
         <v>4582</v>
       </c>
@@ -50471,7 +50555,7 @@
       <c r="Y758" s="13"/>
       <c r="Z758" s="13"/>
     </row>
-    <row r="759" spans="1:26" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:26" ht="180" customHeight="1">
       <c r="A759" s="14" t="s">
         <v>4589</v>
       </c>
@@ -50513,7 +50597,7 @@
       <c r="Y759" s="13"/>
       <c r="Z759" s="13"/>
     </row>
-    <row r="760" spans="1:26" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:26" ht="180" customHeight="1">
       <c r="A760" s="14" t="s">
         <v>4596</v>
       </c>
@@ -50555,7 +50639,7 @@
       <c r="Y760" s="13"/>
       <c r="Z760" s="13"/>
     </row>
-    <row r="761" spans="1:26" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:26" ht="195" customHeight="1">
       <c r="A761" s="14" t="s">
         <v>4603</v>
       </c>
@@ -50597,7 +50681,7 @@
       <c r="Y761" s="13"/>
       <c r="Z761" s="13"/>
     </row>
-    <row r="762" spans="1:26" ht="390" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:26" ht="390" customHeight="1">
       <c r="A762" s="14" t="s">
         <v>4610</v>
       </c>
@@ -50639,7 +50723,7 @@
       <c r="Y762" s="13"/>
       <c r="Z762" s="13"/>
     </row>
-    <row r="763" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:26" ht="47.25" customHeight="1">
       <c r="A763" s="10" t="s">
         <v>4617</v>
       </c>
@@ -50681,7 +50765,7 @@
       <c r="Y763" s="13"/>
       <c r="Z763" s="13"/>
     </row>
-    <row r="764" spans="1:26" ht="360" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:26" ht="360" customHeight="1">
       <c r="A764" s="14" t="s">
         <v>4624</v>
       </c>
@@ -50723,7 +50807,7 @@
       <c r="Y764" s="13"/>
       <c r="Z764" s="13"/>
     </row>
-    <row r="765" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:26" ht="63" customHeight="1">
       <c r="A765" s="10" t="s">
         <v>4631</v>
       </c>
@@ -50765,7 +50849,7 @@
       <c r="Y765" s="13"/>
       <c r="Z765" s="13"/>
     </row>
-    <row r="766" spans="1:26" ht="225" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:26" ht="225" customHeight="1">
       <c r="A766" s="14" t="s">
         <v>4638</v>
       </c>
@@ -50807,7 +50891,7 @@
       <c r="Y766" s="13"/>
       <c r="Z766" s="13"/>
     </row>
-    <row r="767" spans="1:26" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:26" ht="180" customHeight="1">
       <c r="A767" s="14" t="s">
         <v>4645</v>
       </c>
@@ -50849,7 +50933,7 @@
       <c r="Y767" s="13"/>
       <c r="Z767" s="13"/>
     </row>
-    <row r="768" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:26" ht="135" customHeight="1">
       <c r="A768" s="14" t="s">
         <v>4652</v>
       </c>
@@ -50891,7 +50975,7 @@
       <c r="Y768" s="13"/>
       <c r="Z768" s="13"/>
     </row>
-    <row r="769" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:26" ht="47.25" customHeight="1">
       <c r="A769" s="10" t="s">
         <v>4658</v>
       </c>
@@ -50933,7 +51017,7 @@
       <c r="Y769" s="13"/>
       <c r="Z769" s="13"/>
     </row>
-    <row r="770" spans="1:26" ht="315" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:26" ht="315" customHeight="1">
       <c r="A770" s="14" t="s">
         <v>4665</v>
       </c>
@@ -50975,7 +51059,7 @@
       <c r="Y770" s="13"/>
       <c r="Z770" s="13"/>
     </row>
-    <row r="771" spans="1:26" ht="240" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:26" ht="240" customHeight="1">
       <c r="A771" s="14" t="s">
         <v>4672</v>
       </c>
@@ -51017,7 +51101,7 @@
       <c r="Y771" s="13"/>
       <c r="Z771" s="13"/>
     </row>
-    <row r="772" spans="1:26" ht="270" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:26" ht="270" customHeight="1">
       <c r="A772" s="14" t="s">
         <v>4679</v>
       </c>
@@ -51059,7 +51143,7 @@
       <c r="Y772" s="13"/>
       <c r="Z772" s="13"/>
     </row>
-    <row r="773" spans="1:26" ht="330" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:26" ht="330" customHeight="1">
       <c r="A773" s="14" t="s">
         <v>4686</v>
       </c>
@@ -51101,7 +51185,7 @@
       <c r="Y773" s="13"/>
       <c r="Z773" s="13"/>
     </row>
-    <row r="774" spans="1:26" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:26" ht="409.5" customHeight="1">
       <c r="A774" s="14" t="s">
         <v>4693</v>
       </c>
@@ -51143,7 +51227,7 @@
       <c r="Y774" s="13"/>
       <c r="Z774" s="13"/>
     </row>
-    <row r="775" spans="1:26" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:26" ht="47.25" customHeight="1">
       <c r="A775" s="10" t="s">
         <v>4700</v>
       </c>
@@ -51185,7 +51269,7 @@
       <c r="Y775" s="13"/>
       <c r="Z775" s="13"/>
     </row>
-    <row r="776" spans="1:26" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:26" ht="409.5" customHeight="1">
       <c r="A776" s="14" t="s">
         <v>4707</v>
       </c>
@@ -51227,7 +51311,7 @@
       <c r="Y776" s="13"/>
       <c r="Z776" s="13"/>
     </row>
-    <row r="777" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:26" ht="31.5" customHeight="1">
       <c r="A777" s="10" t="s">
         <v>4714</v>
       </c>
@@ -51269,7 +51353,7 @@
       <c r="Y777" s="13"/>
       <c r="Z777" s="13"/>
     </row>
-    <row r="778" spans="1:26" ht="409.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:26" ht="409.5" customHeight="1">
       <c r="A778" s="14" t="s">
         <v>4721</v>
       </c>
@@ -51311,7 +51395,7 @@
       <c r="Y778" s="13"/>
       <c r="Z778" s="13"/>
     </row>
-    <row r="779" spans="1:26" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:26" ht="37.5" customHeight="1">
       <c r="A779" s="10" t="s">
         <v>4727</v>
       </c>
@@ -51353,7 +51437,7 @@
       <c r="Y779" s="13"/>
       <c r="Z779" s="13"/>
     </row>
-    <row r="780" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:26" ht="30" customHeight="1">
       <c r="A780" s="10" t="s">
         <v>4732</v>
       </c>
@@ -51395,7 +51479,7 @@
       <c r="Y780" s="13"/>
       <c r="Z780" s="13"/>
     </row>
-    <row r="781" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:26" ht="105" customHeight="1">
       <c r="A781" s="32" t="s">
         <v>4738</v>
       </c>
@@ -51437,7 +51521,7 @@
       <c r="Y781" s="13"/>
       <c r="Z781" s="13"/>
     </row>
-    <row r="782" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:26" ht="135" customHeight="1">
       <c r="A782" s="32" t="s">
         <v>4745</v>
       </c>
@@ -51479,7 +51563,7 @@
       <c r="Y782" s="13"/>
       <c r="Z782" s="13"/>
     </row>
-    <row r="783" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:26" ht="75" customHeight="1">
       <c r="A783" s="32" t="s">
         <v>4752</v>
       </c>
@@ -51521,7 +51605,7 @@
       <c r="Y783" s="13"/>
       <c r="Z783" s="13"/>
     </row>
-    <row r="784" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:26" ht="75" customHeight="1">
       <c r="A784" s="32" t="s">
         <v>4759</v>
       </c>
@@ -51563,7 +51647,7 @@
       <c r="Y784" s="13"/>
       <c r="Z784" s="13"/>
     </row>
-    <row r="785" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:26" ht="120" customHeight="1">
       <c r="A785" s="32" t="s">
         <v>4766</v>
       </c>
@@ -51605,7 +51689,7 @@
       <c r="Y785" s="13"/>
       <c r="Z785" s="13"/>
     </row>
-    <row r="786" spans="1:26" ht="300" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:26" ht="300" customHeight="1">
       <c r="A786" s="32" t="s">
         <v>4773</v>
       </c>
@@ -51647,7 +51731,7 @@
       <c r="Y786" s="13"/>
       <c r="Z786" s="13"/>
     </row>
-    <row r="787" spans="1:26" ht="225" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:26" ht="225" customHeight="1">
       <c r="A787" s="32" t="s">
         <v>4779</v>
       </c>
@@ -51689,7 +51773,7 @@
       <c r="Y787" s="13"/>
       <c r="Z787" s="13"/>
     </row>
-    <row r="788" spans="1:26" ht="285" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:26" ht="285" customHeight="1">
       <c r="A788" s="32" t="s">
         <v>4785</v>
       </c>
@@ -51731,7 +51815,7 @@
       <c r="Y788" s="13"/>
       <c r="Z788" s="13"/>
     </row>
-    <row r="789" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:26" ht="15.75" customHeight="1">
       <c r="A789" s="32" t="s">
         <v>4791</v>
       </c>
@@ -51773,7 +51857,7 @@
       <c r="Y789" s="13"/>
       <c r="Z789" s="13"/>
     </row>
-    <row r="790" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:26" ht="120" customHeight="1">
       <c r="A790" s="32" t="s">
         <v>4797</v>
       </c>
@@ -51815,7 +51899,7 @@
       <c r="Y790" s="13"/>
       <c r="Z790" s="13"/>
     </row>
-    <row r="791" spans="1:26" ht="225" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:26" ht="225" customHeight="1">
       <c r="A791" s="32" t="s">
         <v>4803</v>
       </c>
@@ -51857,7 +51941,7 @@
       <c r="Y791" s="13"/>
       <c r="Z791" s="13"/>
     </row>
-    <row r="792" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:26" ht="120" customHeight="1">
       <c r="A792" s="32" t="s">
         <v>4810</v>
       </c>
@@ -51899,7 +51983,7 @@
       <c r="Y792" s="13"/>
       <c r="Z792" s="13"/>
     </row>
-    <row r="793" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:26" ht="105" customHeight="1">
       <c r="A793" s="32" t="s">
         <v>4817</v>
       </c>
@@ -51941,7 +52025,7 @@
       <c r="Y793" s="13"/>
       <c r="Z793" s="13"/>
     </row>
-    <row r="794" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:26" ht="15.75" customHeight="1">
       <c r="A794" s="32" t="s">
         <v>4824</v>
       </c>
@@ -51983,7 +52067,7 @@
       <c r="Y794" s="13"/>
       <c r="Z794" s="13"/>
     </row>
-    <row r="795" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:26" ht="75" customHeight="1">
       <c r="A795" s="44" t="s">
         <v>4830</v>
       </c>
@@ -52025,7 +52109,7 @@
       <c r="Y795" s="13"/>
       <c r="Z795" s="13"/>
     </row>
-    <row r="796" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:26" ht="105" customHeight="1">
       <c r="A796" s="32" t="s">
         <v>4836</v>
       </c>
@@ -52067,7 +52151,7 @@
       <c r="Y796" s="13"/>
       <c r="Z796" s="13"/>
     </row>
-    <row r="797" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:26" ht="15.75" customHeight="1">
       <c r="A797" s="13" t="s">
         <v>4843</v>
       </c>
@@ -52109,7 +52193,7 @@
       <c r="Y797" s="13"/>
       <c r="Z797" s="13"/>
     </row>
-    <row r="798" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:26" ht="75" customHeight="1">
       <c r="A798" s="44" t="s">
         <v>4848</v>
       </c>
@@ -52151,7 +52235,7 @@
       <c r="Y798" s="13"/>
       <c r="Z798" s="13"/>
     </row>
-    <row r="799" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:26" ht="75" customHeight="1">
       <c r="A799" s="32" t="s">
         <v>4854</v>
       </c>
@@ -52193,7 +52277,7 @@
       <c r="Y799" s="13"/>
       <c r="Z799" s="13"/>
     </row>
-    <row r="800" spans="1:26" ht="285" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:26" ht="285" customHeight="1">
       <c r="A800" s="32" t="s">
         <v>4861</v>
       </c>
@@ -52235,7 +52319,7 @@
       <c r="Y800" s="13"/>
       <c r="Z800" s="13"/>
     </row>
-    <row r="801" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:26" ht="60" customHeight="1">
       <c r="A801" s="32" t="s">
         <v>4868</v>
       </c>
@@ -52277,7 +52361,7 @@
       <c r="Y801" s="13"/>
       <c r="Z801" s="13"/>
     </row>
-    <row r="802" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:26" ht="90" customHeight="1">
       <c r="A802" s="32" t="s">
         <v>4875</v>
       </c>
@@ -52319,7 +52403,7 @@
       <c r="Y802" s="13"/>
       <c r="Z802" s="13"/>
     </row>
-    <row r="803" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:26" ht="45" customHeight="1">
       <c r="A803" s="13" t="s">
         <v>4882</v>
       </c>
@@ -52361,7 +52445,7 @@
       <c r="Y803" s="13"/>
       <c r="Z803" s="13"/>
     </row>
-    <row r="804" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:26" ht="45" customHeight="1">
       <c r="A804" s="32" t="s">
         <v>4889</v>
       </c>
@@ -52403,7 +52487,7 @@
       <c r="Y804" s="13"/>
       <c r="Z804" s="13"/>
     </row>
-    <row r="805" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:26" ht="90" customHeight="1">
       <c r="A805" s="32" t="s">
         <v>4895</v>
       </c>
@@ -52445,7 +52529,7 @@
       <c r="Y805" s="13"/>
       <c r="Z805" s="13"/>
     </row>
-    <row r="806" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:26" ht="90" customHeight="1">
       <c r="A806" s="32" t="s">
         <v>4902</v>
       </c>
@@ -52487,7 +52571,7 @@
       <c r="Y806" s="13"/>
       <c r="Z806" s="13"/>
     </row>
-    <row r="807" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:26" ht="75" customHeight="1">
       <c r="A807" s="32" t="s">
         <v>4908</v>
       </c>
@@ -52529,7 +52613,7 @@
       <c r="Y807" s="13"/>
       <c r="Z807" s="13"/>
     </row>
-    <row r="808" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:26" ht="30" customHeight="1">
       <c r="A808" s="32" t="s">
         <v>4915</v>
       </c>
@@ -52571,7 +52655,7 @@
       <c r="Y808" s="13"/>
       <c r="Z808" s="13"/>
     </row>
-    <row r="809" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:26" ht="60" customHeight="1">
       <c r="A809" s="32" t="s">
         <v>4922</v>
       </c>
@@ -52613,7 +52697,7 @@
       <c r="Y809" s="13"/>
       <c r="Z809" s="13"/>
     </row>
-    <row r="810" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:26" ht="75" customHeight="1">
       <c r="A810" s="32" t="s">
         <v>4929</v>
       </c>
@@ -52655,7 +52739,7 @@
       <c r="Y810" s="13"/>
       <c r="Z810" s="13"/>
     </row>
-    <row r="811" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:26" ht="75" customHeight="1">
       <c r="A811" s="32" t="s">
         <v>4936</v>
       </c>
@@ -52697,7 +52781,7 @@
       <c r="Y811" s="13"/>
       <c r="Z811" s="13"/>
     </row>
-    <row r="812" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:26" ht="60" customHeight="1">
       <c r="A812" s="32" t="s">
         <v>4943</v>
       </c>
@@ -52739,7 +52823,7 @@
       <c r="Y812" s="13"/>
       <c r="Z812" s="13"/>
     </row>
-    <row r="813" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:26" ht="75" customHeight="1">
       <c r="A813" s="32" t="s">
         <v>4950</v>
       </c>
@@ -52781,7 +52865,7 @@
       <c r="Y813" s="13"/>
       <c r="Z813" s="13"/>
     </row>
-    <row r="814" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:26" ht="60" customHeight="1">
       <c r="A814" s="32" t="s">
         <v>4957</v>
       </c>
@@ -52823,7 +52907,7 @@
       <c r="Y814" s="13"/>
       <c r="Z814" s="13"/>
     </row>
-    <row r="815" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:26" ht="45" customHeight="1">
       <c r="A815" s="32" t="s">
         <v>4963</v>
       </c>
@@ -52865,7 +52949,7 @@
       <c r="Y815" s="13"/>
       <c r="Z815" s="13"/>
     </row>
-    <row r="816" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:26" ht="105" customHeight="1">
       <c r="A816" s="32" t="s">
         <v>4969</v>
       </c>
@@ -52907,7 +52991,7 @@
       <c r="Y816" s="13"/>
       <c r="Z816" s="13"/>
     </row>
-    <row r="817" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:26" ht="105" customHeight="1">
       <c r="A817" s="32" t="s">
         <v>4976</v>
       </c>
@@ -52949,7 +53033,7 @@
       <c r="Y817" s="13"/>
       <c r="Z817" s="13"/>
     </row>
-    <row r="818" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:26" ht="60" customHeight="1">
       <c r="A818" s="32" t="s">
         <v>4982</v>
       </c>
@@ -52991,7 +53075,7 @@
       <c r="Y818" s="13"/>
       <c r="Z818" s="13"/>
     </row>
-    <row r="819" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:26" ht="60" customHeight="1">
       <c r="A819" s="32" t="s">
         <v>4989</v>
       </c>
@@ -53033,7 +53117,7 @@
       <c r="Y819" s="13"/>
       <c r="Z819" s="13"/>
     </row>
-    <row r="820" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:26" ht="105" customHeight="1">
       <c r="A820" s="32" t="s">
         <v>4996</v>
       </c>
@@ -53075,7 +53159,7 @@
       <c r="Y820" s="13"/>
       <c r="Z820" s="13"/>
     </row>
-    <row r="821" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:26" ht="90" customHeight="1">
       <c r="A821" s="32" t="s">
         <v>5003</v>
       </c>
@@ -53117,7 +53201,7 @@
       <c r="Y821" s="13"/>
       <c r="Z821" s="13"/>
     </row>
-    <row r="822" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:26" ht="120" customHeight="1">
       <c r="A822" s="32" t="s">
         <v>5009</v>
       </c>
@@ -53159,7 +53243,7 @@
       <c r="Y822" s="13"/>
       <c r="Z822" s="13"/>
     </row>
-    <row r="823" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:26" ht="120" customHeight="1">
       <c r="A823" s="32" t="s">
         <v>5016</v>
       </c>
@@ -53201,7 +53285,7 @@
       <c r="Y823" s="13"/>
       <c r="Z823" s="13"/>
     </row>
-    <row r="824" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:26" ht="15.75" customHeight="1">
       <c r="A824" s="10" t="s">
         <v>5023</v>
       </c>
@@ -53243,7 +53327,7 @@
       <c r="Y824" s="13"/>
       <c r="Z824" s="13"/>
     </row>
-    <row r="825" spans="1:26" ht="315" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:26" ht="315" customHeight="1">
       <c r="A825" s="32" t="s">
         <v>5027</v>
       </c>
@@ -53285,7 +53369,7 @@
       <c r="Y825" s="13"/>
       <c r="Z825" s="13"/>
     </row>
-    <row r="826" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:26" ht="90" customHeight="1">
       <c r="A826" s="32" t="s">
         <v>5033</v>
       </c>
@@ -53327,7 +53411,7 @@
       <c r="Y826" s="13"/>
       <c r="Z826" s="13"/>
     </row>
-    <row r="827" spans="1:26" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:26" ht="180" customHeight="1">
       <c r="A827" s="32" t="s">
         <v>5040</v>
       </c>
@@ -53369,7 +53453,7 @@
       <c r="Y827" s="13"/>
       <c r="Z827" s="13"/>
     </row>
-    <row r="828" spans="1:26" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:26" ht="150" customHeight="1">
       <c r="A828" s="32" t="s">
         <v>5047</v>
       </c>
@@ -53411,7 +53495,7 @@
       <c r="Y828" s="13"/>
       <c r="Z828" s="13"/>
     </row>
-    <row r="829" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:26" ht="120" customHeight="1">
       <c r="A829" s="32" t="s">
         <v>5053</v>
       </c>
@@ -53453,7 +53537,7 @@
       <c r="Y829" s="13"/>
       <c r="Z829" s="13"/>
     </row>
-    <row r="830" spans="1:26" ht="255" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:26" ht="255" customHeight="1">
       <c r="A830" s="32" t="s">
         <v>5060</v>
       </c>
@@ -53495,7 +53579,7 @@
       <c r="Y830" s="13"/>
       <c r="Z830" s="13"/>
     </row>
-    <row r="831" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:26" ht="30" customHeight="1">
       <c r="A831" s="32" t="s">
         <v>5066</v>
       </c>
@@ -53537,7 +53621,7 @@
       <c r="Y831" s="13"/>
       <c r="Z831" s="13"/>
     </row>
-    <row r="832" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:26" ht="135" customHeight="1">
       <c r="A832" s="32" t="s">
         <v>5073</v>
       </c>
@@ -53579,7 +53663,7 @@
       <c r="Y832" s="13"/>
       <c r="Z832" s="13"/>
     </row>
-    <row r="833" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:26" ht="90" customHeight="1">
       <c r="A833" s="32" t="s">
         <v>5079</v>
       </c>
@@ -53621,7 +53705,7 @@
       <c r="Y833" s="13"/>
       <c r="Z833" s="13"/>
     </row>
-    <row r="834" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:26" ht="15.75" customHeight="1">
       <c r="A834" s="10" t="s">
         <v>5086</v>
       </c>
@@ -53663,7 +53747,7 @@
       <c r="Y834" s="13"/>
       <c r="Z834" s="13"/>
     </row>
-    <row r="835" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:26" ht="30" customHeight="1">
       <c r="A835" s="32" t="s">
         <v>5088</v>
       </c>
@@ -53705,7 +53789,7 @@
       <c r="Y835" s="13"/>
       <c r="Z835" s="13"/>
     </row>
-    <row r="836" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:26" ht="135" customHeight="1">
       <c r="A836" s="32" t="s">
         <v>5095</v>
       </c>
@@ -53747,7 +53831,7 @@
       <c r="Y836" s="13"/>
       <c r="Z836" s="13"/>
     </row>
-    <row r="837" spans="1:26" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:26" ht="195" customHeight="1">
       <c r="A837" s="32" t="s">
         <v>5101</v>
       </c>
@@ -53789,7 +53873,7 @@
       <c r="Y837" s="13"/>
       <c r="Z837" s="13"/>
     </row>
-    <row r="838" spans="1:26" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:26" ht="195" customHeight="1">
       <c r="A838" s="32" t="s">
         <v>5107</v>
       </c>
@@ -53831,7 +53915,7 @@
       <c r="Y838" s="13"/>
       <c r="Z838" s="13"/>
     </row>
-    <row r="839" spans="1:26" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:26" ht="165" customHeight="1">
       <c r="A839" s="32" t="s">
         <v>5114</v>
       </c>
@@ -53873,7 +53957,7 @@
       <c r="Y839" s="13"/>
       <c r="Z839" s="13"/>
     </row>
-    <row r="840" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:26" ht="105" customHeight="1">
       <c r="A840" s="32" t="s">
         <v>5121</v>
       </c>
@@ -53915,7 +53999,7 @@
       <c r="Y840" s="13"/>
       <c r="Z840" s="13"/>
     </row>
-    <row r="841" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:26" ht="120" customHeight="1">
       <c r="A841" s="32" t="s">
         <v>5127</v>
       </c>
@@ -53957,7 +54041,7 @@
       <c r="Y841" s="13"/>
       <c r="Z841" s="13"/>
     </row>
-    <row r="842" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:26" ht="135" customHeight="1">
       <c r="A842" s="32" t="s">
         <v>5134</v>
       </c>
@@ -53999,7 +54083,7 @@
       <c r="Y842" s="13"/>
       <c r="Z842" s="13"/>
     </row>
-    <row r="843" spans="1:26" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:26" ht="150" customHeight="1">
       <c r="A843" s="32" t="s">
         <v>5141</v>
       </c>
@@ -54041,7 +54125,7 @@
       <c r="Y843" s="13"/>
       <c r="Z843" s="13"/>
     </row>
-    <row r="844" spans="1:26" ht="180" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:26" ht="180" customHeight="1">
       <c r="A844" s="32" t="s">
         <v>5148</v>
       </c>
@@ -54083,7 +54167,7 @@
       <c r="Y844" s="13"/>
       <c r="Z844" s="13"/>
     </row>
-    <row r="845" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:26" ht="45" customHeight="1">
       <c r="A845" s="32" t="s">
         <v>5155</v>
       </c>
@@ -54125,7 +54209,7 @@
       <c r="Y845" s="13"/>
       <c r="Z845" s="13"/>
     </row>
-    <row r="846" spans="1:26" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:26" ht="150" customHeight="1">
       <c r="A846" s="32" t="s">
         <v>5161</v>
       </c>
@@ -54167,7 +54251,7 @@
       <c r="Y846" s="13"/>
       <c r="Z846" s="13"/>
     </row>
-    <row r="847" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:26" ht="90" customHeight="1">
       <c r="A847" s="32" t="s">
         <v>5168</v>
       </c>
@@ -54209,7 +54293,7 @@
       <c r="Y847" s="13"/>
       <c r="Z847" s="13"/>
     </row>
-    <row r="848" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:26" ht="15.75" customHeight="1">
       <c r="A848" s="10" t="s">
         <v>5173</v>
       </c>
@@ -54251,7 +54335,7 @@
       <c r="Y848" s="13"/>
       <c r="Z848" s="13"/>
     </row>
-    <row r="849" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:26" ht="16.5" customHeight="1">
       <c r="A849" s="32" t="s">
         <v>5179</v>
       </c>
@@ -54293,7 +54377,7 @@
       <c r="Y849" s="13"/>
       <c r="Z849" s="13"/>
     </row>
-    <row r="850" spans="1:26" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:26" ht="150" customHeight="1">
       <c r="A850" s="32" t="s">
         <v>5185</v>
       </c>
@@ -54335,7 +54419,7 @@
       <c r="Y850" s="13"/>
       <c r="Z850" s="13"/>
     </row>
-    <row r="851" spans="1:26" ht="150" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:26" ht="150" customHeight="1">
       <c r="A851" s="32" t="s">
         <v>5192</v>
       </c>
@@ -54377,7 +54461,7 @@
       <c r="Y851" s="13"/>
       <c r="Z851" s="13"/>
     </row>
-    <row r="852" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:26" ht="75" customHeight="1">
       <c r="A852" s="32" t="s">
         <v>5198</v>
       </c>
@@ -54419,7 +54503,7 @@
       <c r="Y852" s="13"/>
       <c r="Z852" s="13"/>
     </row>
-    <row r="853" spans="1:26" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:26" ht="165" customHeight="1">
       <c r="A853" s="32" t="s">
         <v>5205</v>
       </c>
@@ -54461,7 +54545,7 @@
       <c r="Y853" s="13"/>
       <c r="Z853" s="13"/>
     </row>
-    <row r="854" spans="1:26" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:26" ht="165" customHeight="1">
       <c r="A854" s="32" t="s">
         <v>5212</v>
       </c>
@@ -54503,7 +54587,7 @@
       <c r="Y854" s="13"/>
       <c r="Z854" s="13"/>
     </row>
-    <row r="855" spans="1:26" ht="195" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:26" ht="195" customHeight="1">
       <c r="A855" s="32" t="s">
         <v>5219</v>
       </c>
@@ -54545,7 +54629,7 @@
       <c r="Y855" s="13"/>
       <c r="Z855" s="13"/>
     </row>
-    <row r="856" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:26" ht="120" customHeight="1">
       <c r="A856" s="32" t="s">
         <v>5226</v>
       </c>
@@ -54587,7 +54671,7 @@
       <c r="Y856" s="13"/>
       <c r="Z856" s="13"/>
     </row>
-    <row r="857" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:26" ht="120" customHeight="1">
       <c r="A857" s="32" t="s">
         <v>5233</v>
       </c>
@@ -54629,7 +54713,7 @@
       <c r="Y857" s="13"/>
       <c r="Z857" s="13"/>
     </row>
-    <row r="858" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:26" ht="60" customHeight="1">
       <c r="A858" s="32" t="s">
         <v>5239</v>
       </c>
@@ -54671,7 +54755,7 @@
       <c r="Y858" s="13"/>
       <c r="Z858" s="13"/>
     </row>
-    <row r="859" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:26" ht="105" customHeight="1">
       <c r="A859" s="32" t="s">
         <v>5246</v>
       </c>
@@ -54713,7 +54797,7 @@
       <c r="Y859" s="13"/>
       <c r="Z859" s="13"/>
     </row>
-    <row r="860" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:26" ht="120" customHeight="1">
       <c r="A860" s="32" t="s">
         <v>5253</v>
       </c>
@@ -54755,7 +54839,7 @@
       <c r="Y860" s="13"/>
       <c r="Z860" s="13"/>
     </row>
-    <row r="861" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:26" ht="30" customHeight="1">
       <c r="A861" s="32" t="s">
         <v>5259</v>
       </c>
@@ -54797,7 +54881,7 @@
       <c r="Y861" s="13"/>
       <c r="Z861" s="13"/>
     </row>
-    <row r="862" spans="1:26" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:26" ht="90" customHeight="1">
       <c r="A862" s="32" t="s">
         <v>5265</v>
       </c>
@@ -54839,7 +54923,7 @@
       <c r="Y862" s="13"/>
       <c r="Z862" s="13"/>
     </row>
-    <row r="863" spans="1:26" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:26" ht="45" customHeight="1">
       <c r="A863" s="32" t="s">
         <v>5272</v>
       </c>
@@ -54881,7 +54965,7 @@
       <c r="Y863" s="13"/>
       <c r="Z863" s="13"/>
     </row>
-    <row r="864" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:26" ht="105" customHeight="1">
       <c r="A864" s="32" t="s">
         <v>5279</v>
       </c>
@@ -54923,7 +55007,7 @@
       <c r="Y864" s="13"/>
       <c r="Z864" s="13"/>
     </row>
-    <row r="865" spans="1:26" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:26" ht="75" customHeight="1">
       <c r="A865" s="32" t="s">
         <v>5286</v>
       </c>
@@ -54965,7 +55049,7 @@
       <c r="Y865" s="13"/>
       <c r="Z865" s="13"/>
     </row>
-    <row r="866" spans="1:26" ht="120" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:26" ht="120" customHeight="1">
       <c r="A866" s="32" t="s">
         <v>5293</v>
       </c>
@@ -55007,7 +55091,7 @@
       <c r="Y866" s="13"/>
       <c r="Z866" s="13"/>
     </row>
-    <row r="867" spans="1:26" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:26" ht="135" customHeight="1">
       <c r="A867" s="32" t="s">
         <v>5300</v>
       </c>
@@ -55049,7 +55133,7 @@
       <c r="Y867" s="13"/>
       <c r="Z867" s="13"/>
     </row>
-    <row r="868" spans="1:26" ht="105" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:26" ht="105" customHeight="1">
       <c r="A868" s="32" t="s">
         <v>5307</v>
       </c>
@@ -55091,7 +55175,7 @@
       <c r="Y868" s="13"/>
       <c r="Z868" s="13"/>
     </row>
-    <row r="869" spans="1:26" ht="345" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:26" ht="345" customHeight="1">
       <c r="A869" s="32" t="s">
         <v>5314</v>
       </c>
@@ -55133,7 +55217,7 @@
       <c r="Y869" s="13"/>
       <c r="Z869" s="13"/>
     </row>
-    <row r="870" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:26" ht="31.5" customHeight="1">
       <c r="A870" s="10" t="s">
         <v>5321</v>
       </c>
@@ -55175,7 +55259,7 @@
       <c r="Y870" s="13"/>
       <c r="Z870" s="13"/>
     </row>
-    <row r="871" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:26" ht="15.75" customHeight="1">
       <c r="A871" s="32" t="s">
         <v>5326</v>
       </c>
@@ -55217,7 +55301,7 @@
       <c r="Y871" s="13"/>
       <c r="Z871" s="13"/>
     </row>
-    <row r="872" spans="1:26" ht="173.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:26" ht="173.25" customHeight="1">
       <c r="A872" s="32" t="s">
         <v>5333</v>
       </c>
@@ -55259,7 +55343,7 @@
       <c r="Y872" s="13"/>
       <c r="Z872" s="13"/>
     </row>
-    <row r="873" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:26" ht="63" customHeight="1">
       <c r="A873" s="32" t="s">
         <v>5340</v>
       </c>
@@ -55301,7 +55385,7 @@
       <c r="Y873" s="13"/>
       <c r="Z873" s="13"/>
     </row>
-    <row r="874" spans="1:26" ht="157.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:26" ht="157.5" customHeight="1">
       <c r="A874" s="32" t="s">
         <v>5345</v>
       </c>
@@ -55343,7 +55427,7 @@
       <c r="Y874" s="13"/>
       <c r="Z874" s="13"/>
     </row>
-    <row r="875" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:26" ht="15.75" customHeight="1">
       <c r="A875" s="32" t="s">
         <v>5351</v>
       </c>
@@ -55385,7 +55469,7 @@
       <c r="Y875" s="13"/>
       <c r="Z875" s="13"/>
     </row>
-    <row r="876" spans="1:26" ht="283.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:26" ht="283.5" customHeight="1">
       <c r="A876" s="32" t="s">
         <v>5355</v>
       </c>
@@ -55427,7 +55511,7 @@
       <c r="Y876" s="13"/>
       <c r="Z876" s="13"/>
     </row>
-    <row r="877" spans="1:26" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:26" ht="126" customHeight="1">
       <c r="A877" s="32" t="s">
         <v>5362</v>
       </c>
@@ -55469,7 +55553,7 @@
       <c r="Y877" s="13"/>
       <c r="Z877" s="13"/>
     </row>
-    <row r="878" spans="1:26" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:26" ht="78.75" customHeight="1">
       <c r="A878" s="36" t="s">
         <v>5369</v>
       </c>
@@ -55511,7 +55595,7 @@
       <c r="Y878" s="13"/>
       <c r="Z878" s="13"/>
     </row>
-    <row r="879" spans="1:26" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:26" ht="16.5" customHeight="1">
       <c r="A879" s="32" t="s">
         <v>5375</v>
       </c>
@@ -55553,7 +55637,7 @@
       <c r="Y879" s="13"/>
       <c r="Z879" s="13"/>
     </row>
-    <row r="880" spans="1:26" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:26" ht="110.25" customHeight="1">
       <c r="A880" s="32" t="s">
         <v>5381</v>
       </c>
@@ -55595,7 +55679,7 @@
       <c r="Y880" s="13"/>
       <c r="Z880" s="13"/>
     </row>
-    <row r="881" spans="1:26" ht="220.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:26" ht="220.5" customHeight="1">
       <c r="A881" s="32" t="s">
         <v>5388</v>
       </c>
@@ -55637,7 +55721,7 @@
       <c r="Y881" s="13"/>
       <c r="Z881" s="13"/>
     </row>
-    <row r="882" spans="1:26" ht="236.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:26" ht="236.25" customHeight="1">
       <c r="A882" s="32" t="s">
         <v>5395</v>
       </c>
@@ -55679,7 +55763,7 @@
       <c r="Y882" s="13"/>
       <c r="Z882" s="13"/>
     </row>
-    <row r="883" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:26" ht="15.75" customHeight="1">
       <c r="A883" s="32" t="s">
         <v>5402</v>
       </c>
@@ -55721,7 +55805,7 @@
       <c r="Y883" s="13"/>
       <c r="Z883" s="13"/>
     </row>
-    <row r="884" spans="1:26" ht="252" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:26" ht="252" customHeight="1">
       <c r="A884" s="32" t="s">
         <v>5408</v>
       </c>
@@ -55763,7 +55847,7 @@
       <c r="Y884" s="13"/>
       <c r="Z884" s="13"/>
     </row>
-    <row r="885" spans="1:26" ht="94.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:26" ht="94.5" customHeight="1">
       <c r="A885" s="32" t="s">
         <v>5414</v>
       </c>
@@ -55805,7 +55889,7 @@
       <c r="Y885" s="13"/>
       <c r="Z885" s="13"/>
     </row>
-    <row r="886" spans="1:26" ht="126" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:26" ht="126" customHeight="1">
       <c r="A886" s="32" t="s">
         <v>5420</v>
       </c>
@@ -55847,7 +55931,7 @@
       <c r="Y886" s="13"/>
       <c r="Z886" s="13"/>
     </row>
-    <row r="887" spans="1:26" ht="189" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:26" ht="189" customHeight="1">
       <c r="A887" s="32" t="s">
         <v>5427</v>
       </c>
@@ -55889,7 +55973,7 @@
       <c r="Y887" s="13"/>
       <c r="Z887" s="13"/>
     </row>
-    <row r="888" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:26" ht="15.75" customHeight="1">
       <c r="A888" s="32" t="s">
         <v>5434</v>
       </c>
@@ -55931,7 +56015,7 @@
       <c r="Y888" s="13"/>
       <c r="Z888" s="13"/>
     </row>
-    <row r="889" spans="1:26" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:26" ht="78.75" customHeight="1">
       <c r="A889" s="32" t="s">
         <v>5440</v>
       </c>
@@ -55973,7 +56057,7 @@
       <c r="Y889" s="13"/>
       <c r="Z889" s="13"/>
     </row>
-    <row r="890" spans="1:26" ht="236.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:26" ht="236.25" customHeight="1">
       <c r="A890" s="32" t="s">
         <v>5447</v>
       </c>
@@ -56015,7 +56099,7 @@
       <c r="Y890" s="13"/>
       <c r="Z890" s="13"/>
     </row>
-    <row r="891" spans="1:26" ht="110.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:26" ht="110.25" customHeight="1">
       <c r="A891" s="32" t="s">
         <v>5453</v>
       </c>
@@ -56057,7 +56141,7 @@
       <c r="Y891" s="13"/>
       <c r="Z891" s="13"/>
     </row>
-    <row r="892" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:26" ht="31.5" customHeight="1">
       <c r="A892" s="2" t="s">
         <v>5460</v>
       </c>
@@ -56099,7 +56183,7 @@
       <c r="Y892" s="2"/>
       <c r="Z892" s="2"/>
     </row>
-    <row r="893" spans="1:26" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:26" ht="31.5" customHeight="1">
       <c r="A893" s="2" t="s">
         <v>5463</v>
       </c>
@@ -56141,7 +56225,7 @@
       <c r="Y893" s="2"/>
       <c r="Z893" s="2"/>
     </row>
-    <row r="894" spans="1:26" ht="91" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:26" ht="90.95" customHeight="1">
       <c r="A894" s="40" t="s">
         <v>5470</v>
       </c>
@@ -56183,7 +56267,7 @@
       <c r="Y894" s="2"/>
       <c r="Z894" s="2"/>
     </row>
-    <row r="895" spans="1:26" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:26" ht="60" customHeight="1">
       <c r="A895" s="39" t="s">
         <v>5476</v>
       </c>
@@ -56225,7 +56309,7 @@
       <c r="Y895" s="2"/>
       <c r="Z895" s="2"/>
     </row>
-    <row r="896" spans="1:26" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:26" ht="56.1" customHeight="1">
       <c r="A896" s="39" t="s">
         <v>5494</v>
       </c>
@@ -56267,7 +56351,7 @@
       <c r="Y896" s="2"/>
       <c r="Z896" s="2"/>
     </row>
-    <row r="897" spans="1:26" ht="77" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:26" ht="77.099999999999994" customHeight="1">
       <c r="A897" s="39" t="s">
         <v>1376</v>
       </c>
@@ -56309,7 +56393,7 @@
       <c r="Y897" s="2"/>
       <c r="Z897" s="2"/>
     </row>
-    <row r="898" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:26" ht="15.75" customHeight="1">
       <c r="A898" s="2" t="s">
         <v>5491</v>
       </c>
@@ -56351,14 +56435,28 @@
       <c r="Y898" s="2"/>
       <c r="Z898" s="2"/>
     </row>
-    <row r="899" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A899" s="2"/>
-      <c r="B899" s="2"/>
-      <c r="C899" s="40"/>
-      <c r="D899" s="40"/>
-      <c r="E899" s="2"/>
-      <c r="F899" s="2"/>
-      <c r="G899" s="40"/>
+    <row r="899" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A899" s="48" t="s">
+        <v>5769</v>
+      </c>
+      <c r="B899" s="48" t="s">
+        <v>5770</v>
+      </c>
+      <c r="C899" s="48" t="s">
+        <v>5771</v>
+      </c>
+      <c r="D899" s="48" t="s">
+        <v>5772</v>
+      </c>
+      <c r="E899" s="48" t="s">
+        <v>5773</v>
+      </c>
+      <c r="F899" s="48" t="s">
+        <v>5774</v>
+      </c>
+      <c r="G899" s="48" t="s">
+        <v>5775</v>
+      </c>
       <c r="H899" s="2"/>
       <c r="I899" s="2"/>
       <c r="J899" s="2"/>
@@ -56379,14 +56477,28 @@
       <c r="Y899" s="2"/>
       <c r="Z899" s="2"/>
     </row>
-    <row r="900" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A900" s="2"/>
-      <c r="B900" s="2"/>
-      <c r="C900" s="40"/>
-      <c r="D900" s="40"/>
-      <c r="E900" s="2"/>
-      <c r="F900" s="2"/>
-      <c r="G900" s="40"/>
+    <row r="900" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A900" s="48" t="s">
+        <v>5776</v>
+      </c>
+      <c r="B900" s="48" t="s">
+        <v>5777</v>
+      </c>
+      <c r="C900" s="48" t="s">
+        <v>5778</v>
+      </c>
+      <c r="D900" s="48" t="s">
+        <v>5779</v>
+      </c>
+      <c r="E900" s="48" t="s">
+        <v>5780</v>
+      </c>
+      <c r="F900" s="48" t="s">
+        <v>5781</v>
+      </c>
+      <c r="G900" s="48" t="s">
+        <v>5782</v>
+      </c>
       <c r="H900" s="2"/>
       <c r="I900" s="2"/>
       <c r="J900" s="2"/>
@@ -56407,14 +56519,28 @@
       <c r="Y900" s="2"/>
       <c r="Z900" s="2"/>
     </row>
-    <row r="901" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A901" s="2"/>
-      <c r="B901" s="2"/>
-      <c r="C901" s="40"/>
-      <c r="D901" s="40"/>
-      <c r="E901" s="2"/>
-      <c r="F901" s="2"/>
-      <c r="G901" s="40"/>
+    <row r="901" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A901" s="48" t="s">
+        <v>5784</v>
+      </c>
+      <c r="B901" s="48" t="s">
+        <v>5783</v>
+      </c>
+      <c r="C901" s="48" t="s">
+        <v>5785</v>
+      </c>
+      <c r="D901" s="48" t="s">
+        <v>5786</v>
+      </c>
+      <c r="E901" s="48" t="s">
+        <v>5787</v>
+      </c>
+      <c r="F901" s="48" t="s">
+        <v>5788</v>
+      </c>
+      <c r="G901" s="48" t="s">
+        <v>5789</v>
+      </c>
       <c r="H901" s="2"/>
       <c r="I901" s="2"/>
       <c r="J901" s="2"/>
@@ -56435,14 +56561,28 @@
       <c r="Y901" s="2"/>
       <c r="Z901" s="2"/>
     </row>
-    <row r="902" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A902" s="2"/>
-      <c r="B902" s="2"/>
-      <c r="C902" s="40"/>
-      <c r="D902" s="40"/>
-      <c r="E902" s="2"/>
-      <c r="F902" s="2"/>
-      <c r="G902" s="40"/>
+    <row r="902" spans="1:26" ht="15.75" customHeight="1">
+      <c r="A902" s="48" t="s">
+        <v>5790</v>
+      </c>
+      <c r="B902" s="48" t="s">
+        <v>5791</v>
+      </c>
+      <c r="C902" s="48" t="s">
+        <v>5792</v>
+      </c>
+      <c r="D902" s="48" t="s">
+        <v>5793</v>
+      </c>
+      <c r="E902" s="48" t="s">
+        <v>5794</v>
+      </c>
+      <c r="F902" s="48" t="s">
+        <v>5795</v>
+      </c>
+      <c r="G902" s="48" t="s">
+        <v>5796</v>
+      </c>
       <c r="H902" s="2"/>
       <c r="I902" s="2"/>
       <c r="J902" s="2"/>
@@ -56463,7 +56603,7 @@
       <c r="Y902" s="2"/>
       <c r="Z902" s="2"/>
     </row>
-    <row r="903" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:26" ht="15.75" customHeight="1">
       <c r="A903" s="2"/>
       <c r="B903" s="2"/>
       <c r="C903" s="40"/>
@@ -56491,7 +56631,7 @@
       <c r="Y903" s="2"/>
       <c r="Z903" s="2"/>
     </row>
-    <row r="904" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:26" ht="15.75" customHeight="1">
       <c r="A904" s="2"/>
       <c r="B904" s="2"/>
       <c r="C904" s="40"/>
@@ -56519,7 +56659,7 @@
       <c r="Y904" s="2"/>
       <c r="Z904" s="2"/>
     </row>
-    <row r="905" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:26" ht="15.75" customHeight="1">
       <c r="A905" s="2"/>
       <c r="B905" s="2"/>
       <c r="C905" s="40"/>
@@ -56547,7 +56687,7 @@
       <c r="Y905" s="2"/>
       <c r="Z905" s="2"/>
     </row>
-    <row r="906" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:26" ht="15.75" customHeight="1">
       <c r="A906" s="2"/>
       <c r="B906" s="2"/>
       <c r="C906" s="40"/>
@@ -56575,7 +56715,7 @@
       <c r="Y906" s="2"/>
       <c r="Z906" s="2"/>
     </row>
-    <row r="907" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:26" ht="15.75" customHeight="1">
       <c r="A907" s="2"/>
       <c r="B907" s="2"/>
       <c r="C907" s="40"/>
@@ -56603,7 +56743,7 @@
       <c r="Y907" s="2"/>
       <c r="Z907" s="2"/>
     </row>
-    <row r="908" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:26" ht="15.75" customHeight="1">
       <c r="A908" s="2"/>
       <c r="B908" s="2"/>
       <c r="C908" s="40"/>
@@ -56631,7 +56771,7 @@
       <c r="Y908" s="2"/>
       <c r="Z908" s="2"/>
     </row>
-    <row r="909" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:26" ht="15.75" customHeight="1">
       <c r="A909" s="2"/>
       <c r="B909" s="2"/>
       <c r="C909" s="40"/>
@@ -56659,7 +56799,7 @@
       <c r="Y909" s="2"/>
       <c r="Z909" s="2"/>
     </row>
-    <row r="910" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:26" ht="15.75" customHeight="1">
       <c r="A910" s="2"/>
       <c r="B910" s="2"/>
       <c r="C910" s="40"/>
@@ -56687,7 +56827,7 @@
       <c r="Y910" s="2"/>
       <c r="Z910" s="2"/>
     </row>
-    <row r="911" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:26" ht="15.75" customHeight="1">
       <c r="A911" s="2"/>
       <c r="B911" s="2"/>
       <c r="C911" s="40"/>
@@ -56715,7 +56855,7 @@
       <c r="Y911" s="2"/>
       <c r="Z911" s="2"/>
     </row>
-    <row r="912" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:26" ht="15.75" customHeight="1">
       <c r="A912" s="2"/>
       <c r="B912" s="2"/>
       <c r="C912" s="40"/>
@@ -56743,7 +56883,7 @@
       <c r="Y912" s="2"/>
       <c r="Z912" s="2"/>
     </row>
-    <row r="913" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:26" ht="15.75" customHeight="1">
       <c r="A913" s="2"/>
       <c r="B913" s="2"/>
       <c r="C913" s="40"/>
@@ -56771,7 +56911,7 @@
       <c r="Y913" s="2"/>
       <c r="Z913" s="2"/>
     </row>
-    <row r="914" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:26" ht="15.75" customHeight="1">
       <c r="A914" s="2"/>
       <c r="B914" s="2"/>
       <c r="C914" s="40"/>
@@ -56799,7 +56939,7 @@
       <c r="Y914" s="2"/>
       <c r="Z914" s="2"/>
     </row>
-    <row r="915" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:26" ht="15.75" customHeight="1">
       <c r="A915" s="2"/>
       <c r="B915" s="2"/>
       <c r="C915" s="40"/>
@@ -56827,7 +56967,7 @@
       <c r="Y915" s="2"/>
       <c r="Z915" s="2"/>
     </row>
-    <row r="916" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:26" ht="15.75" customHeight="1">
       <c r="A916" s="2"/>
       <c r="B916" s="2"/>
       <c r="C916" s="40"/>
@@ -56855,7 +56995,7 @@
       <c r="Y916" s="2"/>
       <c r="Z916" s="2"/>
     </row>
-    <row r="917" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:26" ht="15.75" customHeight="1">
       <c r="A917" s="2"/>
       <c r="B917" s="2"/>
       <c r="C917" s="40"/>
@@ -56883,7 +57023,7 @@
       <c r="Y917" s="2"/>
       <c r="Z917" s="2"/>
     </row>
-    <row r="918" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:26" ht="15.75" customHeight="1">
       <c r="A918" s="2"/>
       <c r="B918" s="2"/>
       <c r="C918" s="40"/>
@@ -56911,7 +57051,7 @@
       <c r="Y918" s="2"/>
       <c r="Z918" s="2"/>
     </row>
-    <row r="919" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:26" ht="15.75" customHeight="1">
       <c r="A919" s="2"/>
       <c r="B919" s="2"/>
       <c r="C919" s="40"/>
@@ -56939,7 +57079,7 @@
       <c r="Y919" s="2"/>
       <c r="Z919" s="2"/>
     </row>
-    <row r="920" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:26" ht="15.75" customHeight="1">
       <c r="A920" s="2"/>
       <c r="B920" s="2"/>
       <c r="C920" s="40"/>
@@ -56967,7 +57107,7 @@
       <c r="Y920" s="2"/>
       <c r="Z920" s="2"/>
     </row>
-    <row r="921" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:26" ht="15.75" customHeight="1">
       <c r="A921" s="2"/>
       <c r="B921" s="2"/>
       <c r="C921" s="40"/>
@@ -56995,7 +57135,7 @@
       <c r="Y921" s="2"/>
       <c r="Z921" s="2"/>
     </row>
-    <row r="922" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:26" ht="15.75" customHeight="1">
       <c r="A922" s="2"/>
       <c r="B922" s="2"/>
       <c r="C922" s="40"/>
@@ -57023,7 +57163,7 @@
       <c r="Y922" s="2"/>
       <c r="Z922" s="2"/>
     </row>
-    <row r="923" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:26" ht="15.75" customHeight="1">
       <c r="A923" s="2"/>
       <c r="B923" s="2"/>
       <c r="C923" s="40"/>
@@ -57051,7 +57191,7 @@
       <c r="Y923" s="2"/>
       <c r="Z923" s="2"/>
     </row>
-    <row r="924" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:26" ht="15.75" customHeight="1">
       <c r="A924" s="2"/>
       <c r="B924" s="2"/>
       <c r="C924" s="40"/>
@@ -57079,7 +57219,7 @@
       <c r="Y924" s="2"/>
       <c r="Z924" s="2"/>
     </row>
-    <row r="925" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:26" ht="15.75" customHeight="1">
       <c r="A925" s="2"/>
       <c r="B925" s="2"/>
       <c r="C925" s="40"/>
@@ -57107,7 +57247,7 @@
       <c r="Y925" s="2"/>
       <c r="Z925" s="2"/>
     </row>
-    <row r="926" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:26" ht="15.75" customHeight="1">
       <c r="A926" s="2"/>
       <c r="B926" s="2"/>
       <c r="C926" s="40"/>
@@ -57135,7 +57275,7 @@
       <c r="Y926" s="2"/>
       <c r="Z926" s="2"/>
     </row>
-    <row r="927" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:26" ht="15.75" customHeight="1">
       <c r="A927" s="2"/>
       <c r="B927" s="2"/>
       <c r="C927" s="40"/>
@@ -57163,7 +57303,7 @@
       <c r="Y927" s="2"/>
       <c r="Z927" s="2"/>
     </row>
-    <row r="928" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:26" ht="15.75" customHeight="1">
       <c r="A928" s="2"/>
       <c r="B928" s="2"/>
       <c r="C928" s="40"/>
@@ -57191,7 +57331,7 @@
       <c r="Y928" s="2"/>
       <c r="Z928" s="2"/>
     </row>
-    <row r="929" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:26" ht="15.75" customHeight="1">
       <c r="A929" s="2"/>
       <c r="B929" s="2"/>
       <c r="C929" s="40"/>
@@ -57219,7 +57359,7 @@
       <c r="Y929" s="2"/>
       <c r="Z929" s="2"/>
     </row>
-    <row r="930" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:26" ht="15.75" customHeight="1">
       <c r="A930" s="2"/>
       <c r="B930" s="2"/>
       <c r="C930" s="40"/>
@@ -57247,7 +57387,7 @@
       <c r="Y930" s="2"/>
       <c r="Z930" s="2"/>
     </row>
-    <row r="931" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:26" ht="15.75" customHeight="1">
       <c r="A931" s="2"/>
       <c r="B931" s="2"/>
       <c r="C931" s="40"/>
@@ -57275,7 +57415,7 @@
       <c r="Y931" s="2"/>
       <c r="Z931" s="2"/>
     </row>
-    <row r="932" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:26" ht="15.75" customHeight="1">
       <c r="A932" s="2"/>
       <c r="B932" s="2"/>
       <c r="C932" s="40"/>
@@ -57303,7 +57443,7 @@
       <c r="Y932" s="2"/>
       <c r="Z932" s="2"/>
     </row>
-    <row r="933" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:26" ht="15.75" customHeight="1">
       <c r="A933" s="2"/>
       <c r="B933" s="2"/>
       <c r="C933" s="40"/>
@@ -57331,7 +57471,7 @@
       <c r="Y933" s="2"/>
       <c r="Z933" s="2"/>
     </row>
-    <row r="934" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:26" ht="15.75" customHeight="1">
       <c r="A934" s="2"/>
       <c r="B934" s="2"/>
       <c r="C934" s="40"/>
@@ -57359,7 +57499,7 @@
       <c r="Y934" s="2"/>
       <c r="Z934" s="2"/>
     </row>
-    <row r="935" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:26" ht="15.75" customHeight="1">
       <c r="A935" s="2"/>
       <c r="B935" s="2"/>
       <c r="C935" s="40"/>
@@ -57387,7 +57527,7 @@
       <c r="Y935" s="2"/>
       <c r="Z935" s="2"/>
     </row>
-    <row r="936" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:26" ht="15.75" customHeight="1">
       <c r="A936" s="2"/>
       <c r="B936" s="2"/>
       <c r="C936" s="40"/>
@@ -57415,7 +57555,7 @@
       <c r="Y936" s="2"/>
       <c r="Z936" s="2"/>
     </row>
-    <row r="937" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:26" ht="15.75" customHeight="1">
       <c r="A937" s="2"/>
       <c r="B937" s="2"/>
       <c r="C937" s="40"/>
@@ -57443,7 +57583,7 @@
       <c r="Y937" s="2"/>
       <c r="Z937" s="2"/>
     </row>
-    <row r="938" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:26" ht="15.75" customHeight="1">
       <c r="A938" s="2"/>
       <c r="B938" s="2"/>
       <c r="C938" s="40"/>
@@ -57471,7 +57611,7 @@
       <c r="Y938" s="2"/>
       <c r="Z938" s="2"/>
     </row>
-    <row r="939" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:26" ht="15.75" customHeight="1">
       <c r="A939" s="2"/>
       <c r="B939" s="2"/>
       <c r="C939" s="40"/>
@@ -57499,7 +57639,7 @@
       <c r="Y939" s="2"/>
       <c r="Z939" s="2"/>
     </row>
-    <row r="940" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:26" ht="15.75" customHeight="1">
       <c r="A940" s="2"/>
       <c r="B940" s="2"/>
       <c r="C940" s="40"/>
@@ -57527,7 +57667,7 @@
       <c r="Y940" s="2"/>
       <c r="Z940" s="2"/>
     </row>
-    <row r="941" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:26" ht="15.75" customHeight="1">
       <c r="A941" s="2"/>
       <c r="B941" s="2"/>
       <c r="C941" s="40"/>
@@ -57555,7 +57695,7 @@
       <c r="Y941" s="2"/>
       <c r="Z941" s="2"/>
     </row>
-    <row r="942" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:26" ht="15.75" customHeight="1">
       <c r="A942" s="2"/>
       <c r="B942" s="2"/>
       <c r="C942" s="40"/>
@@ -57583,7 +57723,7 @@
       <c r="Y942" s="2"/>
       <c r="Z942" s="2"/>
     </row>
-    <row r="943" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:26" ht="15.75" customHeight="1">
       <c r="A943" s="2"/>
       <c r="B943" s="2"/>
       <c r="C943" s="40"/>
@@ -57611,7 +57751,7 @@
       <c r="Y943" s="2"/>
       <c r="Z943" s="2"/>
     </row>
-    <row r="944" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:26" ht="15.75" customHeight="1">
       <c r="A944" s="2"/>
       <c r="B944" s="2"/>
       <c r="C944" s="40"/>
@@ -57639,7 +57779,7 @@
       <c r="Y944" s="2"/>
       <c r="Z944" s="2"/>
     </row>
-    <row r="945" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:26" ht="15.75" customHeight="1">
       <c r="A945" s="2"/>
       <c r="B945" s="2"/>
       <c r="C945" s="40"/>
@@ -57667,7 +57807,7 @@
       <c r="Y945" s="2"/>
       <c r="Z945" s="2"/>
     </row>
-    <row r="946" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:26" ht="15.75" customHeight="1">
       <c r="A946" s="2"/>
       <c r="B946" s="2"/>
       <c r="C946" s="40"/>
@@ -57695,7 +57835,7 @@
       <c r="Y946" s="2"/>
       <c r="Z946" s="2"/>
     </row>
-    <row r="947" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:26" ht="15.75" customHeight="1">
       <c r="A947" s="2"/>
       <c r="B947" s="2"/>
       <c r="C947" s="40"/>
@@ -57723,7 +57863,7 @@
       <c r="Y947" s="2"/>
       <c r="Z947" s="2"/>
     </row>
-    <row r="948" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:26" ht="15.75" customHeight="1">
       <c r="A948" s="2"/>
       <c r="B948" s="2"/>
       <c r="C948" s="40"/>
@@ -57751,7 +57891,7 @@
       <c r="Y948" s="2"/>
       <c r="Z948" s="2"/>
     </row>
-    <row r="949" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:26" ht="15.75" customHeight="1">
       <c r="A949" s="2"/>
       <c r="B949" s="2"/>
       <c r="C949" s="40"/>
@@ -57779,7 +57919,7 @@
       <c r="Y949" s="2"/>
       <c r="Z949" s="2"/>
     </row>
-    <row r="950" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:26" ht="15.75" customHeight="1">
       <c r="A950" s="2"/>
       <c r="B950" s="2"/>
       <c r="C950" s="40"/>
@@ -57807,7 +57947,7 @@
       <c r="Y950" s="2"/>
       <c r="Z950" s="2"/>
     </row>
-    <row r="951" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:26" ht="15.75" customHeight="1">
       <c r="A951" s="2"/>
       <c r="B951" s="2"/>
       <c r="C951" s="40"/>
@@ -57835,7 +57975,7 @@
       <c r="Y951" s="2"/>
       <c r="Z951" s="2"/>
     </row>
-    <row r="952" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:26" ht="15.75" customHeight="1">
       <c r="A952" s="2"/>
       <c r="B952" s="2"/>
       <c r="C952" s="40"/>
@@ -57863,7 +58003,7 @@
       <c r="Y952" s="2"/>
       <c r="Z952" s="2"/>
     </row>
-    <row r="953" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:26" ht="15.75" customHeight="1">
       <c r="A953" s="2"/>
       <c r="B953" s="2"/>
       <c r="C953" s="40"/>
@@ -57891,7 +58031,7 @@
       <c r="Y953" s="2"/>
       <c r="Z953" s="2"/>
     </row>
-    <row r="954" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:26" ht="15.75" customHeight="1">
       <c r="A954" s="2"/>
       <c r="B954" s="2"/>
       <c r="C954" s="40"/>
@@ -57919,7 +58059,7 @@
       <c r="Y954" s="2"/>
       <c r="Z954" s="2"/>
     </row>
-    <row r="955" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:26" ht="15.75" customHeight="1">
       <c r="A955" s="2"/>
       <c r="B955" s="2"/>
       <c r="C955" s="40"/>
@@ -57947,7 +58087,7 @@
       <c r="Y955" s="2"/>
       <c r="Z955" s="2"/>
     </row>
-    <row r="956" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:26" ht="15.75" customHeight="1">
       <c r="A956" s="2"/>
       <c r="B956" s="2"/>
       <c r="C956" s="40"/>
@@ -57975,7 +58115,7 @@
       <c r="Y956" s="2"/>
       <c r="Z956" s="2"/>
     </row>
-    <row r="957" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:26" ht="15.75" customHeight="1">
       <c r="A957" s="2"/>
       <c r="B957" s="2"/>
       <c r="C957" s="40"/>
@@ -58003,7 +58143,7 @@
       <c r="Y957" s="2"/>
       <c r="Z957" s="2"/>
     </row>
-    <row r="958" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:26" ht="15.75" customHeight="1">
       <c r="A958" s="2"/>
       <c r="B958" s="2"/>
       <c r="C958" s="40"/>
@@ -58031,7 +58171,7 @@
       <c r="Y958" s="2"/>
       <c r="Z958" s="2"/>
     </row>
-    <row r="959" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:26" ht="15.75" customHeight="1">
       <c r="A959" s="2"/>
       <c r="B959" s="2"/>
       <c r="C959" s="40"/>
@@ -58059,7 +58199,7 @@
       <c r="Y959" s="2"/>
       <c r="Z959" s="2"/>
     </row>
-    <row r="960" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:26" ht="15.75" customHeight="1">
       <c r="A960" s="2"/>
       <c r="B960" s="2"/>
       <c r="C960" s="40"/>
@@ -58087,7 +58227,7 @@
       <c r="Y960" s="2"/>
       <c r="Z960" s="2"/>
     </row>
-    <row r="961" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:26" ht="15.75" customHeight="1">
       <c r="A961" s="2"/>
       <c r="B961" s="2"/>
       <c r="C961" s="40"/>
@@ -58115,7 +58255,7 @@
       <c r="Y961" s="2"/>
       <c r="Z961" s="2"/>
     </row>
-    <row r="962" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:26" ht="15.75" customHeight="1">
       <c r="A962" s="2"/>
       <c r="B962" s="2"/>
       <c r="C962" s="40"/>
@@ -58143,7 +58283,7 @@
       <c r="Y962" s="2"/>
       <c r="Z962" s="2"/>
     </row>
-    <row r="963" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:26" ht="15.75" customHeight="1">
       <c r="A963" s="2"/>
       <c r="B963" s="2"/>
       <c r="C963" s="40"/>
@@ -58171,7 +58311,7 @@
       <c r="Y963" s="2"/>
       <c r="Z963" s="2"/>
     </row>
-    <row r="964" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:26" ht="15.75" customHeight="1">
       <c r="A964" s="2"/>
       <c r="B964" s="2"/>
       <c r="C964" s="40"/>
@@ -58199,7 +58339,7 @@
       <c r="Y964" s="2"/>
       <c r="Z964" s="2"/>
     </row>
-    <row r="965" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:26" ht="15.75" customHeight="1">
       <c r="A965" s="2"/>
       <c r="B965" s="2"/>
       <c r="C965" s="40"/>
@@ -58227,7 +58367,7 @@
       <c r="Y965" s="2"/>
       <c r="Z965" s="2"/>
     </row>
-    <row r="966" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:26" ht="15.75" customHeight="1">
       <c r="A966" s="2"/>
       <c r="B966" s="2"/>
       <c r="C966" s="40"/>
@@ -58255,7 +58395,7 @@
       <c r="Y966" s="2"/>
       <c r="Z966" s="2"/>
     </row>
-    <row r="967" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:26" ht="15.75" customHeight="1">
       <c r="A967" s="2"/>
       <c r="B967" s="2"/>
       <c r="C967" s="40"/>
@@ -58283,7 +58423,7 @@
       <c r="Y967" s="2"/>
       <c r="Z967" s="2"/>
     </row>
-    <row r="968" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:26" ht="15.75" customHeight="1">
       <c r="A968" s="2"/>
       <c r="B968" s="2"/>
       <c r="C968" s="40"/>
@@ -58311,7 +58451,7 @@
       <c r="Y968" s="2"/>
       <c r="Z968" s="2"/>
     </row>
-    <row r="969" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:26" ht="15.75" customHeight="1">
       <c r="A969" s="2"/>
       <c r="B969" s="2"/>
       <c r="C969" s="40"/>
@@ -58339,7 +58479,7 @@
       <c r="Y969" s="2"/>
       <c r="Z969" s="2"/>
     </row>
-    <row r="970" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:26" ht="15.75" customHeight="1">
       <c r="A970" s="2"/>
       <c r="B970" s="2"/>
       <c r="C970" s="40"/>
@@ -58367,7 +58507,7 @@
       <c r="Y970" s="2"/>
       <c r="Z970" s="2"/>
     </row>
-    <row r="971" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:26" ht="15.75" customHeight="1">
       <c r="A971" s="2"/>
       <c r="B971" s="2"/>
       <c r="C971" s="40"/>
@@ -58395,7 +58535,7 @@
       <c r="Y971" s="2"/>
       <c r="Z971" s="2"/>
     </row>
-    <row r="972" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:26" ht="15.75" customHeight="1">
       <c r="A972" s="2"/>
       <c r="B972" s="2"/>
       <c r="C972" s="40"/>
@@ -58423,7 +58563,7 @@
       <c r="Y972" s="2"/>
       <c r="Z972" s="2"/>
     </row>
-    <row r="973" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:26" ht="15.75" customHeight="1">
       <c r="A973" s="2"/>
       <c r="B973" s="2"/>
       <c r="C973" s="40"/>
@@ -58451,7 +58591,7 @@
       <c r="Y973" s="2"/>
       <c r="Z973" s="2"/>
     </row>
-    <row r="974" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:26" ht="15.75" customHeight="1">
       <c r="A974" s="2"/>
       <c r="B974" s="2"/>
       <c r="C974" s="40"/>
@@ -58479,7 +58619,7 @@
       <c r="Y974" s="2"/>
       <c r="Z974" s="2"/>
     </row>
-    <row r="975" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:26" ht="15.75" customHeight="1">
       <c r="A975" s="2"/>
       <c r="B975" s="2"/>
       <c r="C975" s="40"/>
@@ -58507,7 +58647,7 @@
       <c r="Y975" s="2"/>
       <c r="Z975" s="2"/>
     </row>
-    <row r="976" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:26" ht="15.75" customHeight="1">
       <c r="A976" s="2"/>
       <c r="B976" s="2"/>
       <c r="C976" s="40"/>
@@ -58535,7 +58675,7 @@
       <c r="Y976" s="2"/>
       <c r="Z976" s="2"/>
     </row>
-    <row r="977" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:26" ht="15.75" customHeight="1">
       <c r="A977" s="2"/>
       <c r="B977" s="2"/>
       <c r="C977" s="40"/>
@@ -58563,7 +58703,7 @@
       <c r="Y977" s="2"/>
       <c r="Z977" s="2"/>
     </row>
-    <row r="978" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:26" ht="15.75" customHeight="1">
       <c r="A978" s="2"/>
       <c r="B978" s="2"/>
       <c r="C978" s="40"/>
@@ -58591,7 +58731,7 @@
       <c r="Y978" s="2"/>
       <c r="Z978" s="2"/>
     </row>
-    <row r="979" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:26" ht="15.75" customHeight="1">
       <c r="A979" s="2"/>
       <c r="B979" s="2"/>
       <c r="C979" s="40"/>
@@ -58619,7 +58759,7 @@
       <c r="Y979" s="2"/>
       <c r="Z979" s="2"/>
     </row>
-    <row r="980" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:26" ht="15.75" customHeight="1">
       <c r="A980" s="2"/>
       <c r="B980" s="2"/>
       <c r="C980" s="40"/>
@@ -58647,7 +58787,7 @@
       <c r="Y980" s="2"/>
       <c r="Z980" s="2"/>
     </row>
-    <row r="981" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:26" ht="15.75" customHeight="1">
       <c r="A981" s="2"/>
       <c r="B981" s="2"/>
       <c r="C981" s="40"/>
@@ -58675,7 +58815,7 @@
       <c r="Y981" s="2"/>
       <c r="Z981" s="2"/>
     </row>
-    <row r="982" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:26" ht="15.75" customHeight="1">
       <c r="A982" s="2"/>
       <c r="B982" s="2"/>
       <c r="C982" s="40"/>
@@ -58703,7 +58843,7 @@
       <c r="Y982" s="2"/>
       <c r="Z982" s="2"/>
     </row>
-    <row r="983" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:26" ht="15.75" customHeight="1">
       <c r="A983" s="2"/>
       <c r="B983" s="2"/>
       <c r="C983" s="40"/>
@@ -58731,7 +58871,7 @@
       <c r="Y983" s="2"/>
       <c r="Z983" s="2"/>
     </row>
-    <row r="984" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:26" ht="15.75" customHeight="1">
       <c r="A984" s="2"/>
       <c r="B984" s="2"/>
       <c r="C984" s="40"/>
@@ -58759,7 +58899,7 @@
       <c r="Y984" s="2"/>
       <c r="Z984" s="2"/>
     </row>
-    <row r="985" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:26" ht="15.75" customHeight="1">
       <c r="A985" s="2"/>
       <c r="B985" s="2"/>
       <c r="C985" s="40"/>
@@ -58787,7 +58927,7 @@
       <c r="Y985" s="2"/>
       <c r="Z985" s="2"/>
     </row>
-    <row r="986" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:26" ht="15.75" customHeight="1">
       <c r="A986" s="2"/>
       <c r="B986" s="2"/>
       <c r="C986" s="40"/>
@@ -58815,7 +58955,7 @@
       <c r="Y986" s="2"/>
       <c r="Z986" s="2"/>
     </row>
-    <row r="987" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:26" ht="15.75" customHeight="1">
       <c r="A987" s="2"/>
       <c r="B987" s="2"/>
       <c r="C987" s="40"/>
@@ -58843,7 +58983,7 @@
       <c r="Y987" s="2"/>
       <c r="Z987" s="2"/>
     </row>
-    <row r="988" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:26" ht="15.75" customHeight="1">
       <c r="A988" s="2"/>
       <c r="B988" s="2"/>
       <c r="C988" s="40"/>
@@ -58871,7 +59011,7 @@
       <c r="Y988" s="2"/>
       <c r="Z988" s="2"/>
     </row>
-    <row r="989" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:26" ht="15.75" customHeight="1">
       <c r="A989" s="2"/>
       <c r="B989" s="2"/>
       <c r="C989" s="40"/>
@@ -58899,7 +59039,7 @@
       <c r="Y989" s="2"/>
       <c r="Z989" s="2"/>
     </row>
-    <row r="990" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:26" ht="15.75" customHeight="1">
       <c r="A990" s="2"/>
       <c r="B990" s="2"/>
       <c r="C990" s="40"/>
@@ -58927,7 +59067,7 @@
       <c r="Y990" s="2"/>
       <c r="Z990" s="2"/>
     </row>
-    <row r="991" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:26" ht="15.75" customHeight="1">
       <c r="A991" s="2"/>
       <c r="B991" s="2"/>
       <c r="C991" s="40"/>
@@ -58955,7 +59095,7 @@
       <c r="Y991" s="2"/>
       <c r="Z991" s="2"/>
     </row>
-    <row r="992" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:26" ht="15.75" customHeight="1">
       <c r="A992" s="2"/>
       <c r="B992" s="2"/>
       <c r="C992" s="40"/>
@@ -58983,7 +59123,7 @@
       <c r="Y992" s="2"/>
       <c r="Z992" s="2"/>
     </row>
-    <row r="993" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:26" ht="15.75" customHeight="1">
       <c r="A993" s="2"/>
       <c r="B993" s="2"/>
       <c r="C993" s="40"/>
@@ -59011,7 +59151,7 @@
       <c r="Y993" s="2"/>
       <c r="Z993" s="2"/>
     </row>
-    <row r="994" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:26" ht="15.75" customHeight="1">
       <c r="A994" s="2"/>
       <c r="B994" s="2"/>
       <c r="C994" s="40"/>
@@ -59039,7 +59179,7 @@
       <c r="Y994" s="2"/>
       <c r="Z994" s="2"/>
     </row>
-    <row r="995" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:26" ht="15.75" customHeight="1">
       <c r="A995" s="2"/>
       <c r="B995" s="2"/>
       <c r="C995" s="40"/>
@@ -59067,7 +59207,7 @@
       <c r="Y995" s="2"/>
       <c r="Z995" s="2"/>
     </row>
-    <row r="996" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:26" ht="15.75" customHeight="1">
       <c r="A996" s="2"/>
       <c r="B996" s="2"/>
       <c r="C996" s="40"/>
@@ -59095,7 +59235,7 @@
       <c r="Y996" s="2"/>
       <c r="Z996" s="2"/>
     </row>
-    <row r="997" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:26" ht="15.75" customHeight="1">
       <c r="A997" s="2"/>
       <c r="B997" s="2"/>
       <c r="C997" s="40"/>
@@ -59123,7 +59263,7 @@
       <c r="Y997" s="2"/>
       <c r="Z997" s="2"/>
     </row>
-    <row r="998" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:26" ht="15.75" customHeight="1">
       <c r="A998" s="2"/>
       <c r="B998" s="2"/>
       <c r="C998" s="40"/>
@@ -59151,7 +59291,7 @@
       <c r="Y998" s="2"/>
       <c r="Z998" s="2"/>
     </row>
-    <row r="999" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:26" ht="15.75" customHeight="1">
       <c r="A999" s="2"/>
       <c r="B999" s="2"/>
       <c r="C999" s="40"/>
@@ -59179,7 +59319,7 @@
       <c r="Y999" s="2"/>
       <c r="Z999" s="2"/>
     </row>
-    <row r="1000" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1000" s="2"/>
       <c r="B1000" s="2"/>
       <c r="C1000" s="40"/>
